--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Закладка</t>
   </si>
@@ -26,6 +26,93 @@
   </si>
   <si>
     <t>Договор</t>
+  </si>
+  <si>
+    <t>apartment_type</t>
+  </si>
+  <si>
+    <t>client_name</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>contract2</t>
+  </si>
+  <si>
+    <t>contract3</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t>date3</t>
+  </si>
+  <si>
+    <t>employee_category</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>flat_nmbr</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>floors_cnt</t>
+  </si>
+  <si>
+    <t>gross_area</t>
+  </si>
+  <si>
+    <t>komplex_addr</t>
+  </si>
+  <si>
+    <t>street_addr</t>
+  </si>
+  <si>
+    <t>количество комнат</t>
+  </si>
+  <si>
+    <t>ФИО клиента</t>
+  </si>
+  <si>
+    <t>№ контракта</t>
+  </si>
+  <si>
+    <t>дата контракта в формате 00.00.0000</t>
+  </si>
+  <si>
+    <t>дата контракта в формате 00 месяц 0000</t>
+  </si>
+  <si>
+    <t>должность работника</t>
+  </si>
+  <si>
+    <t>ФИО работника</t>
+  </si>
+  <si>
+    <t>номер квартиры</t>
+  </si>
+  <si>
+    <t>этаж квартиры</t>
+  </si>
+  <si>
+    <t>этажность дома</t>
+  </si>
+  <si>
+    <t>общая площадь</t>
+  </si>
+  <si>
+    <t>номер по комплексу</t>
+  </si>
+  <si>
+    <t>адрес по улице</t>
   </si>
 </sst>
 </file>
@@ -119,10 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -185,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -442,7 +531,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -454,20 +543,148 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Закладка</t>
   </si>
@@ -113,6 +113,102 @@
   </si>
   <si>
     <t>адрес по улице</t>
+  </si>
+  <si>
+    <t>date4</t>
+  </si>
+  <si>
+    <t>дата контракта в формате 00 месяц 0001</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>назначение оценки</t>
+  </si>
+  <si>
+    <t>discount_dollar_price</t>
+  </si>
+  <si>
+    <t>discount_dollar_price_write</t>
+  </si>
+  <si>
+    <t>discount_price</t>
+  </si>
+  <si>
+    <t>discount_price_write</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>dollar_price</t>
+  </si>
+  <si>
+    <t>dollar_price_write</t>
+  </si>
+  <si>
+    <t>employee_name2</t>
+  </si>
+  <si>
+    <t>limits</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_write</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>SNIP_area</t>
+  </si>
+  <si>
+    <t>ликвидационная цена в долларах</t>
+  </si>
+  <si>
+    <t>ликвидационная цена в долларах прописью</t>
+  </si>
+  <si>
+    <t>ликвидационная цена в руб</t>
+  </si>
+  <si>
+    <t>ликвидационная цена прописью</t>
+  </si>
+  <si>
+    <t>курс доллара</t>
+  </si>
+  <si>
+    <t>долларавая цена</t>
+  </si>
+  <si>
+    <t>долларавая цена прописью</t>
+  </si>
+  <si>
+    <t>ограничения</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>цена прописью</t>
+  </si>
+  <si>
+    <t>цель оценки</t>
+  </si>
+  <si>
+    <t>права</t>
+  </si>
+  <si>
+    <t>площадь по СНиП</t>
+  </si>
+  <si>
+    <t>employee_SRO</t>
   </si>
 </sst>
 </file>
@@ -516,21 +612,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -538,27 +634,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -566,7 +665,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -574,7 +676,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -582,7 +687,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -590,7 +698,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -598,7 +709,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -606,7 +720,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -614,7 +731,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -622,68 +742,273 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C38" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="331">
   <si>
     <t>Закладка</t>
   </si>
@@ -209,6 +209,804 @@
   </si>
   <si>
     <t>employee_SRO</t>
+  </si>
+  <si>
+    <t>address_client</t>
+  </si>
+  <si>
+    <t>address_street</t>
+  </si>
+  <si>
+    <t>address_street10</t>
+  </si>
+  <si>
+    <t>address_street2</t>
+  </si>
+  <si>
+    <t>address_street3</t>
+  </si>
+  <si>
+    <t>address_street4</t>
+  </si>
+  <si>
+    <t>address_street5</t>
+  </si>
+  <si>
+    <t>address_street6</t>
+  </si>
+  <si>
+    <t>address_street7</t>
+  </si>
+  <si>
+    <t>address_street8</t>
+  </si>
+  <si>
+    <t>address_street9</t>
+  </si>
+  <si>
+    <t>adress_complex</t>
+  </si>
+  <si>
+    <t>adress_complex2</t>
+  </si>
+  <si>
+    <t>adress_complex3</t>
+  </si>
+  <si>
+    <t>adress_complex4</t>
+  </si>
+  <si>
+    <t>adress_complex5</t>
+  </si>
+  <si>
+    <t>adress_complex6</t>
+  </si>
+  <si>
+    <t>apartment_type2</t>
+  </si>
+  <si>
+    <t>apartment_type3</t>
+  </si>
+  <si>
+    <t>apartment_type4</t>
+  </si>
+  <si>
+    <t>apartment_type5</t>
+  </si>
+  <si>
+    <t>apartment_type6</t>
+  </si>
+  <si>
+    <t>apartment_type7</t>
+  </si>
+  <si>
+    <t>apartment_type8</t>
+  </si>
+  <si>
+    <t>apartment_type9</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>area2</t>
+  </si>
+  <si>
+    <t>area3</t>
+  </si>
+  <si>
+    <t>area_snip</t>
+  </si>
+  <si>
+    <t>area_snip2</t>
+  </si>
+  <si>
+    <t>attic</t>
+  </si>
+  <si>
+    <t>balkon</t>
+  </si>
+  <si>
+    <t>bank_list</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>basement_wear</t>
+  </si>
+  <si>
+    <t>bath_ceiling</t>
+  </si>
+  <si>
+    <t>bath_floor</t>
+  </si>
+  <si>
+    <t>bath_wall</t>
+  </si>
+  <si>
+    <t>bti_ok</t>
+  </si>
+  <si>
+    <t>ceiling_state</t>
+  </si>
+  <si>
+    <t>ceiling_type</t>
+  </si>
+  <si>
+    <t>ceiling_wear</t>
+  </si>
+  <si>
+    <t>ceilingl_kitchen_type</t>
+  </si>
+  <si>
+    <t>ceilingl_living_type</t>
+  </si>
+  <si>
+    <t>ceilng_corrd_type</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>client2</t>
+  </si>
+  <si>
+    <t>client3</t>
+  </si>
+  <si>
+    <t>client4</t>
+  </si>
+  <si>
+    <t>client5</t>
+  </si>
+  <si>
+    <t>client6</t>
+  </si>
+  <si>
+    <t>client_document</t>
+  </si>
+  <si>
+    <t>closest_stop</t>
+  </si>
+  <si>
+    <t>concerge</t>
+  </si>
+  <si>
+    <t>data_eval</t>
+  </si>
+  <si>
+    <t>data_eval2</t>
+  </si>
+  <si>
+    <t>data_eval3</t>
+  </si>
+  <si>
+    <t>data_eval4</t>
+  </si>
+  <si>
+    <t>data_eval5</t>
+  </si>
+  <si>
+    <t>data_eval6</t>
+  </si>
+  <si>
+    <t>data_eval7</t>
+  </si>
+  <si>
+    <t>data_report</t>
+  </si>
+  <si>
+    <t>data_report2</t>
+  </si>
+  <si>
+    <t>data_report3</t>
+  </si>
+  <si>
+    <t>data_report4</t>
+  </si>
+  <si>
+    <t>data_report5</t>
+  </si>
+  <si>
+    <t>devices_4_system</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>discount2</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>dollar2</t>
+  </si>
+  <si>
+    <t>dollar3</t>
+  </si>
+  <si>
+    <t>dollar4</t>
+  </si>
+  <si>
+    <t>domofon</t>
+  </si>
+  <si>
+    <t>doors_cond</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>employee2</t>
+  </si>
+  <si>
+    <t>employee3</t>
+  </si>
+  <si>
+    <t>employee4</t>
+  </si>
+  <si>
+    <t>employee5</t>
+  </si>
+  <si>
+    <t>employee6</t>
+  </si>
+  <si>
+    <t>employee7</t>
+  </si>
+  <si>
+    <t>employee_document</t>
+  </si>
+  <si>
+    <t>employee_edu</t>
+  </si>
+  <si>
+    <t>employee_edu2</t>
+  </si>
+  <si>
+    <t>employee_insur</t>
+  </si>
+  <si>
+    <t>employee_insur2</t>
+  </si>
+  <si>
+    <t>employee_insur3</t>
+  </si>
+  <si>
+    <t>employee_insur4</t>
+  </si>
+  <si>
+    <t>employee_pos</t>
+  </si>
+  <si>
+    <t>employee_qnt</t>
+  </si>
+  <si>
+    <t>employee_sro</t>
+  </si>
+  <si>
+    <t>employee_sro2</t>
+  </si>
+  <si>
+    <t>employee_sro3</t>
+  </si>
+  <si>
+    <t>employee_sro4</t>
+  </si>
+  <si>
+    <t>employee_stag</t>
+  </si>
+  <si>
+    <t>employee_stag2</t>
+  </si>
+  <si>
+    <t>extend_area</t>
+  </si>
+  <si>
+    <t>extended_factors</t>
+  </si>
+  <si>
+    <t>flat_cond</t>
+  </si>
+  <si>
+    <t>flat_height</t>
+  </si>
+  <si>
+    <t>flats_in_floor</t>
+  </si>
+  <si>
+    <t>floor2</t>
+  </si>
+  <si>
+    <t>floor_corrd_type</t>
+  </si>
+  <si>
+    <t>floor_kitchen_type</t>
+  </si>
+  <si>
+    <t>floor_living_type</t>
+  </si>
+  <si>
+    <t>floors</t>
+  </si>
+  <si>
+    <t>floors2</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>heating_cond</t>
+  </si>
+  <si>
+    <t>heating_pipe</t>
+  </si>
+  <si>
+    <t>heating_radiator</t>
+  </si>
+  <si>
+    <t>heating_type</t>
+  </si>
+  <si>
+    <t>holders</t>
+  </si>
+  <si>
+    <t>holders2</t>
+  </si>
+  <si>
+    <t>holders_documents</t>
+  </si>
+  <si>
+    <t>holders_documents2</t>
+  </si>
+  <si>
+    <t>hospital_list</t>
+  </si>
+  <si>
+    <t>house_wear</t>
+  </si>
+  <si>
+    <t>house_wear2</t>
+  </si>
+  <si>
+    <t>house_year</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>image10</t>
+  </si>
+  <si>
+    <t>image2</t>
+  </si>
+  <si>
+    <t>image3</t>
+  </si>
+  <si>
+    <t>image4</t>
+  </si>
+  <si>
+    <t>image5</t>
+  </si>
+  <si>
+    <t>image6</t>
+  </si>
+  <si>
+    <t>image7</t>
+  </si>
+  <si>
+    <t>image8</t>
+  </si>
+  <si>
+    <t>image9</t>
+  </si>
+  <si>
+    <t>image11</t>
+  </si>
+  <si>
+    <t>image12</t>
+  </si>
+  <si>
+    <t>image13</t>
+  </si>
+  <si>
+    <t>image10_comment</t>
+  </si>
+  <si>
+    <t>image1_comment</t>
+  </si>
+  <si>
+    <t>image2_comment</t>
+  </si>
+  <si>
+    <t>image3_comment</t>
+  </si>
+  <si>
+    <t>image4_comment</t>
+  </si>
+  <si>
+    <t>image5_comment</t>
+  </si>
+  <si>
+    <t>image6_comment</t>
+  </si>
+  <si>
+    <t>image7_comment</t>
+  </si>
+  <si>
+    <t>image8_comment</t>
+  </si>
+  <si>
+    <t>image9_comment</t>
+  </si>
+  <si>
+    <t>image11_comment</t>
+  </si>
+  <si>
+    <t>image12_comment</t>
+  </si>
+  <si>
+    <t>image13_comment</t>
+  </si>
+  <si>
+    <t>image_map1</t>
+  </si>
+  <si>
+    <t>image_map2</t>
+  </si>
+  <si>
+    <t>is_defect</t>
+  </si>
+  <si>
+    <t>is_defect2</t>
+  </si>
+  <si>
+    <t>is_pereplan</t>
+  </si>
+  <si>
+    <t>kanal_cond</t>
+  </si>
+  <si>
+    <t>kanal_devices</t>
+  </si>
+  <si>
+    <t>kanal_pipe</t>
+  </si>
+  <si>
+    <t>kapremont</t>
+  </si>
+  <si>
+    <t>kapremont_year</t>
+  </si>
+  <si>
+    <t>kapremont_year2</t>
+  </si>
+  <si>
+    <t>kinder_list</t>
+  </si>
+  <si>
+    <t>kitchen_area</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>limits2</t>
+  </si>
+  <si>
+    <t>living_area</t>
+  </si>
+  <si>
+    <t>living_area2</t>
+  </si>
+  <si>
+    <t>local1</t>
+  </si>
+  <si>
+    <t>local2</t>
+  </si>
+  <si>
+    <t>main_door_type</t>
+  </si>
+  <si>
+    <t>object_type</t>
+  </si>
+  <si>
+    <t>object_type2</t>
+  </si>
+  <si>
+    <t>object_type3</t>
+  </si>
+  <si>
+    <t>object_type4</t>
+  </si>
+  <si>
+    <t>object_type5</t>
+  </si>
+  <si>
+    <t>object_type6</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>pharmacy_list</t>
+  </si>
+  <si>
+    <t>plan_now</t>
+  </si>
+  <si>
+    <t>posible_2_register</t>
+  </si>
+  <si>
+    <t>prestig</t>
+  </si>
+  <si>
+    <t>price2</t>
+  </si>
+  <si>
+    <t>price3</t>
+  </si>
+  <si>
+    <t>price4</t>
+  </si>
+  <si>
+    <t>price5</t>
+  </si>
+  <si>
+    <t>price6</t>
+  </si>
+  <si>
+    <t>price7</t>
+  </si>
+  <si>
+    <t>price8</t>
+  </si>
+  <si>
+    <t>price9</t>
+  </si>
+  <si>
+    <t>price8_write</t>
+  </si>
+  <si>
+    <t>price_discount</t>
+  </si>
+  <si>
+    <t>price_discount2</t>
+  </si>
+  <si>
+    <t>price_discount3</t>
+  </si>
+  <si>
+    <t>price_discount4</t>
+  </si>
+  <si>
+    <t>price_discount5</t>
+  </si>
+  <si>
+    <t>price_discount6</t>
+  </si>
+  <si>
+    <t>price_discount7</t>
+  </si>
+  <si>
+    <t>price_discount5_write</t>
+  </si>
+  <si>
+    <t>price_discount6_write</t>
+  </si>
+  <si>
+    <t>price_discount_dollar</t>
+  </si>
+  <si>
+    <t>price_discount_dollar2</t>
+  </si>
+  <si>
+    <t>price_discount_dollar3</t>
+  </si>
+  <si>
+    <t>price_discount_dollar4</t>
+  </si>
+  <si>
+    <t>price_discount_dollar5</t>
+  </si>
+  <si>
+    <t>price_discount_dollar4_write</t>
+  </si>
+  <si>
+    <t>price_discount_write</t>
+  </si>
+  <si>
+    <t>price_dollar</t>
+  </si>
+  <si>
+    <t>price_dollar2</t>
+  </si>
+  <si>
+    <t>price_dollar3</t>
+  </si>
+  <si>
+    <t>price_dollar4</t>
+  </si>
+  <si>
+    <t>price_dollar5</t>
+  </si>
+  <si>
+    <t>price_dollar_write</t>
+  </si>
+  <si>
+    <t>price_dollar_write2</t>
+  </si>
+  <si>
+    <t>price_write2</t>
+  </si>
+  <si>
+    <t>price_write3</t>
+  </si>
+  <si>
+    <t>prom_distance</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>repair_quality</t>
+  </si>
+  <si>
+    <t>report_data2</t>
+  </si>
+  <si>
+    <t>report_data3</t>
+  </si>
+  <si>
+    <t>report_data4</t>
+  </si>
+  <si>
+    <t>report_data5</t>
+  </si>
+  <si>
+    <t>report_number</t>
+  </si>
+  <si>
+    <t>report_number2</t>
+  </si>
+  <si>
+    <t>report_number3</t>
+  </si>
+  <si>
+    <t>report_number4</t>
+  </si>
+  <si>
+    <t>report_number5</t>
+  </si>
+  <si>
+    <t>report_number6</t>
+  </si>
+  <si>
+    <t>rest_list</t>
+  </si>
+  <si>
+    <t>rights2</t>
+  </si>
+  <si>
+    <t>roof_cond</t>
+  </si>
+  <si>
+    <t>room_door_type</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>sanuz_comb</t>
+  </si>
+  <si>
+    <t>sanuzel</t>
+  </si>
+  <si>
+    <t>school_list</t>
+  </si>
+  <si>
+    <t>separate</t>
+  </si>
+  <si>
+    <t>service_list</t>
+  </si>
+  <si>
+    <t>slabotoch</t>
+  </si>
+  <si>
+    <t>social_list</t>
+  </si>
+  <si>
+    <t>sqm_price</t>
+  </si>
+  <si>
+    <t>sqm_price2</t>
+  </si>
+  <si>
+    <t>sqm_price_dollar</t>
+  </si>
+  <si>
+    <t>stop_distance</t>
+  </si>
+  <si>
+    <t>systems_connection</t>
+  </si>
+  <si>
+    <t>technic_list</t>
+  </si>
+  <si>
+    <t>toilet_ceiling</t>
+  </si>
+  <si>
+    <t>toilet_floor</t>
+  </si>
+  <si>
+    <t>toilet_wall</t>
+  </si>
+  <si>
+    <t>trade_list</t>
+  </si>
+  <si>
+    <t>transport_type</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>wall_corrd_type</t>
+  </si>
+  <si>
+    <t>wall_kitchen_type</t>
+  </si>
+  <si>
+    <t>wall_living_type</t>
+  </si>
+  <si>
+    <t>wall_type</t>
+  </si>
+  <si>
+    <t>wall_type2</t>
+  </si>
+  <si>
+    <t>wall_type3</t>
+  </si>
+  <si>
+    <t>wall_type4</t>
+  </si>
+  <si>
+    <t>wall_wear</t>
+  </si>
+  <si>
+    <t>wall_wear2</t>
+  </si>
+  <si>
+    <t>water_cond</t>
+  </si>
+  <si>
+    <t>water_razv</t>
+  </si>
+  <si>
+    <t>water_stoyak</t>
+  </si>
+  <si>
+    <t>window_cond</t>
+  </si>
+  <si>
+    <t>window_type</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>year2</t>
   </si>
 </sst>
 </file>
@@ -291,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +1104,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
@@ -644,377 +1449,2864 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>45</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>47</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>49</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>51</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>52</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>53</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>54</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>55</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>56</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>57</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>58</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>59</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>60</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>61</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>62</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>63</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>64</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>65</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>66</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>67</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>68</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>69</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>70</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>71</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>72</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>73</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>74</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>75</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>76</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>77</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>78</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>79</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>80</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>81</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>82</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>83</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>84</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>85</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>86</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>87</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>88</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>89</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>90</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>91</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>92</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>93</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>94</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>95</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>96</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>97</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>98</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>99</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>100</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>101</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>102</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>103</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>104</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>105</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>106</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>107</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>108</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>109</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>110</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>111</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>112</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>113</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>114</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>115</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>116</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>117</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>118</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>119</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>120</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>121</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>122</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>123</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>124</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>125</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>126</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>127</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>128</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>129</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>130</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>131</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>132</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>133</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>134</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>135</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>136</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>137</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>138</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>139</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>140</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>141</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>142</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>143</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>144</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>145</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>146</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>147</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>148</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>149</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>150</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>151</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>152</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>153</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>154</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>155</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>156</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>157</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C162" s="7"/>
+    </row>
+    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>158</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>159</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>160</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>161</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>162</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C167" s="7"/>
+    </row>
+    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>163</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>164</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" s="7"/>
+    </row>
+    <row r="170" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>165</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C170" s="7"/>
+    </row>
+    <row r="171" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>166</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="7"/>
+    </row>
+    <row r="172" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>167</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C172" s="7"/>
+    </row>
+    <row r="173" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>168</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" s="7"/>
+    </row>
+    <row r="174" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>169</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>170</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>171</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>172</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177" s="7"/>
+    </row>
+    <row r="178" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>173</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>174</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C179" s="7"/>
+    </row>
+    <row r="180" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>175</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180" s="7"/>
+    </row>
+    <row r="181" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>176</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" s="7"/>
+    </row>
+    <row r="182" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>177</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C182" s="7"/>
+    </row>
+    <row r="183" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>178</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C183" s="7"/>
+    </row>
+    <row r="184" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>179</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C184" s="7"/>
+    </row>
+    <row r="185" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>180</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185" s="7"/>
+    </row>
+    <row r="186" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>181</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C186" s="7"/>
+    </row>
+    <row r="187" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>182</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>183</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188" s="7"/>
+    </row>
+    <row r="189" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>184</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189" s="7"/>
+    </row>
+    <row r="190" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>185</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>186</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C191" s="7"/>
+    </row>
+    <row r="192" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>187</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C192" s="7"/>
+    </row>
+    <row r="193" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>188</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" s="7"/>
+    </row>
+    <row r="194" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>189</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" s="7"/>
+    </row>
+    <row r="195" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>190</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C195" s="7"/>
+    </row>
+    <row r="196" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>191</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C196" s="7"/>
+    </row>
+    <row r="197" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>192</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C197" s="7"/>
+    </row>
+    <row r="198" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>193</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>194</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C199" s="7"/>
+    </row>
+    <row r="200" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>195</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C200" s="7"/>
+    </row>
+    <row r="201" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>196</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C201" s="7"/>
+    </row>
+    <row r="202" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>197</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C202" s="7"/>
+    </row>
+    <row r="203" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>198</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C203" s="7"/>
+    </row>
+    <row r="204" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>199</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C204" s="7"/>
+    </row>
+    <row r="205" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>200</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205" s="7"/>
+    </row>
+    <row r="206" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>201</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C206" s="7"/>
+    </row>
+    <row r="207" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>202</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C207" s="7"/>
+    </row>
+    <row r="208" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>203</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C208" s="7"/>
+    </row>
+    <row r="209" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>204</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C209" s="7"/>
+    </row>
+    <row r="210" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>205</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C210" s="7"/>
+    </row>
+    <row r="211" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>206</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C211" s="7"/>
+    </row>
+    <row r="212" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>207</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="7"/>
+    </row>
+    <row r="213" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>208</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C213" s="7"/>
+    </row>
+    <row r="214" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>209</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>210</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C215" s="7"/>
+    </row>
+    <row r="216" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>211</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C216" s="7"/>
+    </row>
+    <row r="217" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>212</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C217" s="7"/>
+    </row>
+    <row r="218" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>213</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C218" s="7"/>
+    </row>
+    <row r="219" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>214</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C219" s="7"/>
+    </row>
+    <row r="220" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>215</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C220" s="7"/>
+    </row>
+    <row r="221" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>216</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" s="7"/>
+    </row>
+    <row r="222" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>217</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="7"/>
+    </row>
+    <row r="223" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>218</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" s="7"/>
+    </row>
+    <row r="224" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>219</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C224" s="7"/>
+    </row>
+    <row r="225" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>220</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C225" s="7"/>
+    </row>
+    <row r="226" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>221</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="7"/>
+    </row>
+    <row r="227" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>222</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C227" s="7"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>223</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>224</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>225</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>226</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>227</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>228</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>229</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>230</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>231</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>232</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>233</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>234</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>235</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>236</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>237</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>238</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>239</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>240</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>241</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>242</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>243</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>244</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>245</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>246</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>247</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>248</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>249</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>250</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>251</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
+        <v>252</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <v>253</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
+        <v>254</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <v>255</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
+        <v>256</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <v>257</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <v>258</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>259</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <v>260</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <v>261</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <v>262</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <v>263</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>264</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
+        <v>265</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <v>266</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <v>267</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <v>268</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
+        <v>269</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <v>270</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>271</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>272</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>273</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>274</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B281" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C281" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B282" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C282" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B283" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C283" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B284" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C284" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C285" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B286" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C286" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B287" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C287" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B288" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C288" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B289" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C289" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B290" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C290" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B291" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C291" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B292" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C292" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B293" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C293" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B294" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C294" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B295" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C295" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B296" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C296" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B297" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C297" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B298" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C298" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B299" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C299" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B300" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C300" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B301" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C301" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B302" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C302" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B303" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C303" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B304" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C304" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B305" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C305" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B306" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C306" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>26</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B307" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C307" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B308" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C308" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>28</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B309" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C309" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B310" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C310" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B311" t="s">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C311" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B312" t="s">
         <v>19</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C312" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>32</v>
+      </c>
+      <c r="B313" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B280:C280"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="460">
   <si>
     <t>Закладка</t>
   </si>
@@ -406,9 +406,6 @@
     <t>data_report4</t>
   </si>
   <si>
-    <t>data_report5</t>
-  </si>
-  <si>
     <t>devices_4_system</t>
   </si>
   <si>
@@ -1007,19 +1004,416 @@
   </si>
   <si>
     <t>year2</t>
+  </si>
+  <si>
+    <t>адрес клиента</t>
+  </si>
+  <si>
+    <t>адрес объекта по улице</t>
+  </si>
+  <si>
+    <t>адрес по комплексу</t>
+  </si>
+  <si>
+    <t>комнат в квартире</t>
+  </si>
+  <si>
+    <t>площадь по снип</t>
+  </si>
+  <si>
+    <t>наличие чердака</t>
+  </si>
+  <si>
+    <t>наличие балкона</t>
+  </si>
+  <si>
+    <t>список банков по близости</t>
+  </si>
+  <si>
+    <t>фундамент</t>
+  </si>
+  <si>
+    <t>износ фундамента</t>
+  </si>
+  <si>
+    <t>потолок ванной</t>
+  </si>
+  <si>
+    <t>пол ванной</t>
+  </si>
+  <si>
+    <t>стены в ванной</t>
+  </si>
+  <si>
+    <t>регистрация перепланировки не требуется</t>
+  </si>
+  <si>
+    <t>состояние перекрытий</t>
+  </si>
+  <si>
+    <t>тип перекрытий</t>
+  </si>
+  <si>
+    <t>износ перекрытий</t>
+  </si>
+  <si>
+    <t>тип потолков в кухне</t>
+  </si>
+  <si>
+    <t>тип потолков в жилых комнатах</t>
+  </si>
+  <si>
+    <t>тип потолков в коридоре</t>
+  </si>
+  <si>
+    <t>Документы клиента</t>
+  </si>
+  <si>
+    <t>ближайшая остановка</t>
+  </si>
+  <si>
+    <t>консьерж</t>
+  </si>
+  <si>
+    <t>дата проведения оценки</t>
+  </si>
+  <si>
+    <t>дата составления отчета</t>
+  </si>
+  <si>
+    <t>назначения отчета</t>
+  </si>
+  <si>
+    <t>уценка %</t>
+  </si>
+  <si>
+    <t>район</t>
+  </si>
+  <si>
+    <t>документы клиента</t>
+  </si>
+  <si>
+    <t>наличие домофона</t>
+  </si>
+  <si>
+    <t>состояние дверей</t>
+  </si>
+  <si>
+    <t>документы работника</t>
+  </si>
+  <si>
+    <t>образование раб</t>
+  </si>
+  <si>
+    <t>страховка работн</t>
+  </si>
+  <si>
+    <t>число работников</t>
+  </si>
+  <si>
+    <t>данные по СРО</t>
+  </si>
+  <si>
+    <t>стаж работника</t>
+  </si>
+  <si>
+    <t>доп помещения: кладовки</t>
+  </si>
+  <si>
+    <t>доп факторы влияющие на стоимость</t>
+  </si>
+  <si>
+    <t>состяние квартиры</t>
+  </si>
+  <si>
+    <t>высота потолков</t>
+  </si>
+  <si>
+    <t>полы в квартире</t>
+  </si>
+  <si>
+    <t>этаж</t>
+  </si>
+  <si>
+    <t>тип полов в коридоре</t>
+  </si>
+  <si>
+    <t>тип полов в кухне</t>
+  </si>
+  <si>
+    <t>тип полов в жил комн</t>
+  </si>
+  <si>
+    <t>нал мусоропровода</t>
+  </si>
+  <si>
+    <t>состояние отопления</t>
+  </si>
+  <si>
+    <t>приборы для инжен. Сетей</t>
+  </si>
+  <si>
+    <t>тип труб отопл</t>
+  </si>
+  <si>
+    <t>тип радиаторов</t>
+  </si>
+  <si>
+    <t>тип отопления</t>
+  </si>
+  <si>
+    <t>владельцы квартиры</t>
+  </si>
+  <si>
+    <t>документы владельцев</t>
+  </si>
+  <si>
+    <t>список больник рядом</t>
+  </si>
+  <si>
+    <t>износ дома</t>
+  </si>
+  <si>
+    <t>год постройки</t>
+  </si>
+  <si>
+    <t>картинка</t>
+  </si>
+  <si>
+    <t>комментарий к фото</t>
+  </si>
+  <si>
+    <t>карта где находтся объект</t>
+  </si>
+  <si>
+    <t>карта где находтся аналоги</t>
+  </si>
+  <si>
+    <t>наличие дефектов конструкции</t>
+  </si>
+  <si>
+    <t>есть ли перепланировка</t>
+  </si>
+  <si>
+    <t>состояние канализации</t>
+  </si>
+  <si>
+    <t>приборы учета</t>
+  </si>
+  <si>
+    <t>тип труб канализации</t>
+  </si>
+  <si>
+    <t>периодичность капремонта</t>
+  </si>
+  <si>
+    <t>год капремонта</t>
+  </si>
+  <si>
+    <t>список садиков</t>
+  </si>
+  <si>
+    <t>площадь кухни</t>
+  </si>
+  <si>
+    <t>наличие лифта</t>
+  </si>
+  <si>
+    <t>ограничения прав</t>
+  </si>
+  <si>
+    <t>жилая площадь</t>
+  </si>
+  <si>
+    <t>локальные особенности расположения</t>
+  </si>
+  <si>
+    <t>тип входной двери</t>
+  </si>
+  <si>
+    <t>тип объекта - жилая квартира</t>
+  </si>
+  <si>
+    <t>наличие паркинга</t>
+  </si>
+  <si>
+    <t>список аптек</t>
+  </si>
+  <si>
+    <t>есть ли актуальный план квартиры</t>
+  </si>
+  <si>
+    <t>можно ли зарегистр перепланировку</t>
+  </si>
+  <si>
+    <t>престижность района</t>
+  </si>
+  <si>
+    <t>цена с уценкой</t>
+  </si>
+  <si>
+    <t>цена с уценкой прописью</t>
+  </si>
+  <si>
+    <t>цена в долларах</t>
+  </si>
+  <si>
+    <t>цена с уценкой в долларах</t>
+  </si>
+  <si>
+    <t>цена с уценкой в долларах прописью</t>
+  </si>
+  <si>
+    <t>цена с уценкой  прописью</t>
+  </si>
+  <si>
+    <t>цена в долларах прописью</t>
+  </si>
+  <si>
+    <t>цена  прописью</t>
+  </si>
+  <si>
+    <t>удаленность от промзоны</t>
+  </si>
+  <si>
+    <t>требуется ли ремонт</t>
+  </si>
+  <si>
+    <t>качество ремонта</t>
+  </si>
+  <si>
+    <t>дата отчета</t>
+  </si>
+  <si>
+    <t>номер отчета</t>
+  </si>
+  <si>
+    <t>список мест отдыха по близ</t>
+  </si>
+  <si>
+    <t>состояние крыши</t>
+  </si>
+  <si>
+    <t>тип межкомн дверей</t>
+  </si>
+  <si>
+    <t>тип комнат</t>
+  </si>
+  <si>
+    <t>комбиниров санузел?</t>
+  </si>
+  <si>
+    <t>кол-во и тип санузлов</t>
+  </si>
+  <si>
+    <t>список школ по близ</t>
+  </si>
+  <si>
+    <t>отельные от других квартир санузел и кухня</t>
+  </si>
+  <si>
+    <t>список предприятий быта по близости</t>
+  </si>
+  <si>
+    <t>слаботочное обеспечение</t>
+  </si>
+  <si>
+    <t>соц слой жильцов дома</t>
+  </si>
+  <si>
+    <t>цена кв м</t>
+  </si>
+  <si>
+    <t>цена кв м $</t>
+  </si>
+  <si>
+    <t>рассотяние до остановки</t>
+  </si>
+  <si>
+    <t>подключен ли к инж системам</t>
+  </si>
+  <si>
+    <t>Техническое обустройство</t>
+  </si>
+  <si>
+    <t>отделка потолков в туалете</t>
+  </si>
+  <si>
+    <t>отделка полов в туалете</t>
+  </si>
+  <si>
+    <t>отделка стен в туалете</t>
+  </si>
+  <si>
+    <t>список объектов торговли</t>
+  </si>
+  <si>
+    <t>общ транспорт</t>
+  </si>
+  <si>
+    <t>вид из окон</t>
+  </si>
+  <si>
+    <t>отделка стен в коридоре</t>
+  </si>
+  <si>
+    <t>отделка стен в кухне</t>
+  </si>
+  <si>
+    <t>отделка стен в жил комнатах</t>
+  </si>
+  <si>
+    <t>тип стен дома</t>
+  </si>
+  <si>
+    <t>тип стен перегородок</t>
+  </si>
+  <si>
+    <t>износ стен</t>
+  </si>
+  <si>
+    <t>состояние водоснабжения</t>
+  </si>
+  <si>
+    <t>тип разводки</t>
+  </si>
+  <si>
+    <t>тип стояков</t>
+  </si>
+  <si>
+    <t>состояние окон</t>
+  </si>
+  <si>
+    <t>тип окон</t>
+  </si>
+  <si>
+    <t>ФИО клиента кому?</t>
+  </si>
+  <si>
+    <t>ИО клиента</t>
+  </si>
+  <si>
+    <t>price10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1089,21 +1483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1113,6 +1498,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1417,2617 +1818,3270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:K313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:K279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C5" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="C7" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C8" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C9" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="C10" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="C11" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="C12" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="C13" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="C14" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="C15" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="C16" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="C17" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="C18" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="C19" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="C20" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="C21" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="C22" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="C23" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="C24" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="C25" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="C26" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="C27" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="C28" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="C29" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="C30" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="C31" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="C34" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="C35" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="C36" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="C37" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="C38" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="C39" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="C40" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="C41" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="C42" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="C43" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="C44" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="C45" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="C46" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="C47" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="C48" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="C49" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>45</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="C50" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="C51" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="C52" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="C53" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="C54" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="C55" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>51</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="C56" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>52</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="C57" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>53</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="C58" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="C59" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>55</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="C60" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>56</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="C61" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>57</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="C62" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>58</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="C63" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>59</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="C64" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>60</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="C65" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>61</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="C66" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>62</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="C67" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>63</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="C68" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="C69" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>65</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="C70" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>66</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>67</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>68</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>69</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>70</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>71</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>72</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>73</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>74</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>75</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>76</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>77</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>78</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>79</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>80</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>81</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>82</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>83</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>84</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>85</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>86</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
-        <v>87</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>88</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <v>89</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>90</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>91</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <v>92</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="C97" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
-        <v>93</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
-        <v>94</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
-        <v>95</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>96</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
-        <v>97</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="7"/>
-    </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <v>98</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>99</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="C104" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>100</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="C105" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>101</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <v>102</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="C107" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>103</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <v>104</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="C109" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>105</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="7"/>
-    </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <v>106</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>107</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
-        <v>108</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="C113" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
-        <v>109</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="C114" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
-        <v>110</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>111</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
-        <v>111</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>112</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
-        <v>112</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="C117" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>113</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>113</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>114</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>114</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="C119" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>115</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>115</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="C120" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>116</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>116</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="C121" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>117</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>117</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="C122" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>118</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>118</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="C123" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>119</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <v>119</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>120</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <v>120</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>121</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>121</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>122</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>122</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>123</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
-        <v>123</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>124</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>124</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="C129" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>125</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <v>125</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>126</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="131" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
-        <v>126</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="C131" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>127</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>128</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>129</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>130</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>131</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>132</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>133</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>134</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>135</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
-        <v>127</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="C140" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>136</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>137</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>138</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>139</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>140</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>141</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>142</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>143</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>144</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>145</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>146</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>147</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>148</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>149</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>150</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>151</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>152</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>153</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>154</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>155</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>156</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>157</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>158</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>159</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>160</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>161</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>162</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>163</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>164</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>165</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>166</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>167</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>168</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>169</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>170</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>171</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>172</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>173</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>174</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>175</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>176</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>177</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>178</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>179</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>180</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>181</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>182</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>183</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>184</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>185</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>186</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>187</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>188</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>189</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
-        <v>128</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="B194" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>190</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>129</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="B195" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>191</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
-        <v>130</v>
-      </c>
-      <c r="B135" s="7" t="s">
+      <c r="B196" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>192</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
-        <v>131</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="B197" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>193</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
-        <v>132</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="B198" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>194</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
-        <v>133</v>
-      </c>
-      <c r="B138" s="7" t="s">
+      <c r="B199" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>195</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
-        <v>134</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="B200" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>196</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
-        <v>135</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
-        <v>136</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="B201" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>197</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
-        <v>137</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="B202" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>198</v>
       </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
-        <v>138</v>
-      </c>
-      <c r="B143" s="7" t="s">
+      <c r="B203" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>199</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
-        <v>139</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="B204" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>200</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>201</v>
       </c>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
-        <v>140</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="B206" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>202</v>
       </c>
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
-        <v>141</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="B207" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>203</v>
       </c>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
-        <v>142</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="B208" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>204</v>
       </c>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
-        <v>143</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="B209" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>205</v>
       </c>
-      <c r="C148" s="7"/>
-    </row>
-    <row r="149" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
-        <v>144</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="B210" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>206</v>
       </c>
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
-        <v>145</v>
-      </c>
-      <c r="B150" s="7" t="s">
+      <c r="B211" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>207</v>
       </c>
-      <c r="C150" s="7"/>
-    </row>
-    <row r="151" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
-        <v>146</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="B212" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <v>208</v>
       </c>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="152" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
-        <v>147</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="B213" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <v>209</v>
       </c>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
-        <v>148</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
-        <v>149</v>
-      </c>
-      <c r="B154" s="7" t="s">
+      <c r="B214" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <v>210</v>
       </c>
-      <c r="C154" s="7"/>
-    </row>
-    <row r="155" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6">
-        <v>150</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="B215" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <v>211</v>
       </c>
-      <c r="C155" s="7"/>
-    </row>
-    <row r="156" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6">
-        <v>151</v>
-      </c>
-      <c r="B156" s="7" t="s">
+      <c r="B216" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <v>212</v>
       </c>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6">
-        <v>152</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="B217" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <v>213</v>
       </c>
-      <c r="C157" s="7"/>
-    </row>
-    <row r="158" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6">
-        <v>153</v>
-      </c>
-      <c r="B158" s="7" t="s">
+      <c r="B218" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <v>214</v>
       </c>
-      <c r="C158" s="7"/>
-    </row>
-    <row r="159" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
-        <v>154</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="B219" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <v>215</v>
       </c>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6">
-        <v>155</v>
-      </c>
-      <c r="B160" s="7" t="s">
+      <c r="B220" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <v>216</v>
       </c>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6">
-        <v>156</v>
-      </c>
-      <c r="B161" s="8" t="s">
+      <c r="B221" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>217</v>
       </c>
-      <c r="C161" s="7"/>
-    </row>
-    <row r="162" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
-        <v>157</v>
-      </c>
-      <c r="B162" s="7" t="s">
+      <c r="B222" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>218</v>
       </c>
-      <c r="C162" s="7"/>
-    </row>
-    <row r="163" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6">
-        <v>158</v>
-      </c>
-      <c r="B163" s="7" t="s">
+      <c r="B223" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <v>219</v>
       </c>
-      <c r="C163" s="7"/>
-    </row>
-    <row r="164" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6">
-        <v>159</v>
-      </c>
-      <c r="B164" s="7" t="s">
+      <c r="B224" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>220</v>
       </c>
-      <c r="C164" s="7"/>
-    </row>
-    <row r="165" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6">
-        <v>160</v>
-      </c>
-      <c r="B165" s="7" t="s">
+      <c r="B225" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>221</v>
       </c>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6">
-        <v>161</v>
-      </c>
-      <c r="B166" s="7" t="s">
+      <c r="B226" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>222</v>
       </c>
-      <c r="C166" s="7"/>
-    </row>
-    <row r="167" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6">
-        <v>162</v>
-      </c>
-      <c r="B167" s="7" t="s">
+      <c r="B227" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>223</v>
       </c>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6">
-        <v>163</v>
-      </c>
-      <c r="B168" s="7" t="s">
+      <c r="B228" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F228" s="3"/>
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>224</v>
       </c>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="6">
-        <v>164</v>
-      </c>
-      <c r="B169" s="7" t="s">
+      <c r="B229" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F229" s="3"/>
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <v>225</v>
       </c>
-      <c r="C169" s="7"/>
-    </row>
-    <row r="170" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6">
-        <v>165</v>
-      </c>
-      <c r="B170" s="7" t="s">
+      <c r="B230" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <v>226</v>
       </c>
-      <c r="C170" s="7"/>
-    </row>
-    <row r="171" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6">
-        <v>166</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6">
-        <v>167</v>
-      </c>
-      <c r="B172" s="7" t="s">
+      <c r="B231" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>227</v>
       </c>
-      <c r="C172" s="7"/>
-    </row>
-    <row r="173" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6">
-        <v>168</v>
-      </c>
-      <c r="B173" s="7" t="s">
+      <c r="B232" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>228</v>
       </c>
-      <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
-        <v>169</v>
-      </c>
-      <c r="B174" s="7" t="s">
+      <c r="B233" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <v>229</v>
       </c>
-      <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6">
-        <v>170</v>
-      </c>
-      <c r="B175" s="7" t="s">
+      <c r="B234" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F234" s="3"/>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>230</v>
       </c>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6">
-        <v>171</v>
-      </c>
-      <c r="B176" s="7" t="s">
+      <c r="B235" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <v>231</v>
       </c>
-      <c r="C176" s="7"/>
-    </row>
-    <row r="177" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6">
-        <v>172</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="B236" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F236" s="3"/>
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>232</v>
       </c>
-      <c r="C177" s="7"/>
-    </row>
-    <row r="178" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6">
-        <v>173</v>
-      </c>
-      <c r="B178" s="7" t="s">
+      <c r="B237" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F237" s="3"/>
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>233</v>
       </c>
-      <c r="C178" s="7"/>
-    </row>
-    <row r="179" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6">
-        <v>174</v>
-      </c>
-      <c r="B179" s="7" t="s">
+      <c r="B238" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <v>234</v>
       </c>
-      <c r="C179" s="7"/>
-    </row>
-    <row r="180" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
-        <v>175</v>
-      </c>
-      <c r="B180" s="7" t="s">
+      <c r="B239" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F239" s="3"/>
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <v>235</v>
       </c>
-      <c r="C180" s="7"/>
-    </row>
-    <row r="181" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
-        <v>176</v>
-      </c>
-      <c r="B181" s="7" t="s">
+      <c r="B240" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F240" s="3"/>
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>236</v>
       </c>
-      <c r="C181" s="7"/>
-    </row>
-    <row r="182" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
-        <v>177</v>
-      </c>
-      <c r="B182" s="7" t="s">
+      <c r="B241" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F241" s="3"/>
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <v>237</v>
       </c>
-      <c r="C182" s="7"/>
-    </row>
-    <row r="183" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
-        <v>178</v>
-      </c>
-      <c r="B183" s="7" t="s">
+      <c r="B242" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F242" s="3"/>
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <v>238</v>
       </c>
-      <c r="C183" s="7"/>
-    </row>
-    <row r="184" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6">
-        <v>179</v>
-      </c>
-      <c r="B184" s="7" t="s">
+      <c r="B243" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F243" s="3"/>
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <v>239</v>
       </c>
-      <c r="C184" s="7"/>
-    </row>
-    <row r="185" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6">
-        <v>180</v>
-      </c>
-      <c r="B185" s="7" t="s">
+      <c r="B244" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <v>240</v>
       </c>
-      <c r="C185" s="7"/>
-    </row>
-    <row r="186" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6">
-        <v>181</v>
-      </c>
-      <c r="B186" s="7" t="s">
+      <c r="B245" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <v>241</v>
       </c>
-      <c r="C186" s="7"/>
-    </row>
-    <row r="187" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6">
-        <v>182</v>
-      </c>
-      <c r="B187" s="7" t="s">
+      <c r="B246" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>242</v>
       </c>
-      <c r="C187" s="7"/>
-    </row>
-    <row r="188" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6">
-        <v>183</v>
-      </c>
-      <c r="B188" s="7" t="s">
+      <c r="B247" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <v>243</v>
       </c>
-      <c r="C188" s="7"/>
-    </row>
-    <row r="189" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6">
-        <v>184</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C189" s="7"/>
-    </row>
-    <row r="190" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
-        <v>185</v>
-      </c>
-      <c r="B190" s="7" t="s">
+      <c r="B248" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F248" s="3"/>
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <v>244</v>
       </c>
-      <c r="C190" s="7"/>
-    </row>
-    <row r="191" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6">
-        <v>186</v>
-      </c>
-      <c r="B191" s="7" t="s">
+      <c r="B249" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>245</v>
       </c>
-      <c r="C191" s="7"/>
-    </row>
-    <row r="192" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6">
-        <v>187</v>
-      </c>
-      <c r="B192" s="7" t="s">
+      <c r="B250" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="K250" s="3"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <v>246</v>
       </c>
-      <c r="C192" s="7"/>
-    </row>
-    <row r="193" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6">
-        <v>188</v>
-      </c>
-      <c r="B193" s="7" t="s">
+      <c r="B251" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F251" s="3"/>
+      <c r="K251" s="3"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <v>247</v>
       </c>
-      <c r="C193" s="7"/>
-    </row>
-    <row r="194" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6">
-        <v>189</v>
-      </c>
-      <c r="B194" s="7" t="s">
+      <c r="B252" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <v>248</v>
       </c>
-      <c r="C194" s="7"/>
-    </row>
-    <row r="195" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
-        <v>190</v>
-      </c>
-      <c r="B195" s="7" t="s">
+      <c r="B253" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F253" s="3"/>
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <v>249</v>
       </c>
-      <c r="C195" s="7"/>
-    </row>
-    <row r="196" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
-        <v>191</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="B254" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="K254" s="3"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <v>250</v>
       </c>
-      <c r="C196" s="7"/>
-    </row>
-    <row r="197" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
-        <v>192</v>
-      </c>
-      <c r="B197" s="7" t="s">
+      <c r="B255" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F255" s="3"/>
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <v>251</v>
       </c>
-      <c r="C197" s="7"/>
-    </row>
-    <row r="198" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
-        <v>193</v>
-      </c>
-      <c r="B198" s="7" t="s">
+      <c r="B256" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F256" s="3"/>
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <v>252</v>
       </c>
-      <c r="C198" s="7"/>
-    </row>
-    <row r="199" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6">
-        <v>194</v>
-      </c>
-      <c r="B199" s="7" t="s">
+      <c r="B257" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F257" s="3"/>
+      <c r="K257" s="3"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <v>253</v>
       </c>
-      <c r="C199" s="7"/>
-    </row>
-    <row r="200" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6">
-        <v>195</v>
-      </c>
-      <c r="B200" s="7" t="s">
+      <c r="B258" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F258" s="3"/>
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <v>254</v>
       </c>
-      <c r="C200" s="7"/>
-    </row>
-    <row r="201" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6">
-        <v>196</v>
-      </c>
-      <c r="B201" s="7" t="s">
+      <c r="B259" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="K259" s="3"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <v>255</v>
       </c>
-      <c r="C201" s="7"/>
-    </row>
-    <row r="202" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6">
-        <v>197</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="B260" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F260" s="3"/>
+      <c r="K260" s="3"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>256</v>
       </c>
-      <c r="C202" s="7"/>
-    </row>
-    <row r="203" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6">
-        <v>198</v>
-      </c>
-      <c r="B203" s="7" t="s">
+      <c r="B261" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F261" s="3"/>
+      <c r="K261" s="3"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <v>257</v>
       </c>
-      <c r="C203" s="7"/>
-    </row>
-    <row r="204" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6">
-        <v>199</v>
-      </c>
-      <c r="B204" s="7" t="s">
+      <c r="B262" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F262" s="3"/>
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
         <v>258</v>
       </c>
-      <c r="C204" s="7"/>
-    </row>
-    <row r="205" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6">
-        <v>200</v>
-      </c>
-      <c r="B205" s="7" t="s">
+      <c r="B263" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F263" s="3"/>
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>259</v>
       </c>
-      <c r="C205" s="7"/>
-    </row>
-    <row r="206" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6">
-        <v>201</v>
-      </c>
-      <c r="B206" s="7" t="s">
+      <c r="B264" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F264" s="3"/>
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>260</v>
       </c>
-      <c r="C206" s="7"/>
-    </row>
-    <row r="207" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6">
-        <v>202</v>
-      </c>
-      <c r="B207" s="7" t="s">
+      <c r="B265" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F265" s="3"/>
+      <c r="K265" s="3"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <v>261</v>
       </c>
-      <c r="C207" s="7"/>
-    </row>
-    <row r="208" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6">
-        <v>203</v>
-      </c>
-      <c r="B208" s="7" t="s">
+      <c r="B266" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F266" s="3"/>
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <v>262</v>
       </c>
-      <c r="C208" s="7"/>
-    </row>
-    <row r="209" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
-        <v>204</v>
-      </c>
-      <c r="B209" s="7" t="s">
+      <c r="B267" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F267" s="3"/>
+      <c r="K267" s="3"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
         <v>263</v>
       </c>
-      <c r="C209" s="7"/>
-    </row>
-    <row r="210" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6">
-        <v>205</v>
-      </c>
-      <c r="B210" s="7" t="s">
+      <c r="B268" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F268" s="3"/>
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
         <v>264</v>
       </c>
-      <c r="C210" s="7"/>
-    </row>
-    <row r="211" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6">
-        <v>206</v>
-      </c>
-      <c r="B211" s="7" t="s">
+      <c r="B269" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F269" s="3"/>
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <v>265</v>
       </c>
-      <c r="C211" s="7"/>
-    </row>
-    <row r="212" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6">
-        <v>207</v>
-      </c>
-      <c r="B212" s="7" t="s">
+      <c r="B270" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F270" s="3"/>
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>266</v>
       </c>
-      <c r="C212" s="7"/>
-    </row>
-    <row r="213" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6">
-        <v>208</v>
-      </c>
-      <c r="B213" s="7" t="s">
+      <c r="B271" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F271" s="3"/>
+      <c r="K271" s="3"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <v>267</v>
       </c>
-      <c r="C213" s="7"/>
-    </row>
-    <row r="214" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6">
-        <v>209</v>
-      </c>
-      <c r="B214" s="7" t="s">
+      <c r="B272" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F272" s="3"/>
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
         <v>268</v>
       </c>
-      <c r="C214" s="7"/>
-    </row>
-    <row r="215" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6">
-        <v>210</v>
-      </c>
-      <c r="B215" s="7" t="s">
+      <c r="B273" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F273" s="3"/>
+      <c r="K273" s="3"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
         <v>269</v>
       </c>
-      <c r="C215" s="7"/>
-    </row>
-    <row r="216" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6">
-        <v>211</v>
-      </c>
-      <c r="B216" s="7" t="s">
+      <c r="B274" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F274" s="3"/>
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
         <v>270</v>
       </c>
-      <c r="C216" s="7"/>
-    </row>
-    <row r="217" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6">
-        <v>212</v>
-      </c>
-      <c r="B217" s="7" t="s">
+      <c r="B275" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F275" s="3"/>
+      <c r="K275" s="3"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
         <v>271</v>
       </c>
-      <c r="C217" s="7"/>
-    </row>
-    <row r="218" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6">
-        <v>213</v>
-      </c>
-      <c r="B218" s="7" t="s">
+      <c r="B276" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F276" s="3"/>
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>272</v>
       </c>
-      <c r="C218" s="7"/>
-    </row>
-    <row r="219" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6">
-        <v>214</v>
-      </c>
-      <c r="B219" s="7" t="s">
+      <c r="B277" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F277" s="3"/>
+      <c r="K277" s="3"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
         <v>273</v>
       </c>
-      <c r="C219" s="7"/>
-    </row>
-    <row r="220" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6">
-        <v>215</v>
-      </c>
-      <c r="B220" s="7" t="s">
+      <c r="B278" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F278" s="3"/>
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
         <v>274</v>
       </c>
-      <c r="C220" s="7"/>
-    </row>
-    <row r="221" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6">
-        <v>216</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C221" s="7"/>
-    </row>
-    <row r="222" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6">
-        <v>217</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="7"/>
-    </row>
-    <row r="223" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6">
-        <v>218</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C223" s="7"/>
-    </row>
-    <row r="224" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6">
-        <v>219</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C224" s="7"/>
-    </row>
-    <row r="225" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6">
-        <v>220</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C225" s="7"/>
-    </row>
-    <row r="226" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6">
-        <v>221</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C226" s="7"/>
-    </row>
-    <row r="227" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6">
-        <v>222</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C227" s="7"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
-        <v>223</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="6">
-        <v>224</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="6">
-        <v>225</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="6">
-        <v>226</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="6">
-        <v>227</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="6">
-        <v>228</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="6">
-        <v>229</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="6">
-        <v>230</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="6">
-        <v>231</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="6">
-        <v>232</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="6">
-        <v>233</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="6">
-        <v>234</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="6">
-        <v>235</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
-        <v>236</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="6">
-        <v>237</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="6">
-        <v>238</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="6">
-        <v>239</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="6">
-        <v>240</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
-        <v>241</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="6">
-        <v>242</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="6">
-        <v>243</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="6">
-        <v>244</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
-        <v>245</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
-        <v>246</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="6">
-        <v>247</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="6">
-        <v>248</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="6">
-        <v>249</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="6">
-        <v>250</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="6">
-        <v>251</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="6">
-        <v>252</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="6">
-        <v>253</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="6">
-        <v>254</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="6">
-        <v>255</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
-        <v>256</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="6">
-        <v>257</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="6">
-        <v>258</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="6">
-        <v>259</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="6">
-        <v>260</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="6">
-        <v>261</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="6">
-        <v>262</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="6">
-        <v>263</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="6">
-        <v>264</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C269" s="2"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="6">
-        <v>265</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C270" s="2"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
-        <v>266</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C271" s="2"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="6">
-        <v>267</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C272" s="2"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="6">
-        <v>268</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C273" s="2"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="6">
-        <v>269</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C274" s="2"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="6">
-        <v>270</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C275" s="2"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="6">
-        <v>271</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C276" s="2"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="6">
-        <v>272</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C277" s="2"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
-        <v>273</v>
-      </c>
-      <c r="B278" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="6">
-        <v>274</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C279" s="2"/>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="4" t="s">
+      <c r="C279" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F279" s="3"/>
+      <c r="K279" s="3"/>
+    </row>
+    <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="5"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="7"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
       <c r="B287" t="s">
         <v>10</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>7</v>
       </c>
       <c r="B288" t="s">
         <v>11</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4038,7 +5092,7 @@
       <c r="B289" t="s">
         <v>33</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4049,7 +5103,7 @@
       <c r="B290" t="s">
         <v>35</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4060,7 +5114,7 @@
       <c r="B291" t="s">
         <v>37</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4071,7 +5125,7 @@
       <c r="B292" t="s">
         <v>38</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4082,7 +5136,7 @@
       <c r="B293" t="s">
         <v>39</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4093,7 +5147,7 @@
       <c r="B294" t="s">
         <v>40</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4104,7 +5158,7 @@
       <c r="B295" t="s">
         <v>41</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4115,7 +5169,7 @@
       <c r="B296" t="s">
         <v>42</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4126,7 +5180,7 @@
       <c r="B297" t="s">
         <v>43</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4137,7 +5191,7 @@
       <c r="B298" t="s">
         <v>12</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4148,7 +5202,7 @@
       <c r="B299" t="s">
         <v>44</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4159,7 +5213,7 @@
       <c r="B300" t="s">
         <v>13</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4170,7 +5224,7 @@
       <c r="B301" t="s">
         <v>14</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4181,7 +5235,7 @@
       <c r="B302" t="s">
         <v>15</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4192,7 +5246,7 @@
       <c r="B303" t="s">
         <v>16</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4203,7 +5257,7 @@
       <c r="B304" t="s">
         <v>17</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4214,7 +5268,7 @@
       <c r="B305" t="s">
         <v>18</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4225,7 +5279,7 @@
       <c r="B306" t="s">
         <v>45</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4236,7 +5290,7 @@
       <c r="B307" t="s">
         <v>46</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4247,7 +5301,7 @@
       <c r="B308" t="s">
         <v>47</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4258,7 +5312,7 @@
       <c r="B309" t="s">
         <v>48</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4269,7 +5323,7 @@
       <c r="B310" t="s">
         <v>49</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4280,7 +5334,7 @@
       <c r="B311" t="s">
         <v>50</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4291,7 +5345,7 @@
       <c r="B312" t="s">
         <v>19</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4309,5 +5363,6 @@
     <mergeCell ref="B280:C280"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1498,12 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1514,6 +1508,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1820,15 +1820,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:K279"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1836,7 +1836,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1844,10 +1844,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1856,7 +1856,7 @@
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>330</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="B14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="B18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="B20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       <c r="B37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>336</v>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       <c r="B38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       <c r="B39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="B40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="B41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       <c r="B45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       <c r="B46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>457</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       <c r="B53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>458</v>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       <c r="B54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       <c r="B57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       <c r="B59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>352</v>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       <c r="B62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       <c r="B63" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="B64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       <c r="B65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="B66" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       <c r="B67" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       <c r="B69" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="B70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       <c r="B71" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       <c r="B72" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="B73" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="8" t="s">
         <v>378</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="B75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       <c r="B76" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>357</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       <c r="B77" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       <c r="B78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       <c r="B80" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       <c r="B81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="B82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       <c r="B83" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>360</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       <c r="B85" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="B86" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       <c r="B87" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       <c r="B88" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="B89" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="B91" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       <c r="B92" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="8" t="s">
         <v>362</v>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       <c r="B93" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>362</v>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       <c r="B94" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       <c r="B95" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       <c r="B96" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="B98" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       <c r="B99" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="8" t="s">
         <v>364</v>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       <c r="B100" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       <c r="B101" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       <c r="B102" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       <c r="B103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       <c r="B104" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       <c r="B105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="8" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       <c r="B106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>367</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       <c r="B107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="B108" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="8" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       <c r="B109" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       <c r="B110" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="8" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       <c r="B111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       <c r="B112" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       <c r="B113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="8" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       <c r="B114" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="8" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="B115" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="B116" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="B117" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="B118" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="8" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       <c r="B119" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       <c r="B120" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="8" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       <c r="B121" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="8" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="B122" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="8" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       <c r="B123" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="8" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       <c r="B124" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="8" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="B125" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="B126" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       <c r="B127" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       <c r="B128" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="8" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       <c r="B129" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="8" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       <c r="B130" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       <c r="B131" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D131" s="4"/>
@@ -3254,7 +3254,7 @@
       <c r="B132" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D132" s="4"/>
@@ -3266,7 +3266,7 @@
       <c r="B133" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D133" s="4"/>
@@ -3278,7 +3278,7 @@
       <c r="B134" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D134" s="4"/>
@@ -3290,7 +3290,7 @@
       <c r="B135" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D135" s="4"/>
@@ -3302,7 +3302,7 @@
       <c r="B136" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D136" s="4"/>
@@ -3314,7 +3314,7 @@
       <c r="B137" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D137" s="4"/>
@@ -3326,7 +3326,7 @@
       <c r="B138" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D138" s="4"/>
@@ -3338,7 +3338,7 @@
       <c r="B139" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D139" s="4"/>
@@ -3350,7 +3350,7 @@
       <c r="B140" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D140" s="4"/>
@@ -3362,7 +3362,7 @@
       <c r="B141" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D141" s="4"/>
@@ -3374,7 +3374,7 @@
       <c r="B142" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D142" s="4"/>
@@ -3386,7 +3386,7 @@
       <c r="B143" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D143" s="4"/>
@@ -3398,7 +3398,7 @@
       <c r="B144" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       <c r="B145" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       <c r="B146" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="B147" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="B148" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="B149" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       <c r="B150" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="B151" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       <c r="B152" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="B153" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       <c r="B154" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       <c r="B155" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       <c r="B156" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="B157" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="8" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       <c r="B158" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="8" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="B159" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="8" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       <c r="B160" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="8" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       <c r="B161" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="8" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       <c r="B162" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="8" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       <c r="B163" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="8" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       <c r="B164" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="8" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       <c r="B165" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="8" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       <c r="B166" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="8" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="B167" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="8" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       <c r="B168" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="8" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       <c r="B169" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="8" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       <c r="B170" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="8" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       <c r="B171" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="8" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       <c r="B172" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="8" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       <c r="B173" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="8" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
       <c r="B174" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="8" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="B175" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="8" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       <c r="B176" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="8" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       <c r="B177" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="8" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       <c r="B178" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="B179" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       <c r="B180" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       <c r="B181" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="B182" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="B183" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       <c r="B184" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="8" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="B185" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="8" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       <c r="B186" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="8" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="B187" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="8" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="B188" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="8" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       <c r="B189" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       <c r="B190" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="B191" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       <c r="B192" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       <c r="B193" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       <c r="B194" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       <c r="B195" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       <c r="B196" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="B197" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       <c r="B198" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="B199" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       <c r="B200" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       <c r="B201" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       <c r="B202" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       <c r="B203" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       <c r="B204" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       <c r="B205" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="8" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="B206" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="8" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="B207" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="8" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       <c r="B208" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="B209" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       <c r="B210" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       <c r="B211" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       <c r="B212" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="8" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="B213" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="8" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       <c r="B214" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="8" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B215" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="8" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       <c r="B216" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="8" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       <c r="B217" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="8" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="B218" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="8" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="B219" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="8" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       <c r="B220" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="B221" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="B222" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="8" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="B223" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="8" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       <c r="B224" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="8" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       <c r="B225" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C225" s="8" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       <c r="B226" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       <c r="B227" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C227" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="B228" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="6" t="s">
         <v>421</v>
       </c>
       <c r="F228" s="3"/>
@@ -4335,7 +4335,7 @@
       <c r="B229" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="6" t="s">
         <v>422</v>
       </c>
       <c r="F229" s="3"/>
@@ -4348,7 +4348,7 @@
       <c r="B230" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="6" t="s">
         <v>422</v>
       </c>
       <c r="F230" s="3"/>
@@ -4361,7 +4361,7 @@
       <c r="B231" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="6" t="s">
         <v>422</v>
       </c>
       <c r="F231" s="3"/>
@@ -4374,7 +4374,7 @@
       <c r="B232" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="6" t="s">
         <v>422</v>
       </c>
       <c r="F232" s="3"/>
@@ -4387,7 +4387,7 @@
       <c r="B233" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F233" s="3"/>
@@ -4400,7 +4400,7 @@
       <c r="B234" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F234" s="3"/>
@@ -4413,7 +4413,7 @@
       <c r="B235" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F235" s="3"/>
@@ -4426,7 +4426,7 @@
       <c r="B236" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F236" s="3"/>
@@ -4439,7 +4439,7 @@
       <c r="B237" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F237" s="3"/>
@@ -4452,7 +4452,7 @@
       <c r="B238" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="6" t="s">
         <v>423</v>
       </c>
       <c r="F238" s="3"/>
@@ -4465,7 +4465,7 @@
       <c r="B239" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="6" t="s">
         <v>424</v>
       </c>
       <c r="F239" s="3"/>
@@ -4478,7 +4478,7 @@
       <c r="B240" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F240" s="3"/>
@@ -4491,7 +4491,7 @@
       <c r="B241" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F241" s="3"/>
@@ -4504,7 +4504,7 @@
       <c r="B242" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="6" t="s">
         <v>425</v>
       </c>
       <c r="F242" s="3"/>
@@ -4517,7 +4517,7 @@
       <c r="B243" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="6" t="s">
         <v>426</v>
       </c>
       <c r="F243" s="3"/>
@@ -4530,7 +4530,7 @@
       <c r="B244" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="6" t="s">
         <v>427</v>
       </c>
       <c r="F244" s="3"/>
@@ -4543,7 +4543,7 @@
       <c r="B245" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="6" t="s">
         <v>428</v>
       </c>
       <c r="F245" s="3"/>
@@ -4556,7 +4556,7 @@
       <c r="B246" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="6" t="s">
         <v>429</v>
       </c>
       <c r="F246" s="3"/>
@@ -4569,7 +4569,7 @@
       <c r="B247" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="6" t="s">
         <v>430</v>
       </c>
       <c r="F247" s="3"/>
@@ -4582,7 +4582,7 @@
       <c r="B248" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="6" t="s">
         <v>431</v>
       </c>
       <c r="F248" s="3"/>
@@ -4595,7 +4595,7 @@
       <c r="B249" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="6" t="s">
         <v>432</v>
       </c>
       <c r="F249" s="3"/>
@@ -4608,7 +4608,7 @@
       <c r="B250" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="6" t="s">
         <v>433</v>
       </c>
       <c r="F250" s="3"/>
@@ -4621,7 +4621,7 @@
       <c r="B251" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="6" t="s">
         <v>434</v>
       </c>
       <c r="F251" s="3"/>
@@ -4634,7 +4634,7 @@
       <c r="B252" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="6" t="s">
         <v>435</v>
       </c>
       <c r="F252" s="3"/>
@@ -4647,7 +4647,7 @@
       <c r="B253" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="6" t="s">
         <v>435</v>
       </c>
       <c r="F253" s="3"/>
@@ -4660,7 +4660,7 @@
       <c r="B254" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="6" t="s">
         <v>436</v>
       </c>
       <c r="F254" s="3"/>
@@ -4673,7 +4673,7 @@
       <c r="B255" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="6" t="s">
         <v>437</v>
       </c>
       <c r="F255" s="3"/>
@@ -4686,7 +4686,7 @@
       <c r="B256" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="6" t="s">
         <v>438</v>
       </c>
       <c r="F256" s="3"/>
@@ -4699,7 +4699,7 @@
       <c r="B257" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C257" s="9" t="s">
         <v>439</v>
       </c>
       <c r="F257" s="3"/>
@@ -4712,7 +4712,7 @@
       <c r="B258" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="6" t="s">
         <v>440</v>
       </c>
       <c r="F258" s="3"/>
@@ -4725,7 +4725,7 @@
       <c r="B259" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="6" t="s">
         <v>441</v>
       </c>
       <c r="F259" s="3"/>
@@ -4738,7 +4738,7 @@
       <c r="B260" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="6" t="s">
         <v>442</v>
       </c>
       <c r="F260" s="3"/>
@@ -4751,7 +4751,7 @@
       <c r="B261" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="6" t="s">
         <v>443</v>
       </c>
       <c r="F261" s="3"/>
@@ -4764,7 +4764,7 @@
       <c r="B262" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="6" t="s">
         <v>444</v>
       </c>
       <c r="F262" s="3"/>
@@ -4777,7 +4777,7 @@
       <c r="B263" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="6" t="s">
         <v>445</v>
       </c>
       <c r="F263" s="3"/>
@@ -4790,7 +4790,7 @@
       <c r="B264" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="6" t="s">
         <v>446</v>
       </c>
       <c r="F264" s="3"/>
@@ -4803,7 +4803,7 @@
       <c r="B265" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="6" t="s">
         <v>447</v>
       </c>
       <c r="F265" s="3"/>
@@ -4816,7 +4816,7 @@
       <c r="B266" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="6" t="s">
         <v>448</v>
       </c>
       <c r="F266" s="3"/>
@@ -4829,7 +4829,7 @@
       <c r="B267" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="6" t="s">
         <v>449</v>
       </c>
       <c r="F267" s="3"/>
@@ -4842,7 +4842,7 @@
       <c r="B268" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="6" t="s">
         <v>449</v>
       </c>
       <c r="F268" s="3"/>
@@ -4855,7 +4855,7 @@
       <c r="B269" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="6" t="s">
         <v>450</v>
       </c>
       <c r="F269" s="3"/>
@@ -4868,7 +4868,7 @@
       <c r="B270" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="6" t="s">
         <v>449</v>
       </c>
       <c r="F270" s="3"/>
@@ -4881,7 +4881,7 @@
       <c r="B271" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="6" t="s">
         <v>451</v>
       </c>
       <c r="F271" s="3"/>
@@ -4894,7 +4894,7 @@
       <c r="B272" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="6" t="s">
         <v>451</v>
       </c>
       <c r="F272" s="3"/>
@@ -4907,7 +4907,7 @@
       <c r="B273" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="6" t="s">
         <v>452</v>
       </c>
       <c r="F273" s="3"/>
@@ -4920,7 +4920,7 @@
       <c r="B274" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="6" t="s">
         <v>453</v>
       </c>
       <c r="F274" s="3"/>
@@ -4933,7 +4933,7 @@
       <c r="B275" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="6" t="s">
         <v>454</v>
       </c>
       <c r="F275" s="3"/>
@@ -4946,7 +4946,7 @@
       <c r="B276" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="6" t="s">
         <v>455</v>
       </c>
       <c r="F276" s="3"/>
@@ -4959,7 +4959,7 @@
       <c r="B277" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="6" t="s">
         <v>456</v>
       </c>
       <c r="F277" s="3"/>
@@ -4972,7 +4972,7 @@
       <c r="B278" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="6" t="s">
         <v>386</v>
       </c>
       <c r="F278" s="3"/>
@@ -4985,17 +4985,17 @@
       <c r="B279" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="6" t="s">
         <v>386</v>
       </c>
       <c r="F279" s="3"/>
       <c r="K279" s="3"/>
     </row>
     <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C280" s="7"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -5004,7 +5004,7 @@
       <c r="B281" t="s">
         <v>4</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       <c r="B282" t="s">
         <v>5</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="B283" t="s">
         <v>6</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       <c r="B284" t="s">
         <v>7</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       <c r="B286" t="s">
         <v>9</v>
       </c>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="B287" t="s">
         <v>10</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       <c r="B288" t="s">
         <v>11</v>
       </c>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       <c r="B289" t="s">
         <v>33</v>
       </c>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       <c r="B290" t="s">
         <v>35</v>
       </c>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       <c r="B291" t="s">
         <v>37</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       <c r="B292" t="s">
         <v>38</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       <c r="B293" t="s">
         <v>39</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="B294" t="s">
         <v>40</v>
       </c>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       <c r="B295" t="s">
         <v>41</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       <c r="B296" t="s">
         <v>42</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       <c r="B297" t="s">
         <v>43</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="B298" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       <c r="B299" t="s">
         <v>44</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="B300" t="s">
         <v>13</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       <c r="B301" t="s">
         <v>14</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="B302" t="s">
         <v>15</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       <c r="B303" t="s">
         <v>16</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       <c r="B304" t="s">
         <v>17</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="B305" t="s">
         <v>18</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       <c r="B306" t="s">
         <v>45</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       <c r="B307" t="s">
         <v>46</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       <c r="B308" t="s">
         <v>47</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       <c r="B309" t="s">
         <v>48</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       <c r="B310" t="s">
         <v>49</v>
       </c>
-      <c r="C310" s="8" t="s">
+      <c r="C310" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       <c r="B311" t="s">
         <v>50</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       <c r="B312" t="s">
         <v>19</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="6" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="457">
   <si>
     <t>Закладка</t>
   </si>
@@ -433,9 +433,6 @@
     <t>domofon</t>
   </si>
   <si>
-    <t>doors_cond</t>
-  </si>
-  <si>
     <t>employee</t>
   </si>
   <si>
@@ -643,15 +640,6 @@
     <t>image9_comment</t>
   </si>
   <si>
-    <t>image11_comment</t>
-  </si>
-  <si>
-    <t>image12_comment</t>
-  </si>
-  <si>
-    <t>image13_comment</t>
-  </si>
-  <si>
     <t>image_map1</t>
   </si>
   <si>
@@ -1394,6 +1382,9 @@
   </si>
   <si>
     <t>price10</t>
+  </si>
+  <si>
+    <t>doors_condition</t>
   </si>
 </sst>
 </file>
@@ -1818,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K313"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P251" sqref="P251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1859,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1879,7 +1870,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1881,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1892,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1912,7 +1903,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1914,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1934,7 +1925,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1945,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,7 +1947,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1967,7 +1958,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1978,7 +1969,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1980,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2000,7 +1991,7 @@
         <v>78</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2011,7 +2002,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2013,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2033,7 +2024,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2046,7 @@
         <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2057,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2077,7 +2068,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2088,7 +2079,7 @@
         <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2090,7 @@
         <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2110,7 +2101,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2121,7 +2112,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2132,7 +2123,7 @@
         <v>89</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2176,7 +2167,7 @@
         <v>93</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2178,7 @@
         <v>94</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2189,7 @@
         <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2200,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2211,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2231,7 +2222,7 @@
         <v>98</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2233,7 @@
         <v>99</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2244,7 @@
         <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2255,7 @@
         <v>101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2275,7 +2266,7 @@
         <v>102</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2286,7 +2277,7 @@
         <v>103</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2299,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2310,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2321,7 @@
         <v>107</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2332,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2343,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2365,7 @@
         <v>111</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2376,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2420,7 @@
         <v>116</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2431,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2442,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2453,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2473,7 +2464,7 @@
         <v>120</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2475,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2495,7 +2486,7 @@
         <v>122</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2506,7 +2497,7 @@
         <v>123</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2508,7 @@
         <v>124</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2528,7 +2519,7 @@
         <v>125</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2550,7 +2541,7 @@
         <v>127</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2552,7 @@
         <v>128</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2572,7 +2563,7 @@
         <v>129</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2580,7 +2571,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>59</v>
@@ -2594,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2605,7 +2596,7 @@
         <v>130</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2607,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2627,7 +2618,7 @@
         <v>132</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2638,7 +2629,7 @@
         <v>133</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2649,7 +2640,7 @@
         <v>134</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2695,7 @@
         <v>138</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2712,10 +2703,10 @@
         <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>456</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2723,7 +2714,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>26</v>
@@ -2734,7 +2725,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>26</v>
@@ -2745,7 +2736,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
@@ -2756,7 +2747,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>26</v>
@@ -2767,7 +2758,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>26</v>
@@ -2778,7 +2769,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>26</v>
@@ -2789,7 +2780,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>26</v>
@@ -2800,10 +2791,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2811,10 +2802,10 @@
         <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2822,10 +2813,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2833,10 +2824,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2844,10 +2835,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2855,10 +2846,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2866,10 +2857,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2877,7 +2868,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>25</v>
@@ -2888,10 +2879,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2899,10 +2890,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2910,10 +2901,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,10 +2912,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2932,10 +2923,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2943,10 +2934,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2954,10 +2945,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2965,10 +2956,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2976,10 +2967,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,10 +2978,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2998,10 +2989,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3009,10 +3000,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3023,7 +3014,7 @@
         <v>15</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3031,10 +3022,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3042,10 +3033,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3053,10 +3044,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3064,10 +3055,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3066,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>29</v>
@@ -3086,7 +3077,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>29</v>
@@ -3097,10 +3088,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3108,10 +3099,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3119,10 +3110,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3130,10 +3121,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3141,10 +3132,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3152,10 +3143,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3163,10 +3154,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,10 +3165,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3185,10 +3176,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3196,10 +3187,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3207,199 +3198,186 @@
         <v>123</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>124</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>125</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>126</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>127</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>128</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>129</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>130</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>131</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>132</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>133</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>134</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>135</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>136</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>137</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>138</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>139</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3407,10 +3385,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3418,10 +3396,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3429,10 +3407,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3440,10 +3418,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3451,10 +3429,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3462,10 +3440,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3473,10 +3451,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3484,10 +3462,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3495,10 +3473,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3506,10 +3484,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3517,10 +3495,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3528,10 +3506,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3539,21 +3517,21 @@
         <v>152</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>153</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>213</v>
+      <c r="B158" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3539,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3572,21 +3550,21 @@
         <v>155</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>156</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>216</v>
+      <c r="B161" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3594,10 +3572,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3605,10 +3583,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3594,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3627,10 +3605,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3638,10 +3616,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3649,10 +3627,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3660,10 +3638,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3671,10 +3649,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3682,10 +3660,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3693,10 +3671,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3704,10 +3682,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3715,10 +3693,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3726,10 +3704,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3737,10 +3715,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3748,10 +3726,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3759,10 +3737,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3770,10 +3748,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3781,10 +3759,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3792,10 +3770,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3803,10 +3781,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3814,10 +3792,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3825,10 +3803,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3836,10 +3814,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3847,10 +3825,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3858,10 +3836,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>408</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3869,10 +3847,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3880,10 +3858,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>410</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3891,7 +3869,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>59</v>
@@ -3902,7 +3880,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>59</v>
@@ -3913,7 +3891,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>59</v>
@@ -3924,7 +3902,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>59</v>
@@ -3935,7 +3913,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>59</v>
@@ -3946,7 +3924,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>59</v>
@@ -3957,10 +3935,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3968,10 +3946,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3979,10 +3957,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3990,10 +3968,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>60</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4001,10 +3979,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4012,10 +3990,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4023,10 +4001,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4034,10 +4012,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4045,10 +4023,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4056,10 +4034,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4067,10 +4045,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4078,10 +4056,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4089,10 +4067,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4100,10 +4078,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4111,10 +4089,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4122,10 +4100,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4133,10 +4111,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4144,10 +4122,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4155,10 +4133,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4166,10 +4144,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4177,10 +4155,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4188,10 +4166,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4199,7 +4177,7 @@
         <v>212</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>413</v>
@@ -4210,7 +4188,7 @@
         <v>213</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>413</v>
@@ -4221,10 +4199,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4232,10 +4210,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4243,10 +4221,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4254,10 +4232,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4265,10 +4243,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>418</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4276,1091 +4254,1214 @@
         <v>219</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>220</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>221</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>222</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>223</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>421</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D228" s="3"/>
       <c r="F228" s="3"/>
+      <c r="J228" s="3"/>
       <c r="K228" s="3"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>224</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="D229" s="3"/>
       <c r="F229" s="3"/>
+      <c r="J229" s="3"/>
       <c r="K229" s="3"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>225</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D230" s="3"/>
       <c r="F230" s="3"/>
+      <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>226</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D231" s="3"/>
       <c r="F231" s="3"/>
+      <c r="J231" s="3"/>
       <c r="K231" s="3"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>227</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D232" s="3"/>
       <c r="F232" s="3"/>
+      <c r="J232" s="3"/>
       <c r="K232" s="3"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>228</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D233" s="3"/>
       <c r="F233" s="3"/>
+      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>229</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D234" s="3"/>
       <c r="F234" s="3"/>
+      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>230</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D235" s="3"/>
       <c r="F235" s="3"/>
+      <c r="J235" s="3"/>
       <c r="K235" s="3"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D236" s="3"/>
       <c r="F236" s="3"/>
+      <c r="J236" s="3"/>
       <c r="K236" s="3"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D237" s="3"/>
       <c r="F237" s="3"/>
+      <c r="J237" s="3"/>
       <c r="K237" s="3"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>233</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D238" s="3"/>
       <c r="F238" s="3"/>
+      <c r="J238" s="3"/>
       <c r="K238" s="3"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>234</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>424</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="D239" s="3"/>
       <c r="F239" s="3"/>
+      <c r="J239" s="3"/>
       <c r="K239" s="3"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>235</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D240" s="3"/>
       <c r="F240" s="3"/>
+      <c r="J240" s="3"/>
       <c r="K240" s="3"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>236</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D241" s="3"/>
       <c r="F241" s="3"/>
+      <c r="J241" s="3"/>
       <c r="K241" s="3"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>237</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>425</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D242" s="3"/>
       <c r="F242" s="3"/>
+      <c r="J242" s="3"/>
       <c r="K242" s="3"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>238</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>426</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="D243" s="3"/>
       <c r="F243" s="3"/>
+      <c r="J243" s="3"/>
       <c r="K243" s="3"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>239</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>427</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="D244" s="3"/>
       <c r="F244" s="3"/>
+      <c r="J244" s="3"/>
       <c r="K244" s="3"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>240</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>428</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D245" s="3"/>
       <c r="F245" s="3"/>
+      <c r="J245" s="3"/>
       <c r="K245" s="3"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>241</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>429</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D246" s="3"/>
       <c r="F246" s="3"/>
+      <c r="J246" s="3"/>
       <c r="K246" s="3"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>242</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>430</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D247" s="3"/>
       <c r="F247" s="3"/>
+      <c r="J247" s="3"/>
       <c r="K247" s="3"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>243</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>431</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D248" s="3"/>
       <c r="F248" s="3"/>
+      <c r="J248" s="3"/>
       <c r="K248" s="3"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>244</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>432</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D249" s="3"/>
       <c r="F249" s="3"/>
+      <c r="J249" s="3"/>
       <c r="K249" s="3"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249" s="3"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>245</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>433</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D250" s="3"/>
       <c r="F250" s="3"/>
+      <c r="J250" s="3"/>
       <c r="K250" s="3"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>246</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>434</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="D251" s="3"/>
       <c r="F251" s="3"/>
+      <c r="J251" s="3"/>
       <c r="K251" s="3"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>247</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>435</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D252" s="3"/>
       <c r="F252" s="3"/>
+      <c r="J252" s="3"/>
       <c r="K252" s="3"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>248</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D253" s="3"/>
       <c r="F253" s="3"/>
+      <c r="J253" s="3"/>
       <c r="K253" s="3"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>249</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>436</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D254" s="3"/>
       <c r="F254" s="3"/>
+      <c r="J254" s="3"/>
       <c r="K254" s="3"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>250</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>437</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D255" s="3"/>
       <c r="F255" s="3"/>
+      <c r="J255" s="3"/>
       <c r="K255" s="3"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>251</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>438</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D256" s="3"/>
       <c r="F256" s="3"/>
+      <c r="J256" s="3"/>
       <c r="K256" s="3"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>252</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>439</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D257" s="3"/>
       <c r="F257" s="3"/>
+      <c r="J257" s="3"/>
       <c r="K257" s="3"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>253</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>440</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D258" s="3"/>
       <c r="F258" s="3"/>
+      <c r="J258" s="3"/>
       <c r="K258" s="3"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>254</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>441</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D259" s="3"/>
       <c r="F259" s="3"/>
+      <c r="J259" s="3"/>
       <c r="K259" s="3"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>255</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>442</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D260" s="3"/>
       <c r="F260" s="3"/>
+      <c r="J260" s="3"/>
       <c r="K260" s="3"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>256</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>443</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D261" s="3"/>
       <c r="F261" s="3"/>
+      <c r="J261" s="3"/>
       <c r="K261" s="3"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>257</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>444</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D262" s="3"/>
       <c r="F262" s="3"/>
+      <c r="J262" s="3"/>
       <c r="K262" s="3"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>258</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>445</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D263" s="3"/>
       <c r="F263" s="3"/>
+      <c r="J263" s="3"/>
       <c r="K263" s="3"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>259</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>446</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D264" s="3"/>
       <c r="F264" s="3"/>
+      <c r="J264" s="3"/>
       <c r="K264" s="3"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>260</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>447</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D265" s="3"/>
       <c r="F265" s="3"/>
+      <c r="J265" s="3"/>
       <c r="K265" s="3"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>261</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>448</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D266" s="3"/>
       <c r="F266" s="3"/>
+      <c r="J266" s="3"/>
       <c r="K266" s="3"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>262</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>449</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D267" s="3"/>
       <c r="F267" s="3"/>
+      <c r="J267" s="3"/>
       <c r="K267" s="3"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>263</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>449</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D268" s="3"/>
       <c r="F268" s="3"/>
+      <c r="J268" s="3"/>
       <c r="K268" s="3"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>264</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>450</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D269" s="3"/>
       <c r="F269" s="3"/>
+      <c r="J269" s="3"/>
       <c r="K269" s="3"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>265</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>449</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D270" s="3"/>
       <c r="F270" s="3"/>
+      <c r="J270" s="3"/>
       <c r="K270" s="3"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>266</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>451</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D271" s="3"/>
       <c r="F271" s="3"/>
+      <c r="J271" s="3"/>
       <c r="K271" s="3"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>267</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>451</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D272" s="3"/>
       <c r="F272" s="3"/>
+      <c r="J272" s="3"/>
       <c r="K272" s="3"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>268</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D273" s="3"/>
       <c r="F273" s="3"/>
+      <c r="J273" s="3"/>
       <c r="K273" s="3"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="3"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>269</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>453</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D274" s="3"/>
       <c r="F274" s="3"/>
+      <c r="J274" s="3"/>
       <c r="K274" s="3"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="3"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>270</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>454</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D275" s="3"/>
       <c r="F275" s="3"/>
+      <c r="J275" s="3"/>
       <c r="K275" s="3"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>271</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>455</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D276" s="3"/>
       <c r="F276" s="3"/>
+      <c r="J276" s="3"/>
       <c r="K276" s="3"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>272</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="F277" s="3"/>
-      <c r="K277" s="3"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
-        <v>273</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>328</v>
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="11"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F278" s="3"/>
-      <c r="K278" s="3"/>
-    </row>
-    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
-        <v>274</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>329</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F279" s="3"/>
-      <c r="K279" s="3"/>
-    </row>
-    <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>3</v>
       </c>
-      <c r="C280" s="11"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>0</v>
-      </c>
       <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>4</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>1</v>
-      </c>
       <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>5</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>2</v>
-      </c>
       <c r="B283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>6</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>3</v>
-      </c>
       <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>7</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>4</v>
-      </c>
       <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>8</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>5</v>
-      </c>
       <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>9</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>6</v>
-      </c>
       <c r="B287" t="s">
+        <v>35</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>10</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>7</v>
-      </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B291" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B295" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B296" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B297" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B299" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B305" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B306" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B307" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B308" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B310" t="s">
-        <v>49</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>30</v>
-      </c>
-      <c r="B311" t="s">
-        <v>50</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>31</v>
-      </c>
-      <c r="B312" t="s">
-        <v>19</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>32</v>
-      </c>
-      <c r="B313" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B277:C277"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="731">
   <si>
     <t>Закладка</t>
   </si>
@@ -1385,6 +1386,828 @@
   </si>
   <si>
     <t>doors_condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           texts_report[0] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[1] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[2] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[3] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[4] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[5] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[6] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[7] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[8] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[9] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[10] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[11] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[12] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[13] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[14] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[15] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[16] = report.Apartment.Home.ComplexNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[17] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[18] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[19] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[20] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[21] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[22] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[23] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[24] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[25] = Convert.ToString(report.Apartment.RoomNumber);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[26] = Convert.ToString(report.Apartment.GrossArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[27] = Convert.ToString(report.Apartment.GrossArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[28] = Convert.ToString(report.Apartment.GrossArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[29] = Convert.ToString(report.Apartment.GrossAreaSNIP);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[30] = Convert.ToString(report.Apartment.GrossAreaSNIP);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[31] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[32] = report.Apartment.HasBalconyOrLoggia == true ? "есть" : "нет";//нужно дополнить размеры балкона и застекленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[33] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[34] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[35] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[36] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForWashroomCeiling);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[37] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForWashroomFloor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[38] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForWashroomWall);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[39] = report.Apartment.PlanMeets;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[40] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[41] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[42] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[43] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForKitchenCeiling);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[44] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomCeiling);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[45] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForHallCeiling);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[46] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[47] = client_in_padeg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[48] = report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[49] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[50] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[51] = report.Client.Man.Surname + " " + report.Client.Man.Name + " " + report.Client.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[52] = " серия " +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[53] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[54] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[55] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[56] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[57] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[58] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[59] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[60] = report.ReportDate.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[61] = report.ReportDate.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[62] = report.DateOfContract.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[63] = report.DateOfContract.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[64] = report.DateOfContract.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[65] = report.DateOfContract.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[66] = Convert.ToString(report.Apartment.Object.Price); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[67] = report.Apartment.Object.DestOfTheEvaluation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[68] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[69] = Convert.ToString(report.Apartment.Object.Discount * 100) + "%";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[70] = Convert.ToString(report.Apartment.Object.Discount * 100) + "%";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[71] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[72] = " серия " +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[73] = Convert.ToString(report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[74] = Convert.ToString(report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[75] = Convert.ToString(report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[76] = Convert.ToString(report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[77] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[78] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[79] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[80] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[81] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[82] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[83] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[84] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[85] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[86] = " серия " +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[87] = report.Employee.FurtherEducation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[88] = report.Employee.FurtherEducation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[89] = report.Employee.Insurance;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[90] = report.Employee.Insurance;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[91] = report.Employee.Insurance;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[92] = report.Employee.Insurance;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[93] = report.Employee.Position;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[94] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[95] = report.Employee.Membership;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[96] = report.Employee.Membership;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[97] = report.Employee.Membership;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[98] = report.Employee.Membership;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[99] = Convert.ToString(report.Employee.WorkTime);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[100] = Convert.ToString(report.Employee.WorkTime);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[101] = report.Apartment.AuxiliaryRooms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[102] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[103] = report.Apartment.GetApartmentStateAsString(report.Apartment.ApartmentState);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[104] = Convert.ToString(report.Apartment.CeilingHeight);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[105] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[106] = Convert.ToString(report.Apartment.Floor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[107] = Convert.ToString(report.Apartment.Floor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[108] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForHallFloor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[109] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForKitchenFloor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[110] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomFloor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[111] = Convert.ToString(report.Apartment.Floors);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[112] = Convert.ToString(report.Apartment.Floors);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[113] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[114] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[115] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[116] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[117] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[118] = report.Apartment.Object.Holders;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[119] = report.Apartment.Object.Holders;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[120] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[121] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[122] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[123] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[124] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[125] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[126] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[127] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[128] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[129] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[130] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[131] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[132] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[133] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[134] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[135] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[136] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[137] = ""; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[138] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[139] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[140] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[141] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[142] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[143] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[144] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[145] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[146] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[147] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[148] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[149] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[150] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[151] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[152] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[153] = report.Apartment.PlanMeets;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[154] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[155] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[156] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[157] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[158] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[159] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[160] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[161] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[162] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[163] = report.Apartment.Object.Restriction;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[164] = report.Apartment.Object.Restriction;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[165] = Convert.ToString(report.Apartment.LivingArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[166] = Convert.ToString(report.Apartment.LivingArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[167] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[168] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[169] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[170] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[171] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[172] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[173] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[174] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[175] = report.Apartment.Object.ObjectType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[176] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[177] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[178] = report.Apartment.PlanMeets;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[179] = report.Apartment.ViewOnApparment=="ok"?"регистрация возможна":"регистрация не возможна";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[180] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[181] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[182] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[183] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[184] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[185] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[186] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[187] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[188] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[189] = Convert.ToString(report.Apartment.Object.Price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[190] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[191] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[192] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[193] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[194] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[195] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[196] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[197] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[198] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[199] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[200] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[201] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[202] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[203] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[204] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[205] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[206] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[207] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[208] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[209] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[210] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[211] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[212] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[213] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[214] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[215] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[216] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[217] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[218] = report.Apartment.Object.PurposeOfTheEvaluation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[219] = report.Apartment.GetRepairWorkAsString(report.Apartment.RepairWork);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[220] = report.Apartment.GetRoomFinishingQualityAsString(report.Apartment.RoomFinishingQuality);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[221] = report.ReportDate.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[222] = report.ReportDate.ToShortDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[223] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[224] = report.ReportDate.ToLongDateString();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[225] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[226] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[227] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[228] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[229] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[230] = report.ReportNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[231] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[232] = report.Apartment.Object.Property;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[233] = report.Apartment.Object.Property;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[234] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[235] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[236] = report.Apartment.GetRoomTypeAsString(report.Apartment.RoomType);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[237] = report.Apartment.GetWashroomTypeAsString(report.Apartment.WashroomType);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[238] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[239] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[240] = report.Apartment.HasSeparateKitchenOrWashroom == true ? "есть" : "нет";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[241] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[242] = report.Apartment.HasLowCurrent == true ? "есть" : "нет";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[243] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[244] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.GrossArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[245] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.GrossArea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[246] = Convert.ToString((report.Apartment.Object.Price / report.Apartment.GrossArea) / report.Apartment.Object.Dollar);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[247] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[248] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[249] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[250] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForWashroomCeiling);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[251] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForWashroomFloor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[252] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForWashroomWall);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[253] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[254] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[255] = report.Apartment.Views;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[256] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForHallWall);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[257] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForKitchenWall);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[258] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomWall);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[259] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[260] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[261] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[262] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[263] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[264] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[265] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[266] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[267] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[268] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[269] = "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[270] = Convert.ToString(report.ReportDate.Year); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            texts_report[271] = "";</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +2297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1499,6 +2322,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P251" sqref="P251"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,8 +2648,8 @@
     <col min="3" max="3" width="28" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1831,16 +2657,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1850,8 +2676,14 @@
       <c r="C5" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1861,8 +2693,11 @@
       <c r="C6" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1872,8 +2707,11 @@
       <c r="C7" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1883,8 +2721,11 @@
       <c r="C8" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1894,8 +2735,11 @@
       <c r="C9" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1905,8 +2749,11 @@
       <c r="C10" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1916,8 +2763,11 @@
       <c r="C11" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1927,8 +2777,11 @@
       <c r="C12" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1938,8 +2791,11 @@
       <c r="C13" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1949,8 +2805,11 @@
       <c r="C14" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1960,8 +2819,11 @@
       <c r="C15" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1971,8 +2833,11 @@
       <c r="C16" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1982,8 +2847,11 @@
       <c r="C17" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1993,8 +2861,11 @@
       <c r="C18" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2004,8 +2875,11 @@
       <c r="C19" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2015,8 +2889,11 @@
       <c r="C20" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2026,8 +2903,11 @@
       <c r="C21" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2037,8 +2917,11 @@
       <c r="C22" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2048,8 +2931,11 @@
       <c r="C23" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2059,8 +2945,11 @@
       <c r="C24" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2070,8 +2959,11 @@
       <c r="C25" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2081,8 +2973,11 @@
       <c r="C26" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2092,8 +2987,11 @@
       <c r="C27" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -2103,8 +3001,11 @@
       <c r="C28" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2114,8 +3015,11 @@
       <c r="C29" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2125,8 +3029,11 @@
       <c r="C30" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2136,8 +3043,11 @@
       <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2147,8 +3057,11 @@
       <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2158,8 +3071,11 @@
       <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2169,8 +3085,11 @@
       <c r="C34" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -2180,8 +3099,11 @@
       <c r="C35" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -2191,8 +3113,11 @@
       <c r="C36" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -2202,8 +3127,11 @@
       <c r="C37" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -2213,8 +3141,11 @@
       <c r="C38" s="8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -2224,8 +3155,11 @@
       <c r="C39" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -2235,8 +3169,11 @@
       <c r="C40" s="8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -2246,8 +3183,11 @@
       <c r="C41" s="8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -2257,8 +3197,11 @@
       <c r="C42" s="8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -2268,8 +3211,11 @@
       <c r="C43" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -2279,8 +3225,11 @@
       <c r="C44" s="8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -2290,8 +3239,11 @@
       <c r="C45" s="8" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -2301,8 +3253,11 @@
       <c r="C46" s="8" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -2312,8 +3267,11 @@
       <c r="C47" s="8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -2323,8 +3281,11 @@
       <c r="C48" s="8" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -2334,8 +3295,11 @@
       <c r="C49" s="8" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -2345,8 +3309,11 @@
       <c r="C50" s="8" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -2356,8 +3323,11 @@
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -2367,8 +3337,11 @@
       <c r="C52" s="8" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -2378,8 +3351,11 @@
       <c r="C53" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -2389,8 +3365,11 @@
       <c r="C54" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -2400,8 +3379,11 @@
       <c r="C55" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -2411,8 +3393,11 @@
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -2422,8 +3407,11 @@
       <c r="C57" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -2433,8 +3421,11 @@
       <c r="C58" s="8" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -2444,8 +3435,11 @@
       <c r="C59" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -2455,8 +3449,11 @@
       <c r="C60" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -2466,8 +3463,11 @@
       <c r="C61" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -2477,8 +3477,11 @@
       <c r="C62" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -2488,8 +3491,11 @@
       <c r="C63" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -2499,8 +3505,11 @@
       <c r="C64" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -2510,8 +3519,11 @@
       <c r="C65" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -2521,8 +3533,11 @@
       <c r="C66" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -2532,8 +3547,11 @@
       <c r="C67" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -2543,8 +3561,11 @@
       <c r="C68" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -2554,8 +3575,11 @@
       <c r="C69" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -2565,8 +3589,11 @@
       <c r="C70" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -2576,8 +3603,11 @@
       <c r="C71" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -2587,8 +3617,11 @@
       <c r="C72" s="8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -2598,8 +3631,11 @@
       <c r="C73" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -2609,8 +3645,11 @@
       <c r="C74" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -2620,8 +3659,11 @@
       <c r="C75" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -2631,8 +3673,11 @@
       <c r="C76" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -2642,8 +3687,11 @@
       <c r="C77" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -2653,8 +3701,11 @@
       <c r="C78" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -2664,8 +3715,11 @@
       <c r="C79" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -2675,8 +3729,11 @@
       <c r="C80" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -2686,8 +3743,11 @@
       <c r="C81" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -2697,8 +3757,11 @@
       <c r="C82" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -2708,8 +3771,11 @@
       <c r="C83" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -2719,8 +3785,11 @@
       <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -2730,8 +3799,11 @@
       <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -2741,8 +3813,11 @@
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -2752,8 +3827,11 @@
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -2763,8 +3841,11 @@
       <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -2774,8 +3855,14 @@
       <c r="C89" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>85</v>
       </c>
@@ -2785,8 +3872,14 @@
       <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>86</v>
       </c>
@@ -2796,8 +3889,11 @@
       <c r="C91" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>87</v>
       </c>
@@ -2807,8 +3903,11 @@
       <c r="C92" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>88</v>
       </c>
@@ -2818,8 +3917,11 @@
       <c r="C93" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>89</v>
       </c>
@@ -2829,8 +3931,11 @@
       <c r="C94" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>90</v>
       </c>
@@ -2840,8 +3945,11 @@
       <c r="C95" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>91</v>
       </c>
@@ -2851,8 +3959,11 @@
       <c r="C96" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>92</v>
       </c>
@@ -2862,8 +3973,11 @@
       <c r="C97" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>93</v>
       </c>
@@ -2873,8 +3987,11 @@
       <c r="C98" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>94</v>
       </c>
@@ -2884,8 +4001,14 @@
       <c r="C99" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>95</v>
       </c>
@@ -2895,8 +4018,11 @@
       <c r="C100" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>96</v>
       </c>
@@ -2906,8 +4032,11 @@
       <c r="C101" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>97</v>
       </c>
@@ -2917,8 +4046,11 @@
       <c r="C102" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>98</v>
       </c>
@@ -2928,8 +4060,11 @@
       <c r="C103" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -2939,8 +4074,11 @@
       <c r="C104" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>100</v>
       </c>
@@ -2950,8 +4088,11 @@
       <c r="C105" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>101</v>
       </c>
@@ -2961,8 +4102,11 @@
       <c r="C106" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>102</v>
       </c>
@@ -2972,8 +4116,11 @@
       <c r="C107" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>103</v>
       </c>
@@ -2983,8 +4130,11 @@
       <c r="C108" s="8" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>104</v>
       </c>
@@ -2994,8 +4144,11 @@
       <c r="C109" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>105</v>
       </c>
@@ -3005,8 +4158,11 @@
       <c r="C110" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>106</v>
       </c>
@@ -3016,8 +4172,11 @@
       <c r="C111" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>107</v>
       </c>
@@ -3027,8 +4186,11 @@
       <c r="C112" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>108</v>
       </c>
@@ -3038,8 +4200,11 @@
       <c r="C113" s="8" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>109</v>
       </c>
@@ -3049,8 +4214,11 @@
       <c r="C114" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>110</v>
       </c>
@@ -3060,8 +4228,11 @@
       <c r="C115" s="8" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>111</v>
       </c>
@@ -3071,8 +4242,11 @@
       <c r="C116" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>112</v>
       </c>
@@ -3082,8 +4256,11 @@
       <c r="C117" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -3093,8 +4270,11 @@
       <c r="C118" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>114</v>
       </c>
@@ -3104,8 +4284,11 @@
       <c r="C119" s="8" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>115</v>
       </c>
@@ -3115,8 +4298,11 @@
       <c r="C120" s="8" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>116</v>
       </c>
@@ -3126,8 +4312,11 @@
       <c r="C121" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>117</v>
       </c>
@@ -3137,8 +4326,11 @@
       <c r="C122" s="8" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>118</v>
       </c>
@@ -3148,8 +4340,11 @@
       <c r="C123" s="8" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>119</v>
       </c>
@@ -3159,8 +4354,11 @@
       <c r="C124" s="8" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>120</v>
       </c>
@@ -3170,8 +4368,14 @@
       <c r="C125" s="8" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>121</v>
       </c>
@@ -3181,8 +4385,14 @@
       <c r="C126" s="8" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>122</v>
       </c>
@@ -3192,8 +4402,11 @@
       <c r="C127" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>123</v>
       </c>
@@ -3203,8 +4416,11 @@
       <c r="C128" s="8" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>124</v>
       </c>
@@ -3214,8 +4430,11 @@
       <c r="C129" s="8" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>125</v>
       </c>
@@ -3225,8 +4444,11 @@
       <c r="C130" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>126</v>
       </c>
@@ -3236,8 +4458,11 @@
       <c r="C131" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>127</v>
       </c>
@@ -3247,8 +4472,11 @@
       <c r="C132" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>128</v>
       </c>
@@ -3258,8 +4486,11 @@
       <c r="C133" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>129</v>
       </c>
@@ -3269,8 +4500,11 @@
       <c r="C134" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>130</v>
       </c>
@@ -3280,8 +4514,11 @@
       <c r="C135" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>131</v>
       </c>
@@ -3291,8 +4528,11 @@
       <c r="C136" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>132</v>
       </c>
@@ -3302,8 +4542,11 @@
       <c r="C137" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>133</v>
       </c>
@@ -3313,8 +4556,11 @@
       <c r="C138" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>134</v>
       </c>
@@ -3324,8 +4570,11 @@
       <c r="C139" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>135</v>
       </c>
@@ -3335,8 +4584,11 @@
       <c r="C140" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>136</v>
       </c>
@@ -3346,8 +4598,11 @@
       <c r="C141" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>137</v>
       </c>
@@ -3357,8 +4612,11 @@
       <c r="C142" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>138</v>
       </c>
@@ -3368,8 +4626,11 @@
       <c r="C143" s="8" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>139</v>
       </c>
@@ -3379,8 +4640,11 @@
       <c r="C144" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>140</v>
       </c>
@@ -3390,8 +4654,11 @@
       <c r="C145" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>141</v>
       </c>
@@ -3401,8 +4668,11 @@
       <c r="C146" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>142</v>
       </c>
@@ -3412,8 +4682,11 @@
       <c r="C147" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>143</v>
       </c>
@@ -3423,8 +4696,11 @@
       <c r="C148" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>144</v>
       </c>
@@ -3434,8 +4710,11 @@
       <c r="C149" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>145</v>
       </c>
@@ -3445,8 +4724,11 @@
       <c r="C150" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>146</v>
       </c>
@@ -3456,8 +4738,11 @@
       <c r="C151" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>147</v>
       </c>
@@ -3467,8 +4752,11 @@
       <c r="C152" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>148</v>
       </c>
@@ -3478,8 +4766,11 @@
       <c r="C153" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>149</v>
       </c>
@@ -3489,8 +4780,11 @@
       <c r="C154" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>150</v>
       </c>
@@ -3500,8 +4794,11 @@
       <c r="C155" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>151</v>
       </c>
@@ -3511,8 +4808,11 @@
       <c r="C156" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>152</v>
       </c>
@@ -3522,8 +4822,11 @@
       <c r="C157" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>153</v>
       </c>
@@ -3533,8 +4836,11 @@
       <c r="C158" s="8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>154</v>
       </c>
@@ -3544,8 +4850,11 @@
       <c r="C159" s="8" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>155</v>
       </c>
@@ -3555,8 +4864,11 @@
       <c r="C160" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>156</v>
       </c>
@@ -3566,8 +4878,11 @@
       <c r="C161" s="8" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>157</v>
       </c>
@@ -3577,8 +4892,11 @@
       <c r="C162" s="8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>158</v>
       </c>
@@ -3588,8 +4906,11 @@
       <c r="C163" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>159</v>
       </c>
@@ -3599,8 +4920,11 @@
       <c r="C164" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>160</v>
       </c>
@@ -3610,8 +4934,11 @@
       <c r="C165" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>161</v>
       </c>
@@ -3621,8 +4948,11 @@
       <c r="C166" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>162</v>
       </c>
@@ -3632,8 +4962,11 @@
       <c r="C167" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>163</v>
       </c>
@@ -3643,8 +4976,11 @@
       <c r="C168" s="8" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>164</v>
       </c>
@@ -3654,8 +4990,11 @@
       <c r="C169" s="8" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F169" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>165</v>
       </c>
@@ -3665,8 +5004,11 @@
       <c r="C170" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F170" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>166</v>
       </c>
@@ -3676,8 +5018,11 @@
       <c r="C171" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>167</v>
       </c>
@@ -3687,8 +5032,11 @@
       <c r="C172" s="8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>168</v>
       </c>
@@ -3698,8 +5046,11 @@
       <c r="C173" s="8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>169</v>
       </c>
@@ -3709,8 +5060,11 @@
       <c r="C174" s="8" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>170</v>
       </c>
@@ -3720,8 +5074,11 @@
       <c r="C175" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>171</v>
       </c>
@@ -3731,8 +5088,11 @@
       <c r="C176" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>172</v>
       </c>
@@ -3742,8 +5102,11 @@
       <c r="C177" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>173</v>
       </c>
@@ -3753,8 +5116,11 @@
       <c r="C178" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>174</v>
       </c>
@@ -3764,8 +5130,11 @@
       <c r="C179" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>175</v>
       </c>
@@ -3775,8 +5144,11 @@
       <c r="C180" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>176</v>
       </c>
@@ -3786,8 +5158,11 @@
       <c r="C181" s="8" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>177</v>
       </c>
@@ -3797,8 +5172,11 @@
       <c r="C182" s="8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>178</v>
       </c>
@@ -3808,8 +5186,11 @@
       <c r="C183" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>179</v>
       </c>
@@ -3819,8 +5200,11 @@
       <c r="C184" s="8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>180</v>
       </c>
@@ -3830,8 +5214,11 @@
       <c r="C185" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>181</v>
       </c>
@@ -3841,8 +5228,11 @@
       <c r="C186" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>182</v>
       </c>
@@ -3852,8 +5242,11 @@
       <c r="C187" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>183</v>
       </c>
@@ -3863,8 +5256,11 @@
       <c r="C188" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>184</v>
       </c>
@@ -3874,8 +5270,11 @@
       <c r="C189" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>185</v>
       </c>
@@ -3885,8 +5284,11 @@
       <c r="C190" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>186</v>
       </c>
@@ -3896,8 +5298,11 @@
       <c r="C191" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>187</v>
       </c>
@@ -3907,8 +5312,11 @@
       <c r="C192" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>188</v>
       </c>
@@ -3918,8 +5326,11 @@
       <c r="C193" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F193" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>189</v>
       </c>
@@ -3929,8 +5340,11 @@
       <c r="C194" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>190</v>
       </c>
@@ -3940,8 +5354,11 @@
       <c r="C195" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>191</v>
       </c>
@@ -3951,8 +5368,11 @@
       <c r="C196" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>192</v>
       </c>
@@ -3962,8 +5382,11 @@
       <c r="C197" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>193</v>
       </c>
@@ -3973,8 +5396,11 @@
       <c r="C198" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>194</v>
       </c>
@@ -3984,8 +5410,11 @@
       <c r="C199" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F199" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>195</v>
       </c>
@@ -3995,8 +5424,11 @@
       <c r="C200" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F200" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>196</v>
       </c>
@@ -4006,8 +5438,11 @@
       <c r="C201" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F201" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>197</v>
       </c>
@@ -4017,8 +5452,11 @@
       <c r="C202" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>198</v>
       </c>
@@ -4028,8 +5466,11 @@
       <c r="C203" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F203" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>199</v>
       </c>
@@ -4039,8 +5480,11 @@
       <c r="C204" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F204" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>200</v>
       </c>
@@ -4050,8 +5494,11 @@
       <c r="C205" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F205" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>201</v>
       </c>
@@ -4061,8 +5508,11 @@
       <c r="C206" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F206" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>202</v>
       </c>
@@ -4072,8 +5522,11 @@
       <c r="C207" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F207" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>203</v>
       </c>
@@ -4083,8 +5536,11 @@
       <c r="C208" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F208" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>204</v>
       </c>
@@ -4094,8 +5550,11 @@
       <c r="C209" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F209" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>205</v>
       </c>
@@ -4105,8 +5564,11 @@
       <c r="C210" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F210" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>206</v>
       </c>
@@ -4116,8 +5578,11 @@
       <c r="C211" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F211" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>207</v>
       </c>
@@ -4127,8 +5592,11 @@
       <c r="C212" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F212" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>208</v>
       </c>
@@ -4138,8 +5606,11 @@
       <c r="C213" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F213" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>209</v>
       </c>
@@ -4149,8 +5620,11 @@
       <c r="C214" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>210</v>
       </c>
@@ -4160,8 +5634,11 @@
       <c r="C215" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>211</v>
       </c>
@@ -4171,8 +5648,11 @@
       <c r="C216" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F216" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>212</v>
       </c>
@@ -4182,8 +5662,11 @@
       <c r="C217" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F217" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>213</v>
       </c>
@@ -4193,8 +5676,11 @@
       <c r="C218" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F218" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>214</v>
       </c>
@@ -4204,8 +5690,11 @@
       <c r="C219" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F219" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>215</v>
       </c>
@@ -4215,8 +5704,11 @@
       <c r="C220" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F220" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>216</v>
       </c>
@@ -4226,8 +5718,11 @@
       <c r="C221" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F221" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>217</v>
       </c>
@@ -4237,8 +5732,11 @@
       <c r="C222" s="8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F222" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>218</v>
       </c>
@@ -4248,8 +5746,11 @@
       <c r="C223" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F223" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>219</v>
       </c>
@@ -4258,6 +5759,9 @@
       </c>
       <c r="C224" s="8" t="s">
         <v>416</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -4271,7 +5775,9 @@
         <v>417</v>
       </c>
       <c r="D225" s="3"/>
-      <c r="F225" s="3"/>
+      <c r="F225" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -4287,7 +5793,9 @@
         <v>418</v>
       </c>
       <c r="D226" s="3"/>
-      <c r="F226" s="3"/>
+      <c r="F226" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -4303,7 +5811,9 @@
         <v>418</v>
       </c>
       <c r="D227" s="3"/>
-      <c r="F227" s="3"/>
+      <c r="F227" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -4319,7 +5829,9 @@
         <v>418</v>
       </c>
       <c r="D228" s="3"/>
-      <c r="F228" s="3"/>
+      <c r="F228" s="3" t="s">
+        <v>680</v>
+      </c>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -4335,7 +5847,9 @@
         <v>418</v>
       </c>
       <c r="D229" s="3"/>
-      <c r="F229" s="3"/>
+      <c r="F229" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -4351,7 +5865,9 @@
         <v>419</v>
       </c>
       <c r="D230" s="3"/>
-      <c r="F230" s="3"/>
+      <c r="F230" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -4367,7 +5883,9 @@
         <v>419</v>
       </c>
       <c r="D231" s="3"/>
-      <c r="F231" s="3"/>
+      <c r="F231" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -4383,7 +5901,9 @@
         <v>419</v>
       </c>
       <c r="D232" s="3"/>
-      <c r="F232" s="3"/>
+      <c r="F232" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
@@ -4399,7 +5919,9 @@
         <v>419</v>
       </c>
       <c r="D233" s="3"/>
-      <c r="F233" s="3"/>
+      <c r="F233" s="3" t="s">
+        <v>685</v>
+      </c>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
@@ -4415,7 +5937,9 @@
         <v>419</v>
       </c>
       <c r="D234" s="3"/>
-      <c r="F234" s="3"/>
+      <c r="F234" s="3" t="s">
+        <v>686</v>
+      </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
@@ -4431,7 +5955,9 @@
         <v>419</v>
       </c>
       <c r="D235" s="3"/>
-      <c r="F235" s="3"/>
+      <c r="F235" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -4447,7 +5973,9 @@
         <v>420</v>
       </c>
       <c r="D236" s="3"/>
-      <c r="F236" s="3"/>
+      <c r="F236" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -4463,7 +5991,9 @@
         <v>62</v>
       </c>
       <c r="D237" s="3"/>
-      <c r="F237" s="3"/>
+      <c r="F237" s="3" t="s">
+        <v>689</v>
+      </c>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -4479,7 +6009,9 @@
         <v>62</v>
       </c>
       <c r="D238" s="3"/>
-      <c r="F238" s="3"/>
+      <c r="F238" s="3" t="s">
+        <v>690</v>
+      </c>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -4495,7 +6027,9 @@
         <v>421</v>
       </c>
       <c r="D239" s="3"/>
-      <c r="F239" s="3"/>
+      <c r="F239" s="3" t="s">
+        <v>691</v>
+      </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -4511,7 +6045,9 @@
         <v>422</v>
       </c>
       <c r="D240" s="3"/>
-      <c r="F240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>692</v>
+      </c>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -4527,7 +6063,9 @@
         <v>423</v>
       </c>
       <c r="D241" s="3"/>
-      <c r="F241" s="3"/>
+      <c r="F241" s="3" t="s">
+        <v>693</v>
+      </c>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -4543,7 +6081,9 @@
         <v>424</v>
       </c>
       <c r="D242" s="3"/>
-      <c r="F242" s="3"/>
+      <c r="F242" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -4559,7 +6099,9 @@
         <v>425</v>
       </c>
       <c r="D243" s="3"/>
-      <c r="F243" s="3"/>
+      <c r="F243" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -4575,7 +6117,9 @@
         <v>426</v>
       </c>
       <c r="D244" s="3"/>
-      <c r="F244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -4591,7 +6135,9 @@
         <v>427</v>
       </c>
       <c r="D245" s="3"/>
-      <c r="F245" s="3"/>
+      <c r="F245" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -4607,7 +6153,9 @@
         <v>428</v>
       </c>
       <c r="D246" s="3"/>
-      <c r="F246" s="3"/>
+      <c r="F246" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
@@ -4623,7 +6171,9 @@
         <v>429</v>
       </c>
       <c r="D247" s="3"/>
-      <c r="F247" s="3"/>
+      <c r="F247" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
@@ -4639,7 +6189,9 @@
         <v>430</v>
       </c>
       <c r="D248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="F248" s="3" t="s">
+        <v>700</v>
+      </c>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
@@ -4655,7 +6207,9 @@
         <v>431</v>
       </c>
       <c r="D249" s="3"/>
-      <c r="F249" s="3"/>
+      <c r="F249" s="3" t="s">
+        <v>701</v>
+      </c>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -4671,7 +6225,9 @@
         <v>431</v>
       </c>
       <c r="D250" s="3"/>
-      <c r="F250" s="3"/>
+      <c r="F250" s="3" t="s">
+        <v>702</v>
+      </c>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -4687,7 +6243,9 @@
         <v>432</v>
       </c>
       <c r="D251" s="3"/>
-      <c r="F251" s="3"/>
+      <c r="F251" s="3" t="s">
+        <v>703</v>
+      </c>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -4703,7 +6261,9 @@
         <v>433</v>
       </c>
       <c r="D252" s="3"/>
-      <c r="F252" s="3"/>
+      <c r="F252" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -4719,7 +6279,9 @@
         <v>434</v>
       </c>
       <c r="D253" s="3"/>
-      <c r="F253" s="3"/>
+      <c r="F253" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -4735,7 +6297,9 @@
         <v>435</v>
       </c>
       <c r="D254" s="3"/>
-      <c r="F254" s="3"/>
+      <c r="F254" s="3" t="s">
+        <v>706</v>
+      </c>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -4751,7 +6315,9 @@
         <v>436</v>
       </c>
       <c r="D255" s="3"/>
-      <c r="F255" s="3"/>
+      <c r="F255" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -4767,7 +6333,9 @@
         <v>437</v>
       </c>
       <c r="D256" s="3"/>
-      <c r="F256" s="3"/>
+      <c r="F256" s="3" t="s">
+        <v>708</v>
+      </c>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -4783,7 +6351,9 @@
         <v>438</v>
       </c>
       <c r="D257" s="3"/>
-      <c r="F257" s="3"/>
+      <c r="F257" s="3" t="s">
+        <v>709</v>
+      </c>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -4799,7 +6369,9 @@
         <v>439</v>
       </c>
       <c r="D258" s="3"/>
-      <c r="F258" s="3"/>
+      <c r="F258" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -4815,7 +6387,9 @@
         <v>440</v>
       </c>
       <c r="D259" s="3"/>
-      <c r="F259" s="3"/>
+      <c r="F259" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -4831,7 +6405,9 @@
         <v>441</v>
       </c>
       <c r="D260" s="3"/>
-      <c r="F260" s="3"/>
+      <c r="F260" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -4847,7 +6423,9 @@
         <v>442</v>
       </c>
       <c r="D261" s="3"/>
-      <c r="F261" s="3"/>
+      <c r="F261" s="3" t="s">
+        <v>713</v>
+      </c>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -4863,7 +6441,9 @@
         <v>443</v>
       </c>
       <c r="D262" s="3"/>
-      <c r="F262" s="3"/>
+      <c r="F262" s="3" t="s">
+        <v>714</v>
+      </c>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -4879,7 +6459,9 @@
         <v>444</v>
       </c>
       <c r="D263" s="3"/>
-      <c r="F263" s="3"/>
+      <c r="F263" s="3" t="s">
+        <v>715</v>
+      </c>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -4895,7 +6477,9 @@
         <v>445</v>
       </c>
       <c r="D264" s="3"/>
-      <c r="F264" s="3"/>
+      <c r="F264" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
@@ -4911,7 +6495,9 @@
         <v>445</v>
       </c>
       <c r="D265" s="3"/>
-      <c r="F265" s="3"/>
+      <c r="F265" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
@@ -4927,7 +6513,9 @@
         <v>446</v>
       </c>
       <c r="D266" s="3"/>
-      <c r="F266" s="3"/>
+      <c r="F266" s="3" t="s">
+        <v>718</v>
+      </c>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
@@ -4943,7 +6531,9 @@
         <v>445</v>
       </c>
       <c r="D267" s="3"/>
-      <c r="F267" s="3"/>
+      <c r="F267" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
@@ -4959,7 +6549,9 @@
         <v>447</v>
       </c>
       <c r="D268" s="3"/>
-      <c r="F268" s="3"/>
+      <c r="F268" t="s">
+        <v>720</v>
+      </c>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
@@ -4975,7 +6567,9 @@
         <v>447</v>
       </c>
       <c r="D269" s="3"/>
-      <c r="F269" s="3"/>
+      <c r="F269" t="s">
+        <v>721</v>
+      </c>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
@@ -4991,7 +6585,9 @@
         <v>448</v>
       </c>
       <c r="D270" s="3"/>
-      <c r="F270" s="3"/>
+      <c r="F270" t="s">
+        <v>722</v>
+      </c>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
@@ -5007,7 +6603,9 @@
         <v>449</v>
       </c>
       <c r="D271" s="3"/>
-      <c r="F271" s="3"/>
+      <c r="F271" t="s">
+        <v>723</v>
+      </c>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
@@ -5023,7 +6621,9 @@
         <v>450</v>
       </c>
       <c r="D272" s="3"/>
-      <c r="F272" s="3"/>
+      <c r="F272" t="s">
+        <v>724</v>
+      </c>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
@@ -5039,7 +6639,9 @@
         <v>451</v>
       </c>
       <c r="D273" s="3"/>
-      <c r="F273" s="3"/>
+      <c r="F273" t="s">
+        <v>725</v>
+      </c>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
@@ -5055,7 +6657,9 @@
         <v>452</v>
       </c>
       <c r="D274" s="3"/>
-      <c r="F274" s="3"/>
+      <c r="F274" t="s">
+        <v>726</v>
+      </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
@@ -5071,7 +6675,9 @@
         <v>382</v>
       </c>
       <c r="D275" s="3"/>
-      <c r="F275" s="3"/>
+      <c r="F275" t="s">
+        <v>727</v>
+      </c>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
@@ -5087,16 +6693,18 @@
         <v>382</v>
       </c>
       <c r="D276" s="3"/>
-      <c r="F276" s="3"/>
+      <c r="F276" t="s">
+        <v>728</v>
+      </c>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
     <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C277" s="11"/>
+      <c r="C277" s="12"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -5466,4 +7074,1609 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>78</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>115</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>117</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>121</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>122</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>124</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>151</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>152</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>154</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>155</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>156</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>157</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>158</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>159</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>160</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>162</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>167</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>168</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>169</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>177</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>190</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>198</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>199</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>205</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>206</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>212</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>213</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>214</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>215</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>216</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>217</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>231</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>234</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>235</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>238</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>239</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>241</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>243</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>247</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>248</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>249</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>253</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>254</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>259</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>260</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>261</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>262</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>263</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="F75" t="s">
+        <v>720</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>264</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="F76" t="s">
+        <v>721</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>265</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="F77" t="s">
+        <v>722</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>266</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="F78" t="s">
+        <v>723</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>267</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="F79" t="s">
+        <v>724</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>268</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="F80" t="s">
+        <v>725</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>269</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="F81" t="s">
+        <v>726</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>271</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="F82" t="s">
+        <v>728</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>24</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>29</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B83:C83"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="732">
   <si>
     <t>Закладка</t>
   </si>
@@ -2208,6 +2208,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>количество квартир на этаже</t>
   </si>
 </sst>
 </file>
@@ -2637,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4159,7 @@
         <v>165</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>367</v>
+        <v>731</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>562</v>
@@ -7080,8 +7083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="737">
   <si>
     <t>Закладка</t>
   </si>
@@ -2211,6 +2211,21 @@
   </si>
   <si>
     <t>количество квартир на этаже</t>
+  </si>
+  <si>
+    <t>год создания отчета</t>
+  </si>
+  <si>
+    <t>data_spravka</t>
+  </si>
+  <si>
+    <t>дата составления справки</t>
+  </si>
+  <si>
+    <t>home_age</t>
+  </si>
+  <si>
+    <t>возраст дома</t>
   </si>
 </sst>
 </file>
@@ -2638,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,10 +6291,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>302</v>
+        <v>733</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>434</v>
+        <v>734</v>
       </c>
       <c r="D253" s="3"/>
       <c r="F253" s="3" t="s">
@@ -6675,7 +6690,7 @@
         <v>324</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>382</v>
+        <v>732</v>
       </c>
       <c r="D275" s="3"/>
       <c r="F275" t="s">
@@ -6685,7 +6700,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>271</v>
       </c>
@@ -6704,50 +6719,50 @@
       <c r="L276" s="3"/>
     </row>
     <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="11" t="s">
+      <c r="A277" s="3">
+        <v>272</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C277" s="12"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>0</v>
-      </c>
-      <c r="B278" t="s">
-        <v>4</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C278" s="12"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>22</v>
@@ -6755,10 +6770,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>22</v>
@@ -6766,32 +6781,32 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>24</v>
@@ -6799,131 +6814,131 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B290" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B296" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>26</v>
@@ -6931,148 +6946,159 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B303" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B304" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B308" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B309" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
+        <v>31</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B310" t="s">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>32</v>
+      </c>
+      <c r="B311" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="822">
   <si>
     <t>Закладка</t>
   </si>
@@ -215,99 +215,9 @@
     <t>address_client</t>
   </si>
   <si>
-    <t>address_street</t>
-  </si>
-  <si>
-    <t>address_street10</t>
-  </si>
-  <si>
-    <t>address_street2</t>
-  </si>
-  <si>
-    <t>address_street3</t>
-  </si>
-  <si>
-    <t>address_street4</t>
-  </si>
-  <si>
-    <t>address_street5</t>
-  </si>
-  <si>
-    <t>address_street6</t>
-  </si>
-  <si>
-    <t>address_street7</t>
-  </si>
-  <si>
-    <t>address_street8</t>
-  </si>
-  <si>
-    <t>address_street9</t>
-  </si>
-  <si>
-    <t>adress_complex</t>
-  </si>
-  <si>
-    <t>adress_complex2</t>
-  </si>
-  <si>
-    <t>adress_complex3</t>
-  </si>
-  <si>
-    <t>adress_complex4</t>
-  </si>
-  <si>
-    <t>adress_complex5</t>
-  </si>
-  <si>
-    <t>adress_complex6</t>
-  </si>
-  <si>
-    <t>apartment_type2</t>
-  </si>
-  <si>
-    <t>apartment_type3</t>
-  </si>
-  <si>
-    <t>apartment_type4</t>
-  </si>
-  <si>
-    <t>apartment_type5</t>
-  </si>
-  <si>
-    <t>apartment_type6</t>
-  </si>
-  <si>
-    <t>apartment_type7</t>
-  </si>
-  <si>
-    <t>apartment_type8</t>
-  </si>
-  <si>
-    <t>apartment_type9</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>area2</t>
-  </si>
-  <si>
-    <t>area3</t>
-  </si>
-  <si>
-    <t>area_snip</t>
-  </si>
-  <si>
-    <t>area_snip2</t>
-  </si>
-  <si>
     <t>attic</t>
   </si>
   <si>
-    <t>balkon</t>
-  </si>
-  <si>
     <t>bank_list</t>
   </si>
   <si>
@@ -317,18 +227,6 @@
     <t>basement_wear</t>
   </si>
   <si>
-    <t>bath_ceiling</t>
-  </si>
-  <si>
-    <t>bath_floor</t>
-  </si>
-  <si>
-    <t>bath_wall</t>
-  </si>
-  <si>
-    <t>bti_ok</t>
-  </si>
-  <si>
     <t>ceiling_state</t>
   </si>
   <si>
@@ -338,201 +236,27 @@
     <t>ceiling_wear</t>
   </si>
   <si>
-    <t>ceilingl_kitchen_type</t>
-  </si>
-  <si>
-    <t>ceilingl_living_type</t>
-  </si>
-  <si>
-    <t>ceilng_corrd_type</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>client2</t>
-  </si>
-  <si>
-    <t>client3</t>
-  </si>
-  <si>
-    <t>client4</t>
-  </si>
-  <si>
-    <t>client5</t>
-  </si>
-  <si>
-    <t>client6</t>
-  </si>
-  <si>
-    <t>client_document</t>
-  </si>
-  <si>
     <t>closest_stop</t>
   </si>
   <si>
     <t>concerge</t>
   </si>
   <si>
-    <t>data_eval</t>
-  </si>
-  <si>
-    <t>data_eval2</t>
-  </si>
-  <si>
-    <t>data_eval3</t>
-  </si>
-  <si>
-    <t>data_eval4</t>
-  </si>
-  <si>
-    <t>data_eval5</t>
-  </si>
-  <si>
-    <t>data_eval6</t>
-  </si>
-  <si>
-    <t>data_eval7</t>
-  </si>
-  <si>
-    <t>data_report</t>
-  </si>
-  <si>
-    <t>data_report2</t>
-  </si>
-  <si>
-    <t>data_report3</t>
-  </si>
-  <si>
-    <t>data_report4</t>
-  </si>
-  <si>
     <t>devices_4_system</t>
   </si>
   <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>discount2</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>dollar2</t>
-  </si>
-  <si>
-    <t>dollar3</t>
-  </si>
-  <si>
-    <t>dollar4</t>
-  </si>
-  <si>
     <t>domofon</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>employee2</t>
-  </si>
-  <si>
-    <t>employee3</t>
-  </si>
-  <si>
-    <t>employee4</t>
-  </si>
-  <si>
-    <t>employee5</t>
-  </si>
-  <si>
-    <t>employee6</t>
-  </si>
-  <si>
-    <t>employee7</t>
-  </si>
-  <si>
-    <t>employee_document</t>
-  </si>
-  <si>
-    <t>employee_edu</t>
-  </si>
-  <si>
-    <t>employee_edu2</t>
-  </si>
-  <si>
-    <t>employee_insur</t>
-  </si>
-  <si>
-    <t>employee_insur2</t>
-  </si>
-  <si>
-    <t>employee_insur3</t>
-  </si>
-  <si>
-    <t>employee_insur4</t>
-  </si>
-  <si>
-    <t>employee_pos</t>
-  </si>
-  <si>
-    <t>employee_qnt</t>
-  </si>
-  <si>
-    <t>employee_sro</t>
-  </si>
-  <si>
-    <t>employee_sro2</t>
-  </si>
-  <si>
-    <t>employee_sro3</t>
-  </si>
-  <si>
-    <t>employee_sro4</t>
-  </si>
-  <si>
-    <t>employee_stag</t>
-  </si>
-  <si>
-    <t>employee_stag2</t>
-  </si>
-  <si>
-    <t>extend_area</t>
-  </si>
-  <si>
     <t>extended_factors</t>
   </si>
   <si>
-    <t>flat_cond</t>
-  </si>
-  <si>
-    <t>flat_height</t>
-  </si>
-  <si>
     <t>flats_in_floor</t>
   </si>
   <si>
-    <t>floor2</t>
-  </si>
-  <si>
-    <t>floor_corrd_type</t>
-  </si>
-  <si>
-    <t>floor_kitchen_type</t>
-  </si>
-  <si>
-    <t>floor_living_type</t>
-  </si>
-  <si>
-    <t>floors</t>
-  </si>
-  <si>
-    <t>floors2</t>
-  </si>
-  <si>
     <t>garbage</t>
   </si>
   <si>
@@ -548,12 +272,6 @@
     <t>heating_type</t>
   </si>
   <si>
-    <t>holders</t>
-  </si>
-  <si>
-    <t>holders2</t>
-  </si>
-  <si>
     <t>holders_documents</t>
   </si>
   <si>
@@ -572,90 +290,12 @@
     <t>house_year</t>
   </si>
   <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>image10</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
-    <t>image5</t>
-  </si>
-  <si>
-    <t>image6</t>
-  </si>
-  <si>
-    <t>image7</t>
-  </si>
-  <si>
-    <t>image8</t>
-  </si>
-  <si>
-    <t>image9</t>
-  </si>
-  <si>
-    <t>image11</t>
-  </si>
-  <si>
-    <t>image12</t>
-  </si>
-  <si>
-    <t>image13</t>
-  </si>
-  <si>
-    <t>image10_comment</t>
-  </si>
-  <si>
-    <t>image1_comment</t>
-  </si>
-  <si>
-    <t>image2_comment</t>
-  </si>
-  <si>
-    <t>image3_comment</t>
-  </si>
-  <si>
-    <t>image4_comment</t>
-  </si>
-  <si>
-    <t>image5_comment</t>
-  </si>
-  <si>
-    <t>image6_comment</t>
-  </si>
-  <si>
-    <t>image7_comment</t>
-  </si>
-  <si>
-    <t>image8_comment</t>
-  </si>
-  <si>
-    <t>image9_comment</t>
-  </si>
-  <si>
-    <t>image_map1</t>
-  </si>
-  <si>
-    <t>image_map2</t>
-  </si>
-  <si>
     <t>is_defect</t>
   </si>
   <si>
     <t>is_defect2</t>
   </si>
   <si>
-    <t>is_pereplan</t>
-  </si>
-  <si>
     <t>kanal_cond</t>
   </si>
   <si>
@@ -677,21 +317,9 @@
     <t>kinder_list</t>
   </si>
   <si>
-    <t>kitchen_area</t>
-  </si>
-  <si>
     <t>lift</t>
   </si>
   <si>
-    <t>limits2</t>
-  </si>
-  <si>
-    <t>living_area</t>
-  </si>
-  <si>
-    <t>living_area2</t>
-  </si>
-  <si>
     <t>local1</t>
   </si>
   <si>
@@ -701,129 +329,30 @@
     <t>main_door_type</t>
   </si>
   <si>
-    <t>object_type</t>
-  </si>
-  <si>
-    <t>object_type2</t>
-  </si>
-  <si>
-    <t>object_type3</t>
-  </si>
-  <si>
-    <t>object_type4</t>
-  </si>
-  <si>
-    <t>object_type5</t>
-  </si>
-  <si>
-    <t>object_type6</t>
-  </si>
-  <si>
     <t>parking</t>
   </si>
   <si>
     <t>pharmacy_list</t>
   </si>
   <si>
-    <t>plan_now</t>
-  </si>
-  <si>
-    <t>posible_2_register</t>
-  </si>
-  <si>
     <t>prestig</t>
   </si>
   <si>
-    <t>price2</t>
-  </si>
-  <si>
-    <t>price3</t>
-  </si>
-  <si>
-    <t>price4</t>
-  </si>
-  <si>
-    <t>price5</t>
-  </si>
-  <si>
-    <t>price6</t>
-  </si>
-  <si>
-    <t>price7</t>
-  </si>
-  <si>
-    <t>price8</t>
-  </si>
-  <si>
-    <t>price9</t>
-  </si>
-  <si>
     <t>price8_write</t>
   </si>
   <si>
-    <t>price_discount</t>
-  </si>
-  <si>
-    <t>price_discount2</t>
-  </si>
-  <si>
-    <t>price_discount3</t>
-  </si>
-  <si>
-    <t>price_discount4</t>
-  </si>
-  <si>
-    <t>price_discount5</t>
-  </si>
-  <si>
-    <t>price_discount6</t>
-  </si>
-  <si>
-    <t>price_discount7</t>
-  </si>
-  <si>
     <t>price_discount5_write</t>
   </si>
   <si>
     <t>price_discount6_write</t>
   </si>
   <si>
-    <t>price_discount_dollar</t>
-  </si>
-  <si>
-    <t>price_discount_dollar2</t>
-  </si>
-  <si>
-    <t>price_discount_dollar3</t>
-  </si>
-  <si>
-    <t>price_discount_dollar4</t>
-  </si>
-  <si>
-    <t>price_discount_dollar5</t>
-  </si>
-  <si>
     <t>price_discount_dollar4_write</t>
   </si>
   <si>
     <t>price_discount_write</t>
   </si>
   <si>
-    <t>price_dollar</t>
-  </si>
-  <si>
-    <t>price_dollar2</t>
-  </si>
-  <si>
-    <t>price_dollar3</t>
-  </si>
-  <si>
-    <t>price_dollar4</t>
-  </si>
-  <si>
-    <t>price_dollar5</t>
-  </si>
-  <si>
     <t>price_dollar_write</t>
   </si>
   <si>
@@ -839,87 +368,27 @@
     <t>prom_distance</t>
   </si>
   <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t>repair_quality</t>
-  </si>
-  <si>
-    <t>report_data2</t>
-  </si>
-  <si>
-    <t>report_data3</t>
-  </si>
-  <si>
-    <t>report_data4</t>
-  </si>
-  <si>
-    <t>report_data5</t>
-  </si>
-  <si>
-    <t>report_number</t>
-  </si>
-  <si>
-    <t>report_number2</t>
-  </si>
-  <si>
-    <t>report_number3</t>
-  </si>
-  <si>
-    <t>report_number4</t>
-  </si>
-  <si>
-    <t>report_number5</t>
-  </si>
-  <si>
-    <t>report_number6</t>
-  </si>
-  <si>
     <t>rest_list</t>
   </si>
   <si>
-    <t>rights2</t>
-  </si>
-  <si>
     <t>roof_cond</t>
   </si>
   <si>
     <t>room_door_type</t>
   </si>
   <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>sanuz_comb</t>
-  </si>
-  <si>
     <t>sanuzel</t>
   </si>
   <si>
     <t>school_list</t>
   </si>
   <si>
-    <t>separate</t>
-  </si>
-  <si>
     <t>service_list</t>
   </si>
   <si>
-    <t>slabotoch</t>
-  </si>
-  <si>
     <t>social_list</t>
   </si>
   <si>
-    <t>sqm_price</t>
-  </si>
-  <si>
-    <t>sqm_price2</t>
-  </si>
-  <si>
-    <t>sqm_price_dollar</t>
-  </si>
-  <si>
     <t>stop_distance</t>
   </si>
   <si>
@@ -929,33 +398,12 @@
     <t>technic_list</t>
   </si>
   <si>
-    <t>toilet_ceiling</t>
-  </si>
-  <si>
-    <t>toilet_floor</t>
-  </si>
-  <si>
-    <t>toilet_wall</t>
-  </si>
-  <si>
     <t>trade_list</t>
   </si>
   <si>
     <t>transport_type</t>
   </si>
   <si>
-    <t>vid</t>
-  </si>
-  <si>
-    <t>wall_corrd_type</t>
-  </si>
-  <si>
-    <t>wall_kitchen_type</t>
-  </si>
-  <si>
-    <t>wall_living_type</t>
-  </si>
-  <si>
     <t>wall_type</t>
   </si>
   <si>
@@ -989,9 +437,6 @@
     <t>window_type</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>year2</t>
   </si>
   <si>
@@ -1382,9 +827,6 @@
     <t>ИО клиента</t>
   </si>
   <si>
-    <t>price10</t>
-  </si>
-  <si>
     <t>doors_condition</t>
   </si>
   <si>
@@ -2216,16 +1658,829 @@
     <t>год создания отчета</t>
   </si>
   <si>
-    <t>data_spravka</t>
-  </si>
-  <si>
     <t>дата составления справки</t>
   </si>
   <si>
-    <t>home_age</t>
-  </si>
-  <si>
     <t>возраст дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_stag2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "extend_area";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "extended_factors";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "flat_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "flat_height";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "flats_in_floor";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor_corrd_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor_kitchen_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floor_living_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floors";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "floors2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "garbage";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "heating_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "heating_pipe";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "heating_radiator";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "heating_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "holders";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "holders2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "holders_documents";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "holders_documents2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "hospital_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "house_wear";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "house_wear2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "house_year";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "is_defect";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "is_defect2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "is_pereplan";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kanal_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kanal_devices";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kanal_pipe";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kapremont";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kapremont_year";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kapremont_year2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kinder_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "kitchen_area";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "lift";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "limits";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "limits2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "living_area";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "living_area2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "local1";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "local2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "main_door_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "object_type6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "parking";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "pharmacy_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "plan_now";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "posible_2_register";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "prestig";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price7";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price8";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price9";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price8_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount7";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount5_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount6_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_dollar4_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_discount_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_dollar_write2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_write";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_write2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price_write3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "prom_distance";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "purpose";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "repair";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "repair_quality";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_data2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_data3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_data4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_data5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "report_number6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rest_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rights";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rights2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "roof_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "room_door_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "room_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sanuz_comb";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sanuzel";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "school_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "separate";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "service_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "slabotoch";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "social_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sqm_price";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sqm_price2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sqm_price_dollar";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "stop_distance";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_spravka";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "technic_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "toilet_ceiling";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "toilet_floor";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "toilet_wall";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "trade_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "transport_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "vid";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_corrd_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_kitchen_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_living_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_type2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_type3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_type4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_wear";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "wall_wear2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "water_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "water_razv";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "water_stoyak";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "window_cond";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "window_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "year";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "year2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "home_age";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image1_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image2_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image3_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image4_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image5_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image6_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image7_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image8_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image9_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image10_comment";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image_map1";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image_map2";</t>
+  </si>
+  <si>
+    <t>"address_client";</t>
+  </si>
+  <si>
+    <t>"address_street";</t>
+  </si>
+  <si>
+    <t>"address_street10";</t>
+  </si>
+  <si>
+    <t>"address_street2";</t>
+  </si>
+  <si>
+    <t>"address_street3";</t>
+  </si>
+  <si>
+    <t>"address_street4";</t>
+  </si>
+  <si>
+    <t>"address_street5";</t>
+  </si>
+  <si>
+    <t>"address_street6";</t>
+  </si>
+  <si>
+    <t>"address_street7";</t>
+  </si>
+  <si>
+    <t>"address_street8";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "address_street9";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "adress_complex6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type7";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type8";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "apartment_type9";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "area";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "area2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "area3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "area_snip";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "area_snip2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "attic";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "balkon";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "bank_list";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "basement";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "basement_wear";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "bath_ceiling";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "bath_floor";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "bath_wall";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "bti_ok";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceiling_state";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceiling_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceiling_wear";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceilingl_kitchen_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceilingl_living_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ceilng_corrd_type";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "client_document";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "closest_stop";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "concerge";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_eval7";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_report";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_report2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_report3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "data_report4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "price10";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "dest";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "devices_4_system";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "discount";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "discount2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "district";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "document";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "dollar";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "dollar2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "dollar3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "dollar4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "domofon";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "doors_condition";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee5";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee6";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee7";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_document";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_edu";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_edu2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_insur";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_insur2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_insur3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_insur4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_pos";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_qnt";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_sro";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_sro2";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_sro3";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_sro4";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "employee_stag";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image1"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image2";    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image3";  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image4"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image5";  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image6";  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image7"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image8"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image9"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image10";  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image11";   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image12";    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "image13";    </t>
   </si>
 </sst>
 </file>
@@ -2655,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>709</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2706,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>710</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>458</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>711</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>459</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2734,13 +2989,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>712</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>460</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2748,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>713</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>461</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,13 +3017,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>714</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>462</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2776,13 +3031,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>715</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>463</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2790,13 +3045,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>716</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>464</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2804,13 +3059,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>717</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>465</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2818,13 +3073,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>718</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>466</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2832,13 +3087,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2846,13 +3101,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>720</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>468</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2860,13 +3115,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>721</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>469</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2874,13 +3129,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>722</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>470</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2888,13 +3143,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>723</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>471</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,13 +3157,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>724</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>472</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2916,13 +3171,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>725</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>473</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2930,13 +3185,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>726</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>474</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2944,13 +3199,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>727</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>475</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2958,13 +3213,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>728</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>476</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2972,13 +3227,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>729</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>477</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2986,13 +3241,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>730</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>478</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3000,13 +3255,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>731</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>479</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3014,13 +3269,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>732</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>480</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3028,13 +3283,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>733</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>481</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3042,13 +3297,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>734</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>482</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3056,13 +3311,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>735</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>483</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3070,13 +3325,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>736</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>484</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3084,13 +3339,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>737</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>485</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3098,13 +3353,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>738</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>486</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3112,13 +3367,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>739</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>487</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3126,13 +3381,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>740</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>488</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3140,13 +3395,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>741</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>489</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3154,13 +3409,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>742</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>490</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3168,13 +3423,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>743</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>491</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3182,13 +3437,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>744</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>492</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3196,13 +3451,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>745</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>493</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3210,13 +3465,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>746</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>494</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,13 +3479,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
+        <v>747</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>495</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3238,13 +3493,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>103</v>
+        <v>748</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>496</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3252,13 +3507,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>104</v>
+        <v>749</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>497</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3266,13 +3521,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>750</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3280,13 +3535,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>751</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>499</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3294,13 +3549,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>752</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>500</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3308,13 +3563,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>753</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>501</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3322,13 +3577,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>754</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>502</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3336,13 +3591,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>755</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>503</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3350,13 +3605,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>111</v>
+        <v>756</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>453</v>
+        <v>268</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>504</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3364,13 +3619,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>757</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>454</v>
+        <v>269</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>505</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3378,13 +3633,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>113</v>
+        <v>758</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>506</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3392,13 +3647,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>759</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>507</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3406,13 +3661,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>115</v>
+        <v>760</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>508</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3420,13 +3675,13 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>116</v>
+        <v>761</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3434,13 +3689,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>762</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>510</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3448,13 +3703,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>763</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>511</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3462,13 +3717,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>119</v>
+        <v>764</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>512</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3476,13 +3731,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>120</v>
+        <v>765</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>513</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3490,13 +3745,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>766</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3504,13 +3759,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>122</v>
+        <v>767</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>515</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3518,13 +3773,13 @@
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>768</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>516</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3532,13 +3787,13 @@
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>769</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>517</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3546,13 +3801,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>770</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,13 +3815,13 @@
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>519</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3574,13 +3829,13 @@
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>772</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>520</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3588,13 +3843,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>128</v>
+        <v>773</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>521</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,13 +3857,13 @@
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>774</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>522</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3616,13 +3871,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>455</v>
+        <v>775</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>523</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3630,13 +3885,13 @@
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>35</v>
+        <v>776</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>351</v>
+        <v>166</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>524</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3644,13 +3899,13 @@
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>777</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>525</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3658,13 +3913,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>778</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>526</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3672,13 +3927,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>779</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>527</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3686,13 +3941,13 @@
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>133</v>
+        <v>780</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>528</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3700,13 +3955,13 @@
         <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>781</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>529</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3714,13 +3969,13 @@
         <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>41</v>
+        <v>782</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>530</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3728,13 +3983,13 @@
         <v>74</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>135</v>
+        <v>783</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>531</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3742,13 +3997,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>784</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>532</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3756,13 +4011,13 @@
         <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>785</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>533</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3770,13 +4025,13 @@
         <v>77</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>786</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>534</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3784,13 +4039,13 @@
         <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>456</v>
+        <v>787</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>535</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3798,13 +4053,13 @@
         <v>79</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>788</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>536</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3812,13 +4067,13 @@
         <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>789</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>537</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3826,13 +4081,13 @@
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>790</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>538</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3840,13 +4095,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>791</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>539</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3854,13 +4109,13 @@
         <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>792</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>540</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3868,16 +4123,16 @@
         <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>793</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>730</v>
+        <v>544</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>541</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3885,16 +4140,16 @@
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>794</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>730</v>
+        <v>544</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3902,13 +4157,13 @@
         <v>86</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>795</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3916,13 +4171,13 @@
         <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>147</v>
+        <v>796</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,13 +4185,13 @@
         <v>88</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>148</v>
+        <v>797</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>545</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3944,13 +4199,13 @@
         <v>89</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>149</v>
+        <v>798</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>546</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,13 +4213,13 @@
         <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>547</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3972,13 +4227,13 @@
         <v>91</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>800</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>548</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3986,13 +4241,13 @@
         <v>92</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>152</v>
+        <v>801</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>549</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4000,13 +4255,13 @@
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>153</v>
+        <v>802</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4014,16 +4269,16 @@
         <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>154</v>
+        <v>803</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>730</v>
+        <v>544</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>551</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,13 +4286,13 @@
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>155</v>
+        <v>804</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>552</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4045,13 +4300,13 @@
         <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>156</v>
+        <v>805</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>553</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4059,13 +4314,13 @@
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>157</v>
+        <v>806</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>554</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4073,13 +4328,13 @@
         <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>158</v>
+        <v>807</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>555</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4087,13 +4342,13 @@
         <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>159</v>
+        <v>808</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>556</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4101,13 +4356,13 @@
         <v>100</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>160</v>
+        <v>549</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>557</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4115,13 +4370,13 @@
         <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>161</v>
+        <v>550</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>558</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4129,13 +4384,13 @@
         <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>162</v>
+        <v>551</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>559</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4143,13 +4398,13 @@
         <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>560</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4157,13 +4412,13 @@
         <v>104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>164</v>
+        <v>553</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>561</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4171,13 +4426,13 @@
         <v>105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>165</v>
+        <v>554</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>731</v>
+        <v>545</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>562</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,13 +4440,13 @@
         <v>106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>563</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4199,13 +4454,13 @@
         <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>166</v>
+        <v>556</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>564</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4213,13 +4468,13 @@
         <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>167</v>
+        <v>557</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>565</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4227,13 +4482,13 @@
         <v>109</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>168</v>
+        <v>558</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>566</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4241,13 +4496,13 @@
         <v>110</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>169</v>
+        <v>559</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>567</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4255,13 +4510,13 @@
         <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>568</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4269,13 +4524,13 @@
         <v>112</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>171</v>
+        <v>561</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>569</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4283,13 +4538,13 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>172</v>
+        <v>562</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>570</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4297,13 +4552,13 @@
         <v>114</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>173</v>
+        <v>563</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>571</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4311,13 +4566,13 @@
         <v>115</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>174</v>
+        <v>564</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>572</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4325,13 +4580,13 @@
         <v>116</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>175</v>
+        <v>565</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>573</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4339,13 +4594,13 @@
         <v>117</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>176</v>
+        <v>566</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>574</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4353,13 +4608,13 @@
         <v>118</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>177</v>
+        <v>567</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>575</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4367,13 +4622,13 @@
         <v>119</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>178</v>
+        <v>568</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>576</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4381,16 +4636,16 @@
         <v>120</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>179</v>
+        <v>569</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>577</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4398,16 +4653,16 @@
         <v>121</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>180</v>
+        <v>570</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>578</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4415,13 +4670,13 @@
         <v>122</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>181</v>
+        <v>571</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>579</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4429,13 +4684,13 @@
         <v>123</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>182</v>
+        <v>572</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>580</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4443,13 +4698,13 @@
         <v>124</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>183</v>
+        <v>573</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>581</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4457,13 +4712,13 @@
         <v>125</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>184</v>
+        <v>574</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>582</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4471,13 +4726,13 @@
         <v>126</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>185</v>
+        <v>575</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>583</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4485,13 +4740,13 @@
         <v>127</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>187</v>
+        <v>576</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>584</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4499,13 +4754,13 @@
         <v>128</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>188</v>
+        <v>577</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>585</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4513,13 +4768,13 @@
         <v>129</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>189</v>
+        <v>578</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>586</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4527,13 +4782,13 @@
         <v>130</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>190</v>
+        <v>579</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>383</v>
+        <v>205</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>587</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4541,13 +4796,13 @@
         <v>131</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>191</v>
+        <v>580</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>588</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4555,13 +4810,13 @@
         <v>132</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>192</v>
+        <v>581</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>589</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4569,13 +4824,13 @@
         <v>133</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>193</v>
+        <v>582</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>590</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4583,13 +4838,13 @@
         <v>134</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>194</v>
+        <v>583</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>591</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4597,13 +4852,13 @@
         <v>135</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>186</v>
+        <v>584</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>383</v>
+        <v>209</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>592</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4611,13 +4866,13 @@
         <v>136</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>195</v>
+        <v>585</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>593</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4625,13 +4880,13 @@
         <v>137</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>196</v>
+        <v>586</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>594</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4639,13 +4894,13 @@
         <v>138</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>197</v>
+        <v>587</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>595</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4653,13 +4908,13 @@
         <v>139</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>596</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4667,13 +4922,13 @@
         <v>140</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>200</v>
+        <v>589</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>384</v>
+        <v>213</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>597</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4681,13 +4936,13 @@
         <v>141</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>384</v>
+        <v>213</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>598</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4695,13 +4950,13 @@
         <v>142</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>202</v>
+        <v>591</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>384</v>
+        <v>214</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>599</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4709,13 +4964,13 @@
         <v>143</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>203</v>
+        <v>592</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>384</v>
+        <v>214</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>600</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4723,13 +4978,13 @@
         <v>144</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>204</v>
+        <v>593</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>384</v>
+        <v>215</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>601</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4737,13 +4992,13 @@
         <v>145</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>205</v>
+        <v>594</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>602</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4751,13 +5006,13 @@
         <v>146</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>206</v>
+        <v>595</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>603</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4765,13 +5020,13 @@
         <v>147</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>207</v>
+        <v>596</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>604</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4779,13 +5034,13 @@
         <v>148</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>198</v>
+        <v>597</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>384</v>
+        <v>216</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>605</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4793,13 +5048,13 @@
         <v>149</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>208</v>
+        <v>598</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>606</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4807,13 +5062,13 @@
         <v>150</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>209</v>
+        <v>599</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>386</v>
+        <v>216</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>607</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4821,13 +5076,13 @@
         <v>151</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>608</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4835,13 +5090,13 @@
         <v>152</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>211</v>
+        <v>601</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>609</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4849,13 +5104,13 @@
         <v>153</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>212</v>
+        <v>602</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>610</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4863,13 +5118,13 @@
         <v>154</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>213</v>
+        <v>603</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>611</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4877,13 +5132,13 @@
         <v>155</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>214</v>
+        <v>604</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>612</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4891,13 +5146,13 @@
         <v>156</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>215</v>
+        <v>605</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>391</v>
+        <v>59</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>613</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4905,13 +5160,13 @@
         <v>157</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>216</v>
+        <v>606</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>614</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4919,13 +5174,13 @@
         <v>158</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>217</v>
+        <v>607</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>615</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4933,13 +5188,13 @@
         <v>159</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>218</v>
+        <v>608</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>616</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4947,13 +5202,13 @@
         <v>160</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>219</v>
+        <v>609</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>617</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4961,13 +5216,13 @@
         <v>161</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>220</v>
+        <v>610</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>395</v>
+        <v>59</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>618</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4975,13 +5230,13 @@
         <v>162</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>221</v>
+        <v>611</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>396</v>
+        <v>59</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>619</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4989,13 +5244,13 @@
         <v>163</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>397</v>
+        <v>59</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>620</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5003,13 +5258,13 @@
         <v>164</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>222</v>
+        <v>613</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>397</v>
+        <v>59</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>621</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5017,13 +5272,13 @@
         <v>165</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>223</v>
+        <v>614</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>398</v>
+        <v>60</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>622</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5031,13 +5286,13 @@
         <v>166</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>224</v>
+        <v>615</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>398</v>
+        <v>222</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>623</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5045,13 +5300,13 @@
         <v>167</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>225</v>
+        <v>616</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>624</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5059,13 +5314,13 @@
         <v>168</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>226</v>
+        <v>617</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>625</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5073,13 +5328,13 @@
         <v>169</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>227</v>
+        <v>618</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>626</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5087,13 +5342,13 @@
         <v>170</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>228</v>
+        <v>619</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>627</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5101,13 +5356,13 @@
         <v>171</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>229</v>
+        <v>620</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>628</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5115,13 +5370,13 @@
         <v>172</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>230</v>
+        <v>621</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>629</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5129,13 +5384,13 @@
         <v>173</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>231</v>
+        <v>622</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>401</v>
+        <v>223</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>630</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5143,13 +5398,13 @@
         <v>174</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>232</v>
+        <v>623</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>401</v>
+        <v>223</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>631</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5157,13 +5412,13 @@
         <v>175</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>233</v>
+        <v>624</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>401</v>
+        <v>225</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>632</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5171,13 +5426,13 @@
         <v>176</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>234</v>
+        <v>625</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>633</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5185,13 +5440,13 @@
         <v>177</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>235</v>
+        <v>626</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>634</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5199,13 +5454,13 @@
         <v>178</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>236</v>
+        <v>627</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>635</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5213,13 +5468,13 @@
         <v>179</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>237</v>
+        <v>628</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>636</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5227,13 +5482,13 @@
         <v>180</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>238</v>
+        <v>629</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>637</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5241,13 +5496,13 @@
         <v>181</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>46</v>
+        <v>630</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>638</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5255,13 +5510,13 @@
         <v>182</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>239</v>
+        <v>631</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>639</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5269,13 +5524,13 @@
         <v>183</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>240</v>
+        <v>632</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>640</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5283,13 +5538,13 @@
         <v>184</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>241</v>
+        <v>633</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>641</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5297,13 +5552,13 @@
         <v>185</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>242</v>
+        <v>634</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>642</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5311,13 +5566,13 @@
         <v>186</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>243</v>
+        <v>635</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>643</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5325,13 +5580,13 @@
         <v>187</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>244</v>
+        <v>636</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>644</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5339,13 +5594,13 @@
         <v>188</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>245</v>
+        <v>637</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>645</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5353,13 +5608,13 @@
         <v>189</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>246</v>
+        <v>638</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>646</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5367,13 +5622,13 @@
         <v>190</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>247</v>
+        <v>639</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>647</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5381,13 +5636,13 @@
         <v>191</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>248</v>
+        <v>640</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>407</v>
+        <v>229</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>648</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5395,13 +5650,13 @@
         <v>192</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>249</v>
+        <v>641</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>407</v>
+        <v>230</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>649</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5409,13 +5664,13 @@
         <v>193</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>250</v>
+        <v>642</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>407</v>
+        <v>61</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>650</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5423,13 +5678,13 @@
         <v>194</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>251</v>
+        <v>643</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>651</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5437,13 +5692,13 @@
         <v>195</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>407</v>
+        <v>644</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>652</v>
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5451,13 +5706,13 @@
         <v>196</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>407</v>
+        <v>645</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>653</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5465,13 +5720,13 @@
         <v>197</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>407</v>
+        <v>646</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>654</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5479,13 +5734,13 @@
         <v>198</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>408</v>
+        <v>647</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>655</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5493,13 +5748,13 @@
         <v>199</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>408</v>
+        <v>648</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>656</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5507,13 +5762,13 @@
         <v>200</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>410</v>
+        <v>649</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>657</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5521,13 +5776,13 @@
         <v>201</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>410</v>
+        <v>650</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>658</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5535,13 +5790,13 @@
         <v>202</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>410</v>
+        <v>651</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>659</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5549,13 +5804,13 @@
         <v>203</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>410</v>
+        <v>652</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>660</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5563,13 +5818,13 @@
         <v>204</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>410</v>
+        <v>653</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>661</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5577,13 +5832,13 @@
         <v>205</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>411</v>
+        <v>654</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>662</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5591,13 +5846,13 @@
         <v>206</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>412</v>
+        <v>655</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>663</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5605,13 +5860,13 @@
         <v>207</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>409</v>
+        <v>656</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>664</v>
+        <v>478</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5619,13 +5874,13 @@
         <v>208</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>409</v>
+        <v>657</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>665</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5633,13 +5888,13 @@
         <v>209</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>409</v>
+        <v>658</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>666</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5647,13 +5902,13 @@
         <v>210</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>409</v>
+        <v>659</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>667</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5661,13 +5916,13 @@
         <v>211</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>409</v>
+        <v>660</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>668</v>
+        <v>482</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5675,13 +5930,13 @@
         <v>212</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>413</v>
+        <v>661</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>669</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5689,13 +5944,13 @@
         <v>213</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>413</v>
+        <v>662</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>670</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5703,13 +5958,13 @@
         <v>214</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>414</v>
+        <v>663</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>671</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5717,13 +5972,13 @@
         <v>215</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>414</v>
+        <v>664</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>672</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5731,13 +5986,13 @@
         <v>216</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>414</v>
+        <v>665</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>673</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5745,13 +6000,13 @@
         <v>217</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>415</v>
+        <v>666</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>674</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5759,13 +6014,13 @@
         <v>218</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>61</v>
+        <v>667</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>675</v>
+        <v>489</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5773,13 +6028,13 @@
         <v>219</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>416</v>
+        <v>668</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>676</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -5787,14 +6042,13 @@
         <v>220</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>275</v>
+        <v>669</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D225" s="3"/>
+        <v>246</v>
+      </c>
       <c r="F225" s="3" t="s">
-        <v>677</v>
+        <v>491</v>
       </c>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
@@ -5805,14 +6059,13 @@
         <v>221</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>276</v>
+        <v>670</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D226" s="3"/>
+        <v>247</v>
+      </c>
       <c r="F226" s="3" t="s">
-        <v>678</v>
+        <v>492</v>
       </c>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -5823,14 +6076,13 @@
         <v>222</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>277</v>
+        <v>671</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D227" s="3"/>
+        <v>248</v>
+      </c>
       <c r="F227" s="3" t="s">
-        <v>679</v>
+        <v>493</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -5841,14 +6093,13 @@
         <v>223</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>278</v>
+        <v>672</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D228" s="3"/>
+        <v>547</v>
+      </c>
       <c r="F228" s="3" t="s">
-        <v>680</v>
+        <v>494</v>
       </c>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -5859,14 +6110,13 @@
         <v>224</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D229" s="3"/>
+        <v>673</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="F229" s="3" t="s">
-        <v>681</v>
+        <v>495</v>
       </c>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
@@ -5877,14 +6127,13 @@
         <v>225</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>280</v>
+        <v>674</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D230" s="3"/>
+        <v>251</v>
+      </c>
       <c r="F230" s="3" t="s">
-        <v>682</v>
+        <v>496</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -5895,14 +6144,13 @@
         <v>226</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>281</v>
+        <v>675</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D231" s="3"/>
+        <v>252</v>
+      </c>
       <c r="F231" s="3" t="s">
-        <v>683</v>
+        <v>497</v>
       </c>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
@@ -5913,14 +6161,13 @@
         <v>227</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>282</v>
+        <v>676</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D232" s="3"/>
+        <v>253</v>
+      </c>
       <c r="F232" s="3" t="s">
-        <v>684</v>
+        <v>498</v>
       </c>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -5931,14 +6178,13 @@
         <v>228</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>283</v>
+        <v>677</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D233" s="3"/>
+        <v>254</v>
+      </c>
       <c r="F233" s="3" t="s">
-        <v>685</v>
+        <v>499</v>
       </c>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -5949,14 +6195,13 @@
         <v>229</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>284</v>
+        <v>678</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D234" s="3"/>
+        <v>255</v>
+      </c>
       <c r="F234" s="3" t="s">
-        <v>686</v>
+        <v>500</v>
       </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -5967,14 +6212,13 @@
         <v>230</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>285</v>
+        <v>679</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D235" s="3"/>
+        <v>256</v>
+      </c>
       <c r="F235" s="3" t="s">
-        <v>687</v>
+        <v>501</v>
       </c>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -5985,14 +6229,13 @@
         <v>231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>286</v>
+        <v>680</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D236" s="3"/>
+        <v>257</v>
+      </c>
       <c r="F236" s="3" t="s">
-        <v>688</v>
+        <v>502</v>
       </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -6003,14 +6246,13 @@
         <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>49</v>
+        <v>681</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D237" s="3"/>
+        <v>258</v>
+      </c>
       <c r="F237" s="3" t="s">
-        <v>689</v>
+        <v>503</v>
       </c>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -6021,14 +6263,13 @@
         <v>233</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>287</v>
+        <v>682</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D238" s="3"/>
+        <v>259</v>
+      </c>
       <c r="F238" s="3" t="s">
-        <v>690</v>
+        <v>504</v>
       </c>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
@@ -6039,14 +6280,13 @@
         <v>234</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>288</v>
+        <v>683</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D239" s="3"/>
+        <v>260</v>
+      </c>
       <c r="F239" s="3" t="s">
-        <v>691</v>
+        <v>505</v>
       </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
@@ -6057,14 +6297,13 @@
         <v>235</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>289</v>
+        <v>684</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D240" s="3"/>
+        <v>260</v>
+      </c>
       <c r="F240" s="3" t="s">
-        <v>692</v>
+        <v>506</v>
       </c>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
@@ -6075,14 +6314,13 @@
         <v>236</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>290</v>
+        <v>685</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D241" s="3"/>
+        <v>261</v>
+      </c>
       <c r="F241" s="3" t="s">
-        <v>693</v>
+        <v>507</v>
       </c>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -6093,14 +6331,13 @@
         <v>237</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>291</v>
+        <v>686</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D242" s="3"/>
+        <v>260</v>
+      </c>
       <c r="F242" s="3" t="s">
-        <v>694</v>
+        <v>508</v>
       </c>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
@@ -6111,14 +6348,13 @@
         <v>238</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>292</v>
+        <v>687</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D243" s="3"/>
+        <v>262</v>
+      </c>
       <c r="F243" s="3" t="s">
-        <v>695</v>
+        <v>509</v>
       </c>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
@@ -6129,14 +6365,13 @@
         <v>239</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>293</v>
+        <v>688</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D244" s="3"/>
+        <v>262</v>
+      </c>
       <c r="F244" s="3" t="s">
-        <v>696</v>
+        <v>510</v>
       </c>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
@@ -6147,14 +6382,13 @@
         <v>240</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>294</v>
+        <v>689</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D245" s="3"/>
+        <v>263</v>
+      </c>
       <c r="F245" s="3" t="s">
-        <v>697</v>
+        <v>511</v>
       </c>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
@@ -6165,14 +6399,13 @@
         <v>241</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>295</v>
+        <v>690</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="D246" s="3"/>
+        <v>264</v>
+      </c>
       <c r="F246" s="3" t="s">
-        <v>698</v>
+        <v>512</v>
       </c>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
@@ -6183,14 +6416,13 @@
         <v>242</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>296</v>
+        <v>691</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D247" s="3"/>
+        <v>265</v>
+      </c>
       <c r="F247" s="3" t="s">
-        <v>699</v>
+        <v>513</v>
       </c>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -6201,14 +6433,13 @@
         <v>243</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>297</v>
+        <v>692</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D248" s="3"/>
+        <v>266</v>
+      </c>
       <c r="F248" s="3" t="s">
-        <v>700</v>
+        <v>514</v>
       </c>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
@@ -6219,14 +6450,13 @@
         <v>244</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>298</v>
+        <v>693</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D249" s="3"/>
+        <v>267</v>
+      </c>
       <c r="F249" s="3" t="s">
-        <v>701</v>
+        <v>515</v>
       </c>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
@@ -6237,14 +6467,13 @@
         <v>245</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>299</v>
+        <v>694</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D250" s="3"/>
+        <v>546</v>
+      </c>
       <c r="F250" s="3" t="s">
-        <v>702</v>
+        <v>516</v>
       </c>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
@@ -6255,14 +6484,13 @@
         <v>246</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>300</v>
+        <v>695</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D251" s="3"/>
+        <v>197</v>
+      </c>
       <c r="F251" s="3" t="s">
-        <v>703</v>
+        <v>517</v>
       </c>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
@@ -6273,14 +6501,13 @@
         <v>247</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>301</v>
+        <v>696</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D252" s="3"/>
+        <v>548</v>
+      </c>
       <c r="F252" s="3" t="s">
-        <v>704</v>
+        <v>518</v>
       </c>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
@@ -6291,14 +6518,13 @@
         <v>248</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D253" s="3"/>
+        <v>697</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F253" s="3" t="s">
-        <v>705</v>
+        <v>519</v>
       </c>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
@@ -6309,14 +6535,13 @@
         <v>249</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D254" s="3"/>
+        <v>698</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F254" s="3" t="s">
-        <v>706</v>
+        <v>520</v>
       </c>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
@@ -6327,14 +6552,13 @@
         <v>250</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D255" s="3"/>
+        <v>699</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F255" s="3" t="s">
-        <v>707</v>
+        <v>521</v>
       </c>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
@@ -6345,14 +6569,13 @@
         <v>251</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D256" s="3"/>
+        <v>700</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F256" s="3" t="s">
-        <v>708</v>
+        <v>522</v>
       </c>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
@@ -6363,14 +6586,13 @@
         <v>252</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D257" s="3"/>
+        <v>701</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F257" s="3" t="s">
-        <v>709</v>
+        <v>523</v>
       </c>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
@@ -6381,14 +6603,13 @@
         <v>253</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D258" s="3"/>
+        <v>702</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F258" s="3" t="s">
-        <v>710</v>
+        <v>524</v>
       </c>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
@@ -6399,14 +6620,13 @@
         <v>254</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D259" s="3"/>
+        <v>703</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F259" s="3" t="s">
-        <v>711</v>
+        <v>525</v>
       </c>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
@@ -6417,14 +6637,13 @@
         <v>255</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D260" s="3"/>
+        <v>704</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F260" s="3" t="s">
-        <v>712</v>
+        <v>526</v>
       </c>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
@@ -6435,14 +6654,13 @@
         <v>256</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D261" s="3"/>
+        <v>705</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F261" s="3" t="s">
-        <v>713</v>
+        <v>527</v>
       </c>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
@@ -6453,14 +6671,13 @@
         <v>257</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D262" s="3"/>
+        <v>706</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="F262" s="3" t="s">
-        <v>714</v>
+        <v>528</v>
       </c>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
@@ -6471,14 +6688,13 @@
         <v>258</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D263" s="3"/>
+        <v>809</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F263" s="3" t="s">
-        <v>715</v>
+        <v>529</v>
       </c>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
@@ -6489,14 +6705,13 @@
         <v>259</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D264" s="3"/>
+        <v>810</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F264" s="3" t="s">
-        <v>716</v>
+        <v>530</v>
       </c>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
@@ -6507,14 +6722,13 @@
         <v>260</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D265" s="3"/>
+        <v>811</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F265" s="3" t="s">
-        <v>717</v>
+        <v>531</v>
       </c>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
@@ -6525,14 +6739,13 @@
         <v>261</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D266" s="3"/>
+        <v>812</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F266" s="3" t="s">
-        <v>718</v>
+        <v>532</v>
       </c>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
@@ -6543,14 +6756,13 @@
         <v>262</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D267" s="3"/>
+        <v>813</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F267" s="3" t="s">
-        <v>719</v>
+        <v>533</v>
       </c>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
@@ -6561,14 +6773,13 @@
         <v>263</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D268" s="3"/>
+        <v>814</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F268" t="s">
-        <v>720</v>
+        <v>534</v>
       </c>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
@@ -6579,14 +6790,13 @@
         <v>264</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D269" s="3"/>
+        <v>815</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F269" t="s">
-        <v>721</v>
+        <v>535</v>
       </c>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
@@ -6597,14 +6807,13 @@
         <v>265</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D270" s="3"/>
+        <v>816</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F270" t="s">
-        <v>722</v>
+        <v>536</v>
       </c>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
@@ -6615,14 +6824,13 @@
         <v>266</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D271" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F271" t="s">
-        <v>723</v>
+        <v>537</v>
       </c>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
@@ -6633,14 +6841,13 @@
         <v>267</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D272" s="3"/>
+        <v>818</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F272" t="s">
-        <v>724</v>
+        <v>538</v>
       </c>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
@@ -6651,14 +6858,13 @@
         <v>268</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D273" s="3"/>
+        <v>819</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F273" t="s">
-        <v>725</v>
+        <v>539</v>
       </c>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
@@ -6669,14 +6875,13 @@
         <v>269</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D274" s="3"/>
+        <v>820</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F274" t="s">
-        <v>726</v>
+        <v>540</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -6687,14 +6892,13 @@
         <v>270</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D275" s="3"/>
+        <v>821</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F275" t="s">
-        <v>727</v>
+        <v>541</v>
       </c>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
@@ -6705,14 +6909,13 @@
         <v>271</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D276" s="3"/>
+        <v>707</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="F276" t="s">
-        <v>728</v>
+        <v>542</v>
       </c>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
@@ -6723,10 +6926,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>736</v>
+        <v>708</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7146,13 +7349,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7160,13 +7363,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>488</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7174,13 +7377,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>490</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7188,13 +7391,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>491</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7202,13 +7405,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>492</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7216,13 +7419,13 @@
         <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>497</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7230,13 +7433,13 @@
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7244,13 +7447,13 @@
         <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>499</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7258,13 +7461,13 @@
         <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>510</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7272,13 +7475,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>511</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7286,13 +7489,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>525</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7300,13 +7503,13 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>528</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7314,13 +7517,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>534</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7328,13 +7531,13 @@
         <v>78</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>456</v>
+        <v>270</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>535</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7342,13 +7545,13 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>559</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7356,13 +7559,13 @@
         <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>562</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7370,13 +7573,13 @@
         <v>113</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>570</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7384,13 +7587,13 @@
         <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>571</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7398,13 +7601,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>572</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7412,13 +7615,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>573</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7426,13 +7629,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>574</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7440,16 +7643,16 @@
         <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>577</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7457,16 +7660,16 @@
         <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>578</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7474,13 +7677,13 @@
         <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>579</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7488,13 +7691,13 @@
         <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>580</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7502,13 +7705,13 @@
         <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>581</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7516,13 +7719,13 @@
         <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>582</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7530,13 +7733,13 @@
         <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>608</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7544,13 +7747,13 @@
         <v>152</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>609</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7558,13 +7761,13 @@
         <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>389</v>
+        <v>204</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>611</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7572,13 +7775,13 @@
         <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>612</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7586,13 +7789,13 @@
         <v>156</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>391</v>
+        <v>206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>613</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7600,13 +7803,13 @@
         <v>157</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>392</v>
+        <v>207</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>614</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7614,13 +7817,13 @@
         <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>393</v>
+        <v>208</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>615</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7628,13 +7831,13 @@
         <v>159</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>393</v>
+        <v>208</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>616</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7642,13 +7845,13 @@
         <v>160</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>394</v>
+        <v>209</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>617</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7656,13 +7859,13 @@
         <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>619</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7670,13 +7873,13 @@
         <v>167</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>399</v>
+        <v>214</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>624</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7684,13 +7887,13 @@
         <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>399</v>
+        <v>214</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>625</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7698,13 +7901,13 @@
         <v>169</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>626</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7712,13 +7915,13 @@
         <v>176</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>633</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7726,13 +7929,13 @@
         <v>177</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>403</v>
+        <v>218</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>634</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7740,13 +7943,13 @@
         <v>180</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>406</v>
+        <v>221</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>637</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7754,13 +7957,13 @@
         <v>190</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>647</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7768,13 +7971,13 @@
         <v>198</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>655</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7782,13 +7985,13 @@
         <v>199</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>656</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7796,13 +7999,13 @@
         <v>205</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>411</v>
+        <v>226</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>662</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7810,13 +8013,13 @@
         <v>206</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>412</v>
+        <v>227</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>663</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7824,13 +8027,13 @@
         <v>212</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>669</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7838,13 +8041,13 @@
         <v>213</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>670</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7855,10 +8058,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>671</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7866,13 +8069,13 @@
         <v>215</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>672</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7880,13 +8083,13 @@
         <v>216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>673</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7894,13 +8097,13 @@
         <v>217</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>674</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -7908,14 +8111,14 @@
         <v>231</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>688</v>
+        <v>502</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -7926,14 +8129,14 @@
         <v>234</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>288</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>421</v>
+        <v>236</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>691</v>
+        <v>505</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -7944,14 +8147,14 @@
         <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>422</v>
+        <v>237</v>
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>692</v>
+        <v>506</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -7962,14 +8165,14 @@
         <v>238</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="D62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>695</v>
+        <v>509</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -7980,14 +8183,14 @@
         <v>239</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>426</v>
+        <v>241</v>
       </c>
       <c r="D63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>696</v>
+        <v>510</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7998,14 +8201,14 @@
         <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>428</v>
+        <v>243</v>
       </c>
       <c r="D64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>698</v>
+        <v>512</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -8016,14 +8219,14 @@
         <v>243</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>430</v>
+        <v>245</v>
       </c>
       <c r="D65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>700</v>
+        <v>514</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -8034,14 +8237,14 @@
         <v>247</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>433</v>
+        <v>248</v>
       </c>
       <c r="D66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>704</v>
+        <v>518</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -8052,14 +8255,14 @@
         <v>248</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>434</v>
+        <v>249</v>
       </c>
       <c r="D67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>705</v>
+        <v>519</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -8070,14 +8273,14 @@
         <v>249</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="D68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>706</v>
+        <v>520</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -8088,14 +8291,14 @@
         <v>253</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="D69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>710</v>
+        <v>524</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -8106,14 +8309,14 @@
         <v>254</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>440</v>
+        <v>255</v>
       </c>
       <c r="D70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>711</v>
+        <v>525</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -8124,14 +8327,14 @@
         <v>259</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="D71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>716</v>
+        <v>530</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -8142,14 +8345,14 @@
         <v>260</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="D72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>717</v>
+        <v>531</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -8160,14 +8363,14 @@
         <v>261</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>446</v>
+        <v>261</v>
       </c>
       <c r="D73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>718</v>
+        <v>532</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -8178,14 +8381,14 @@
         <v>262</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="D74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>719</v>
+        <v>533</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -8196,14 +8399,14 @@
         <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>447</v>
+        <v>262</v>
       </c>
       <c r="D75" s="3"/>
       <c r="F75" t="s">
-        <v>720</v>
+        <v>534</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -8214,14 +8417,14 @@
         <v>264</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>447</v>
+        <v>262</v>
       </c>
       <c r="D76" s="3"/>
       <c r="F76" t="s">
-        <v>721</v>
+        <v>535</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -8232,14 +8435,14 @@
         <v>265</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>448</v>
+        <v>263</v>
       </c>
       <c r="D77" s="3"/>
       <c r="F77" t="s">
-        <v>722</v>
+        <v>536</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -8250,14 +8453,14 @@
         <v>266</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="D78" s="3"/>
       <c r="F78" t="s">
-        <v>723</v>
+        <v>537</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -8268,14 +8471,14 @@
         <v>267</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>450</v>
+        <v>265</v>
       </c>
       <c r="D79" s="3"/>
       <c r="F79" t="s">
-        <v>724</v>
+        <v>538</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -8286,14 +8489,14 @@
         <v>268</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="D80" s="3"/>
       <c r="F80" t="s">
-        <v>725</v>
+        <v>539</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -8304,14 +8507,14 @@
         <v>269</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>452</v>
+        <v>267</v>
       </c>
       <c r="D81" s="3"/>
       <c r="F81" t="s">
-        <v>726</v>
+        <v>540</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -8322,14 +8525,14 @@
         <v>271</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="D82" s="3"/>
       <c r="F82" t="s">
-        <v>728</v>
+        <v>542</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="776">
   <si>
     <t>Закладка</t>
   </si>
@@ -833,102 +833,9 @@
     <t xml:space="preserve">           texts_report[0] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[1] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[2] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[3] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[4] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[5] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[6] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[7] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[8] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[9] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[10] = report.Apartment.Home.Street.City.Name + ", " + report.Apartment.Home.Street.Name + ", кв." + report.Apartment.Number;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[11] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[12] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[13] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[14] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[15] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[16] = report.Apartment.Home.ComplexNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[17] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[18] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[19] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[20] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[21] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[22] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[23] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[24] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[25] = Convert.ToString(report.Apartment.RoomNumber);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[26] = Convert.ToString(report.Apartment.GrossArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[27] = Convert.ToString(report.Apartment.GrossArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[28] = Convert.ToString(report.Apartment.GrossArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[29] = Convert.ToString(report.Apartment.GrossAreaSNIP);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[30] = Convert.ToString(report.Apartment.GrossAreaSNIP);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[31] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[32] = report.Apartment.HasBalconyOrLoggia == true ? "есть" : "нет";//нужно дополнить размеры балкона и застекленность</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[33] = "";</t>
   </si>
   <si>
@@ -938,18 +845,6 @@
     <t xml:space="preserve">            texts_report[35] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[36] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForWashroomCeiling);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[37] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForWashroomFloor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[38] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForWashroomWall);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[39] = report.Apartment.PlanMeets;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[40] = "";</t>
   </si>
   <si>
@@ -959,216 +854,30 @@
     <t xml:space="preserve">            texts_report[42] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[43] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForKitchenCeiling);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[44] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomCeiling);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[45] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForHallCeiling);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[46] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[47] = client_in_padeg;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[48] = report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[49] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[50] = report.Client.Man.Surname+" "+report.Client.Man.Name+" "+report.Client.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[51] = report.Client.Man.Surname + " " + report.Client.Man.Name + " " + report.Client.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[52] = " серия " +</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[53] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[54] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[55] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[56] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[57] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[58] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[59] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[60] = report.ReportDate.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[61] = report.ReportDate.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[62] = report.DateOfContract.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[63] = report.DateOfContract.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[64] = report.DateOfContract.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[65] = report.DateOfContract.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[66] = Convert.ToString(report.Apartment.Object.Price); </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[67] = report.Apartment.Object.DestOfTheEvaluation;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[68] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[69] = Convert.ToString(report.Apartment.Object.Discount * 100) + "%";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[70] = Convert.ToString(report.Apartment.Object.Discount * 100) + "%";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[71] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[72] = " серия " +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[73] = Convert.ToString(report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[74] = Convert.ToString(report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[75] = Convert.ToString(report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[76] = Convert.ToString(report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[77] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[78] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[79] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[80] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[81] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[82] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[83] = report.Employee.Man.Surname + " " + report.Employee.Man.Name + " " + report.Employee.Man.Patronymic;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[84] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[85] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[86] = " серия " +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[87] = report.Employee.FurtherEducation;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[88] = report.Employee.FurtherEducation;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[89] = report.Employee.Insurance;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[90] = report.Employee.Insurance;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[91] = report.Employee.Insurance;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[92] = report.Employee.Insurance;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[93] = report.Employee.Position;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[94] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[95] = report.Employee.Membership;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[96] = report.Employee.Membership;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[97] = report.Employee.Membership;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[98] = report.Employee.Membership;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[99] = Convert.ToString(report.Employee.WorkTime);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[100] = Convert.ToString(report.Employee.WorkTime);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[101] = report.Apartment.AuxiliaryRooms;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[102] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[103] = report.Apartment.GetApartmentStateAsString(report.Apartment.ApartmentState);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[104] = Convert.ToString(report.Apartment.CeilingHeight);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[105] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[106] = Convert.ToString(report.Apartment.Floor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[107] = Convert.ToString(report.Apartment.Floor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[108] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForHallFloor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[109] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForKitchenFloor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[110] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomFloor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[111] = Convert.ToString(report.Apartment.Floors);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[112] = Convert.ToString(report.Apartment.Floors);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[113] = "";</t>
   </si>
   <si>
@@ -1184,12 +893,6 @@
     <t xml:space="preserve">            texts_report[117] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[118] = report.Apartment.Object.Holders;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[119] = report.Apartment.Object.Holders;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[120] = "";</t>
   </si>
   <si>
@@ -1208,90 +911,12 @@
     <t xml:space="preserve">            texts_report[125] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[126] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[127] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[128] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[129] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[130] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[131] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[132] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[133] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[134] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[135] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[136] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[137] = ""; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[138] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[139] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[140] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[141] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[142] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[143] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[144] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[145] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[146] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[147] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[148] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[149] = "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[150] = "";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[151] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[152] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[153] = report.Apartment.PlanMeets;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[154] = "";</t>
   </si>
   <si>
@@ -1313,24 +938,9 @@
     <t xml:space="preserve">            texts_report[160] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[161] = "";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[162] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[163] = report.Apartment.Object.Restriction;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[164] = report.Apartment.Object.Restriction;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[165] = Convert.ToString(report.Apartment.LivingArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[166] = Convert.ToString(report.Apartment.LivingArea);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[167] = "";</t>
   </si>
   <si>
@@ -1340,132 +950,30 @@
     <t xml:space="preserve">            texts_report[169] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[170] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[171] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[172] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[173] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[174] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[175] = report.Apartment.Object.ObjectType;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[176] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[177] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[178] = report.Apartment.PlanMeets;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[179] = report.Apartment.ViewOnApparment=="ok"?"регистрация возможна":"регистрация не возможна";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[180] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[181] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[182] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[183] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[184] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[185] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[186] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[187] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[188] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[189] = Convert.ToString(report.Apartment.Object.Price);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[190] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[191] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[192] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[193] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[194] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[195] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[196] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[197] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount));</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[198] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[199] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[200] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[201] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[202] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[203] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[204] = Convert.ToString(report.Apartment.Object.Price * (1 - report.Apartment.Object.Discount) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[205] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[206] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[207] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[208] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[209] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[210] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[211] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[212] = "";</t>
   </si>
   <si>
@@ -1484,93 +992,27 @@
     <t xml:space="preserve">            texts_report[217] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[218] = report.Apartment.Object.PurposeOfTheEvaluation;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[219] = report.Apartment.GetRepairWorkAsString(report.Apartment.RepairWork);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[220] = report.Apartment.GetRoomFinishingQualityAsString(report.Apartment.RoomFinishingQuality);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[221] = report.ReportDate.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[222] = report.ReportDate.ToShortDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[223] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[224] = report.ReportDate.ToLongDateString();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[225] = report.ReportNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[226] = report.ReportNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[227] = report.ReportNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[228] = report.ReportNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[229] = report.ReportNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[230] = report.ReportNumber;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[231] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[232] = report.Apartment.Object.Property;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[233] = report.Apartment.Object.Property;</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[234] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[235] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[236] = report.Apartment.GetRoomTypeAsString(report.Apartment.RoomType);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[237] = report.Apartment.GetWashroomTypeAsString(report.Apartment.WashroomType);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[238] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[239] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[240] = report.Apartment.HasSeparateKitchenOrWashroom == true ? "есть" : "нет";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[241] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[242] = report.Apartment.HasLowCurrent == true ? "есть" : "нет";</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[243] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[244] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.GrossArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[245] = Convert.ToString(report.Apartment.Object.Price / report.Apartment.GrossArea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[246] = Convert.ToString((report.Apartment.Object.Price / report.Apartment.GrossArea) / report.Apartment.Object.Dollar);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[247] = "";</t>
   </si>
   <si>
@@ -1580,33 +1022,12 @@
     <t xml:space="preserve">            texts_report[249] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[250] = report.Apartment.GetCeilingMaterialAsString(report.Apartment.FinishingMaterialForWashroomCeiling);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[251] = report.Apartment.GetFloorMaterialAsString(report.Apartment.FinishingMaterialForWashroomFloor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[252] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForWashroomWall);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[253] = "";</t>
   </si>
   <si>
     <t xml:space="preserve">            texts_report[254] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[255] = report.Apartment.Views;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[256] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForHallWall);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[257] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForKitchenWall);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            texts_report[258] = report.Apartment.GetWallMaterialAsString(report.Apartment.FinishingMaterialForLivingRoomWall);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[259] = "";</t>
   </si>
   <si>
@@ -1640,9 +1061,6 @@
     <t xml:space="preserve">            texts_report[269] = "";</t>
   </si>
   <si>
-    <t xml:space="preserve">            texts_report[270] = Convert.ToString(report.ReportDate.Year); </t>
-  </si>
-  <si>
     <t xml:space="preserve">            texts_report[271] = "";</t>
   </si>
   <si>
@@ -2481,6 +1899,450 @@
   </si>
   <si>
     <t xml:space="preserve"> "image13";    </t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. Для балкона</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. Для этажа</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. Для этажности дома</t>
+  </si>
+  <si>
+    <t>Аналог 1.Цена кв.м. после прим всех процентов</t>
+  </si>
+  <si>
+    <t>Аналог 1. Стоимость ремонта за кв.м</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. Типа санузла</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. Площади кухни</t>
+  </si>
+  <si>
+    <t>Аналог 1. Скорректиров стоимость</t>
+  </si>
+  <si>
+    <t>Аналог 1.Сумма всех процентов</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. На торг</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. На тип стен дома</t>
+  </si>
+  <si>
+    <t>Аналог 1. Коэф. На вид из окна</t>
+  </si>
+  <si>
+    <t>bookmarks_report</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>"k_Balkon1";</t>
+  </si>
+  <si>
+    <t>"k_Balkon2";</t>
+  </si>
+  <si>
+    <t>"k_Balkon3";</t>
+  </si>
+  <si>
+    <t>"k_Balkon4";</t>
+  </si>
+  <si>
+    <t>"k_Balkon5";</t>
+  </si>
+  <si>
+    <t>"k_Floor1";</t>
+  </si>
+  <si>
+    <t>"k_Floor2";</t>
+  </si>
+  <si>
+    <t>"k_Floor3";</t>
+  </si>
+  <si>
+    <t>"k_Floor4";</t>
+  </si>
+  <si>
+    <t>"k_Floor5";</t>
+  </si>
+  <si>
+    <t>"k_Floors1";</t>
+  </si>
+  <si>
+    <t>"k_Floors2";</t>
+  </si>
+  <si>
+    <t>"k_Floors3";</t>
+  </si>
+  <si>
+    <t>"k_Floors4";</t>
+  </si>
+  <si>
+    <t>"k_Floors5";</t>
+  </si>
+  <si>
+    <t>"k_FullPrc1";</t>
+  </si>
+  <si>
+    <t>"k_FullPrc2";</t>
+  </si>
+  <si>
+    <t>"k_FullPrc3";</t>
+  </si>
+  <si>
+    <t>"k_FullPrc4";</t>
+  </si>
+  <si>
+    <t>"k_FullPrc5";</t>
+  </si>
+  <si>
+    <t>"k_RemontPrice1";</t>
+  </si>
+  <si>
+    <t>"k_RemontPrice2";</t>
+  </si>
+  <si>
+    <t>"k_RemontPrice3";</t>
+  </si>
+  <si>
+    <t>"k_RemontPrice4";</t>
+  </si>
+  <si>
+    <t>"k_RemontPrice5";</t>
+  </si>
+  <si>
+    <t>"k_Sanuzel1";</t>
+  </si>
+  <si>
+    <t>"k_Sanuzel2";</t>
+  </si>
+  <si>
+    <t>"k_Sanuzel3";</t>
+  </si>
+  <si>
+    <t>"k_Sanuzel4";</t>
+  </si>
+  <si>
+    <t>"k_Sanuzel5";</t>
+  </si>
+  <si>
+    <t>"k_SKitchen1";</t>
+  </si>
+  <si>
+    <t>"k_SKitchen2";</t>
+  </si>
+  <si>
+    <t>"k_SKitchen3";</t>
+  </si>
+  <si>
+    <t>"k_SKitchen4";</t>
+  </si>
+  <si>
+    <t>"k_SKitchen5";</t>
+  </si>
+  <si>
+    <t>"k_sqmCorrPrice1";</t>
+  </si>
+  <si>
+    <t>"k_sqmCorrPrice2";</t>
+  </si>
+  <si>
+    <t>"k_sqmCorrPrice3";</t>
+  </si>
+  <si>
+    <t>"k_sqmCorrPrice4";</t>
+  </si>
+  <si>
+    <t>"k_sqmCorrPrice5";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrcPrice1";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrcPrice2";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrcPrice3";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrcPrice4";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrcPrice5";</t>
+  </si>
+  <si>
+    <t>"k_Torg1";</t>
+  </si>
+  <si>
+    <t>"k_Torg2";</t>
+  </si>
+  <si>
+    <t>"k_Torg3";</t>
+  </si>
+  <si>
+    <t>"k_Torg4";</t>
+  </si>
+  <si>
+    <t>"k_Torg5";</t>
+  </si>
+  <si>
+    <t>"k_Type1";</t>
+  </si>
+  <si>
+    <t>"k_Type2";</t>
+  </si>
+  <si>
+    <t>"k_Type3";</t>
+  </si>
+  <si>
+    <t>"k_Type4";</t>
+  </si>
+  <si>
+    <t>"k_Type5";</t>
+  </si>
+  <si>
+    <t>"k_Vid1";</t>
+  </si>
+  <si>
+    <t>"k_Vid2";</t>
+  </si>
+  <si>
+    <t>"k_Vid3";</t>
+  </si>
+  <si>
+    <t>"k_Vid4";</t>
+  </si>
+  <si>
+    <t>"k_Vid5";</t>
+  </si>
+  <si>
+    <t>наличие балкона у кв</t>
+  </si>
+  <si>
+    <t>наличие балкона у аналога 1</t>
+  </si>
+  <si>
+    <t>адрес</t>
+  </si>
+  <si>
+    <t>Курс доллара</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Количестов комнат</t>
+  </si>
+  <si>
+    <t>Тип санузла</t>
+  </si>
+  <si>
+    <t>Тип стен дома</t>
+  </si>
+  <si>
+    <t>"k_aBalcon0";</t>
+  </si>
+  <si>
+    <t>"k_aBalcon1";</t>
+  </si>
+  <si>
+    <t>"k_aBalcon2";</t>
+  </si>
+  <si>
+    <t>"k_aBalcon3";</t>
+  </si>
+  <si>
+    <t>"k_aBalcon4";</t>
+  </si>
+  <si>
+    <t>"k_aBalcon5";</t>
+  </si>
+  <si>
+    <t>"k_addr0";</t>
+  </si>
+  <si>
+    <t>"k_addr1";</t>
+  </si>
+  <si>
+    <t>"k_addr2";</t>
+  </si>
+  <si>
+    <t>"k_addr3";</t>
+  </si>
+  <si>
+    <t>"k_addr4";</t>
+  </si>
+  <si>
+    <t>"k_addr5";</t>
+  </si>
+  <si>
+    <t>"k_addr00";</t>
+  </si>
+  <si>
+    <t>"k_addr01";</t>
+  </si>
+  <si>
+    <t>"k_addr02";</t>
+  </si>
+  <si>
+    <t>"k_addr03";</t>
+  </si>
+  <si>
+    <t>"k_addr04";</t>
+  </si>
+  <si>
+    <t>"k_addr05";</t>
+  </si>
+  <si>
+    <t>"k_aFloor0";</t>
+  </si>
+  <si>
+    <t>"k_aFloor1";</t>
+  </si>
+  <si>
+    <t>"k_aFloor2";</t>
+  </si>
+  <si>
+    <t>"k_aFloor3";</t>
+  </si>
+  <si>
+    <t>"k_aFloor4";</t>
+  </si>
+  <si>
+    <t>"k_aFloor5";</t>
+  </si>
+  <si>
+    <t>"k_aFloors0";</t>
+  </si>
+  <si>
+    <t>"k_aFloors1";</t>
+  </si>
+  <si>
+    <t>"k_aFloors2";</t>
+  </si>
+  <si>
+    <t>"k_aFloors3";</t>
+  </si>
+  <si>
+    <t>"k_aFloors4";</t>
+  </si>
+  <si>
+    <t>"k_aFloors5";</t>
+  </si>
+  <si>
+    <t>"k_area0";</t>
+  </si>
+  <si>
+    <t>"k_area1";</t>
+  </si>
+  <si>
+    <t>"k_area2";</t>
+  </si>
+  <si>
+    <t>"k_area3";</t>
+  </si>
+  <si>
+    <t>"k_area4";</t>
+  </si>
+  <si>
+    <t>"k_area5";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen0";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen1";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen2";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen3";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen4";</t>
+  </si>
+  <si>
+    <t>"k_aSKitchen5";</t>
+  </si>
+  <si>
+    <t>"k_Dollar";</t>
+  </si>
+  <si>
+    <t>"k_DollarPrice0";</t>
+  </si>
+  <si>
+    <t>"k_Price0";</t>
+  </si>
+  <si>
+    <t>"k_Rooms0";</t>
+  </si>
+  <si>
+    <t>"k_Rooms1";</t>
+  </si>
+  <si>
+    <t>"k_Rooms2";</t>
+  </si>
+  <si>
+    <t>"k_Rooms3";</t>
+  </si>
+  <si>
+    <t>"k_Rooms4";</t>
+  </si>
+  <si>
+    <t>"k_Rooms5";</t>
+  </si>
+  <si>
+    <t>"k_SanType0";</t>
+  </si>
+  <si>
+    <t>"k_SanType1";</t>
+  </si>
+  <si>
+    <t>"k_SanType2";</t>
+  </si>
+  <si>
+    <t>"k_SanType3";</t>
+  </si>
+  <si>
+    <t>"k_SanType4";</t>
+  </si>
+  <si>
+    <t>"k_SanType5";</t>
+  </si>
+  <si>
+    <t>"k_wall0";</t>
+  </si>
+  <si>
+    <t>"k_wall1";</t>
+  </si>
+  <si>
+    <t>"k_wall2";</t>
+  </si>
+  <si>
+    <t>"k_wall3";</t>
+  </si>
+  <si>
+    <t>"k_wall4";</t>
+  </si>
+  <si>
+    <t>"k_wall5";</t>
+  </si>
+  <si>
+    <t>texts_report[</t>
+  </si>
+  <si>
+    <t>]=</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,8 +2783,8 @@
     <col min="3" max="3" width="28" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2930,3111 +2792,2451 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>709</v>
+        <v>515</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>710</v>
+        <v>516</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>711</v>
+        <v>517</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>712</v>
+        <v>518</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>713</v>
+        <v>519</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>714</v>
+        <v>520</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>715</v>
+        <v>521</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>716</v>
+        <v>522</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>717</v>
+        <v>523</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>719</v>
+        <v>525</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>720</v>
+        <v>526</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>721</v>
+        <v>527</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>722</v>
+        <v>528</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>723</v>
+        <v>529</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>724</v>
+        <v>530</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>725</v>
+        <v>531</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>726</v>
+        <v>532</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>727</v>
+        <v>533</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>728</v>
+        <v>534</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>729</v>
+        <v>535</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>730</v>
+        <v>536</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>731</v>
+        <v>537</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>732</v>
+        <v>538</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>733</v>
+        <v>539</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>734</v>
+        <v>540</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>735</v>
+        <v>541</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>736</v>
+        <v>542</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>737</v>
+        <v>543</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>738</v>
+        <v>544</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>739</v>
+        <v>545</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>740</v>
+        <v>546</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>741</v>
+        <v>547</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>742</v>
+        <v>548</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>743</v>
+        <v>549</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>744</v>
+        <v>550</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>745</v>
+        <v>551</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>746</v>
+        <v>552</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>747</v>
+        <v>553</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>748</v>
+        <v>554</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>749</v>
+        <v>555</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>751</v>
+        <v>557</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>752</v>
+        <v>558</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>753</v>
+        <v>559</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>754</v>
+        <v>560</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>755</v>
+        <v>561</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>756</v>
+        <v>562</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>757</v>
+        <v>563</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>758</v>
+        <v>564</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>759</v>
+        <v>565</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>760</v>
+        <v>566</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>761</v>
+        <v>567</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>762</v>
+        <v>568</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>763</v>
+        <v>569</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>764</v>
+        <v>570</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>765</v>
+        <v>571</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>766</v>
+        <v>572</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>767</v>
+        <v>573</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>768</v>
+        <v>574</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>769</v>
+        <v>575</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>770</v>
+        <v>576</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>771</v>
+        <v>577</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>772</v>
+        <v>578</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>774</v>
+        <v>580</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>775</v>
+        <v>581</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>776</v>
+        <v>582</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>777</v>
+        <v>583</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>778</v>
+        <v>584</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>779</v>
+        <v>585</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>780</v>
+        <v>586</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>781</v>
+        <v>587</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>782</v>
+        <v>588</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>74</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>783</v>
+        <v>589</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>784</v>
+        <v>590</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>785</v>
+        <v>591</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>77</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>786</v>
+        <v>592</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>787</v>
+        <v>593</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>79</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>788</v>
+        <v>594</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>789</v>
+        <v>595</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>790</v>
+        <v>596</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>791</v>
+        <v>597</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>792</v>
+        <v>598</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>793</v>
+        <v>599</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>794</v>
+        <v>600</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>86</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>795</v>
+        <v>601</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>796</v>
+        <v>602</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>88</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>797</v>
+        <v>603</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>89</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>798</v>
+        <v>604</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>799</v>
+        <v>605</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>91</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>800</v>
+        <v>606</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>92</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>801</v>
+        <v>607</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>802</v>
+        <v>608</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>803</v>
+        <v>609</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>804</v>
+        <v>610</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>805</v>
+        <v>611</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>806</v>
+        <v>612</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>807</v>
+        <v>613</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>808</v>
+        <v>614</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>100</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>549</v>
+        <v>355</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>550</v>
+        <v>356</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>551</v>
+        <v>357</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>552</v>
+        <v>358</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>553</v>
+        <v>359</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>554</v>
+        <v>360</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>555</v>
+        <v>361</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>556</v>
+        <v>362</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>557</v>
+        <v>363</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>109</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>558</v>
+        <v>364</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>110</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>559</v>
+        <v>365</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>560</v>
+        <v>366</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>112</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>561</v>
+        <v>367</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>114</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>563</v>
+        <v>369</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>115</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>564</v>
+        <v>370</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>116</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>565</v>
+        <v>371</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>117</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>566</v>
+        <v>372</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>118</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>567</v>
+        <v>373</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>119</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>568</v>
+        <v>374</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>120</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>569</v>
+        <v>375</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>121</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>122</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>571</v>
+        <v>377</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>123</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>572</v>
+        <v>378</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>124</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>573</v>
+        <v>379</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>125</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>574</v>
+        <v>380</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>126</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>575</v>
+        <v>381</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>127</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>576</v>
+        <v>382</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>128</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>577</v>
+        <v>383</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>129</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>578</v>
+        <v>384</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>130</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>131</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>132</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>581</v>
+        <v>387</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>133</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>582</v>
+        <v>388</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>134</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>135</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>584</v>
+        <v>390</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>136</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>585</v>
+        <v>391</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>137</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>586</v>
+        <v>392</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>138</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>587</v>
+        <v>393</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>139</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>588</v>
+        <v>394</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>140</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>589</v>
+        <v>395</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>141</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>590</v>
+        <v>396</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>142</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>591</v>
+        <v>397</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>143</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>592</v>
+        <v>398</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>144</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>593</v>
+        <v>399</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>145</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>594</v>
+        <v>400</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>146</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>595</v>
+        <v>401</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>147</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>148</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>597</v>
+        <v>403</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>149</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>598</v>
+        <v>404</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>150</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>599</v>
+        <v>405</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>151</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>600</v>
+        <v>406</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>152</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>601</v>
+        <v>407</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>153</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>602</v>
+        <v>408</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>154</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>603</v>
+        <v>409</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>155</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>156</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>605</v>
+        <v>411</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>157</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>606</v>
+        <v>412</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>158</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>607</v>
+        <v>413</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>159</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>608</v>
+        <v>414</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>160</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>609</v>
+        <v>415</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>161</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>610</v>
+        <v>416</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>162</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>163</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>612</v>
+        <v>418</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>164</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>613</v>
+        <v>419</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>165</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>166</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>615</v>
+        <v>421</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>167</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>168</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>617</v>
+        <v>423</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>169</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>618</v>
+        <v>424</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>170</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>171</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>620</v>
+        <v>426</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>172</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>173</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>174</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>623</v>
+        <v>429</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>175</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>624</v>
+        <v>430</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>176</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>177</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>626</v>
+        <v>432</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>178</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>179</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>628</v>
+        <v>434</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>180</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>181</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>630</v>
+        <v>436</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>182</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>183</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>184</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>633</v>
+        <v>439</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>185</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>634</v>
+        <v>440</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>186</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>635</v>
+        <v>441</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>187</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>636</v>
+        <v>442</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>188</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>637</v>
+        <v>443</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>189</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>638</v>
+        <v>444</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>190</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>639</v>
+        <v>445</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>191</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>192</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>641</v>
+        <v>447</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F197" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>193</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>194</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>643</v>
+        <v>449</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>195</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>644</v>
+        <v>450</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F200" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>196</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>645</v>
+        <v>451</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F201" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>197</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>646</v>
+        <v>452</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>198</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>647</v>
+        <v>453</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>199</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>648</v>
+        <v>454</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>200</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>649</v>
+        <v>455</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>201</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F206" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>202</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F207" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>203</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F208" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>204</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>653</v>
+        <v>459</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>205</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>654</v>
+        <v>460</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>206</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>655</v>
+        <v>461</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>207</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>656</v>
+        <v>462</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F212" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>208</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>657</v>
+        <v>463</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F213" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>209</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>658</v>
+        <v>464</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F214" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>210</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>659</v>
+        <v>465</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F215" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>211</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>660</v>
+        <v>466</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F216" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>212</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>661</v>
+        <v>467</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>213</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>662</v>
+        <v>468</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F218" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>214</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>663</v>
+        <v>469</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F219" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>215</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>664</v>
+        <v>470</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F220" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>216</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>665</v>
+        <v>471</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>217</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>666</v>
+        <v>472</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>218</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>667</v>
+        <v>473</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>219</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>668</v>
+        <v>474</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -6042,14 +5244,12 @@
         <v>220</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>669</v>
+        <v>475</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>491</v>
-      </c>
+      <c r="F225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -6059,14 +5259,12 @@
         <v>221</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>492</v>
-      </c>
+      <c r="F226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -6076,14 +5274,12 @@
         <v>222</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>671</v>
+        <v>477</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="F227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -6093,14 +5289,12 @@
         <v>223</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>672</v>
+        <v>478</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>494</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -6110,14 +5304,12 @@
         <v>224</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>673</v>
+        <v>479</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>495</v>
-      </c>
+      <c r="F229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -6127,14 +5319,12 @@
         <v>225</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F230" s="3" t="s">
-        <v>496</v>
-      </c>
+      <c r="F230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -6144,14 +5334,12 @@
         <v>226</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>675</v>
+        <v>481</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F231" s="3" t="s">
-        <v>497</v>
-      </c>
+      <c r="F231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -6161,14 +5349,12 @@
         <v>227</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>676</v>
+        <v>482</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>498</v>
-      </c>
+      <c r="F232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
@@ -6178,14 +5364,12 @@
         <v>228</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>677</v>
+        <v>483</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>499</v>
-      </c>
+      <c r="F233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
@@ -6195,14 +5379,12 @@
         <v>229</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F234" s="3" t="s">
-        <v>500</v>
-      </c>
+      <c r="F234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
@@ -6212,14 +5394,12 @@
         <v>230</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>679</v>
+        <v>485</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>501</v>
-      </c>
+      <c r="F235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -6229,14 +5409,12 @@
         <v>231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>680</v>
+        <v>486</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F236" s="3" t="s">
-        <v>502</v>
-      </c>
+      <c r="F236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -6246,14 +5424,12 @@
         <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>681</v>
+        <v>487</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F237" s="3" t="s">
-        <v>503</v>
-      </c>
+      <c r="F237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -6263,14 +5439,12 @@
         <v>233</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>682</v>
+        <v>488</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F238" s="3" t="s">
-        <v>504</v>
-      </c>
+      <c r="F238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -6280,14 +5454,12 @@
         <v>234</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>683</v>
+        <v>489</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F239" s="3" t="s">
-        <v>505</v>
-      </c>
+      <c r="F239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -6297,14 +5469,12 @@
         <v>235</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>684</v>
+        <v>490</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F240" s="3" t="s">
-        <v>506</v>
-      </c>
+      <c r="F240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -6314,14 +5484,12 @@
         <v>236</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>685</v>
+        <v>491</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F241" s="3" t="s">
-        <v>507</v>
-      </c>
+      <c r="F241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -6331,14 +5499,12 @@
         <v>237</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>686</v>
+        <v>492</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F242" s="3" t="s">
-        <v>508</v>
-      </c>
+      <c r="F242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -6348,14 +5514,12 @@
         <v>238</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>687</v>
+        <v>493</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F243" s="3" t="s">
-        <v>509</v>
-      </c>
+      <c r="F243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -6365,14 +5529,12 @@
         <v>239</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>688</v>
+        <v>494</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F244" s="3" t="s">
-        <v>510</v>
-      </c>
+      <c r="F244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -6382,14 +5544,12 @@
         <v>240</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>689</v>
+        <v>495</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>511</v>
-      </c>
+      <c r="F245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -6399,14 +5559,12 @@
         <v>241</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>690</v>
+        <v>496</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F246" s="3" t="s">
-        <v>512</v>
-      </c>
+      <c r="F246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
@@ -6416,14 +5574,12 @@
         <v>242</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>691</v>
+        <v>497</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>513</v>
-      </c>
+      <c r="F247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
@@ -6433,14 +5589,12 @@
         <v>243</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>692</v>
+        <v>498</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F248" s="3" t="s">
-        <v>514</v>
-      </c>
+      <c r="F248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
@@ -6450,14 +5604,12 @@
         <v>244</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>693</v>
+        <v>499</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F249" s="3" t="s">
-        <v>515</v>
-      </c>
+      <c r="F249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -6467,14 +5619,12 @@
         <v>245</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>516</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -6484,14 +5634,12 @@
         <v>246</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>695</v>
+        <v>501</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F251" s="3" t="s">
-        <v>517</v>
-      </c>
+      <c r="F251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -6501,14 +5649,12 @@
         <v>247</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>696</v>
+        <v>502</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>518</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -6518,14 +5664,12 @@
         <v>248</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>697</v>
+        <v>503</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F253" s="3" t="s">
-        <v>519</v>
-      </c>
+      <c r="F253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -6535,14 +5679,12 @@
         <v>249</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>698</v>
+        <v>504</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F254" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="F254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -6552,14 +5694,12 @@
         <v>250</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>699</v>
+        <v>505</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F255" s="3" t="s">
-        <v>521</v>
-      </c>
+      <c r="F255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -6569,14 +5709,12 @@
         <v>251</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>700</v>
+        <v>506</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F256" s="3" t="s">
-        <v>522</v>
-      </c>
+      <c r="F256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -6586,14 +5724,12 @@
         <v>252</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>701</v>
+        <v>507</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F257" s="3" t="s">
-        <v>523</v>
-      </c>
+      <c r="F257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -6603,14 +5739,12 @@
         <v>253</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F258" s="3" t="s">
-        <v>524</v>
-      </c>
+      <c r="F258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -6620,14 +5754,12 @@
         <v>254</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>703</v>
+        <v>509</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F259" s="3" t="s">
-        <v>525</v>
-      </c>
+      <c r="F259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -6637,14 +5769,12 @@
         <v>255</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F260" s="3" t="s">
-        <v>526</v>
-      </c>
+      <c r="F260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -6654,14 +5784,12 @@
         <v>256</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>705</v>
+        <v>511</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F261" s="3" t="s">
-        <v>527</v>
-      </c>
+      <c r="F261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -6671,14 +5799,12 @@
         <v>257</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>706</v>
+        <v>512</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F262" s="3" t="s">
-        <v>528</v>
-      </c>
+      <c r="F262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -6688,14 +5814,12 @@
         <v>258</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>809</v>
+        <v>615</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F263" s="3" t="s">
-        <v>529</v>
-      </c>
+      <c r="F263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -6705,14 +5829,12 @@
         <v>259</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>810</v>
+        <v>616</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F264" s="3" t="s">
-        <v>530</v>
-      </c>
+      <c r="F264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
@@ -6722,14 +5844,12 @@
         <v>260</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>811</v>
+        <v>617</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F265" s="3" t="s">
-        <v>531</v>
-      </c>
+      <c r="F265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
@@ -6739,14 +5859,12 @@
         <v>261</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>812</v>
+        <v>618</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F266" s="3" t="s">
-        <v>532</v>
-      </c>
+      <c r="F266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
@@ -6756,14 +5874,12 @@
         <v>262</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>813</v>
+        <v>619</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F267" s="3" t="s">
-        <v>533</v>
-      </c>
+      <c r="F267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
@@ -6773,13 +5889,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>814</v>
+        <v>620</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
@@ -6790,13 +5903,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>815</v>
+        <v>621</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F269" t="s">
-        <v>535</v>
       </c>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
@@ -6807,13 +5917,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>816</v>
+        <v>622</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F270" t="s">
-        <v>536</v>
       </c>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
@@ -6824,13 +5931,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>817</v>
+        <v>623</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F271" t="s">
-        <v>537</v>
       </c>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
@@ -6841,13 +5945,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>818</v>
+        <v>624</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F272" t="s">
-        <v>538</v>
       </c>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
@@ -6858,13 +5959,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>819</v>
+        <v>625</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F273" t="s">
-        <v>539</v>
       </c>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
@@ -6875,13 +5973,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>820</v>
+        <v>626</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F274" t="s">
-        <v>540</v>
       </c>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
@@ -6892,16 +5987,23 @@
         <v>270</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>821</v>
+        <v>627</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F275" t="s">
-        <v>541</v>
-      </c>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
+      <c r="E275" t="s">
+        <v>640</v>
+      </c>
+      <c r="I275" t="s">
+        <v>641</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="L275" s="3"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -6909,399 +6011,2539 @@
         <v>271</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>707</v>
+        <v>513</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="F276" t="s">
-        <v>542</v>
       </c>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>272</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>708</v>
+        <v>514</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="11" t="s">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>273</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E278" t="str">
+        <f>CONCATENATE($E$275,"[",A278,"]=",B278)</f>
+        <v>bookmarks_report[273]="k_Balkon1";</v>
+      </c>
+      <c r="J278" t="str">
+        <f>CONCATENATE($K$275,A278,$J$275)</f>
+        <v>texts_report[273]=</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>274</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C279" s="8"/>
+      <c r="E279" t="str">
+        <f>CONCATENATE($E$275,"[",A279,"]=",B279)</f>
+        <v>bookmarks_report[274]="k_Balkon2";</v>
+      </c>
+      <c r="J279" t="str">
+        <f t="shared" ref="J279:J342" si="0">CONCATENATE($K$275,A279,$J$275)</f>
+        <v>texts_report[274]=</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>275</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C280" s="8"/>
+      <c r="E280" t="str">
+        <f t="shared" ref="E280:E343" si="1">CONCATENATE($E$275,"[",A280,"]=",B280)</f>
+        <v>bookmarks_report[275]="k_Balkon3";</v>
+      </c>
+      <c r="J280" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[275]=</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>276</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="E281" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[276]="k_Balkon4";</v>
+      </c>
+      <c r="J281" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[276]=</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>277</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C282" s="8"/>
+      <c r="E282" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[277]="k_Balkon5";</v>
+      </c>
+      <c r="J282" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[277]=</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>278</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E283" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[278]="k_Floor1";</v>
+      </c>
+      <c r="J283" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[278]=</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>279</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="E284" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[279]="k_Floor2";</v>
+      </c>
+      <c r="J284" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[279]=</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>280</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="E285" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[280]="k_Floor3";</v>
+      </c>
+      <c r="J285" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[280]=</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>281</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="E286" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[281]="k_Floor4";</v>
+      </c>
+      <c r="J286" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[281]=</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>282</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="E287" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[282]="k_Floor5";</v>
+      </c>
+      <c r="J287" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[282]=</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>283</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E288" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[283]="k_Floors1";</v>
+      </c>
+      <c r="J288" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[283]=</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>284</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="E289" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[284]="k_Floors2";</v>
+      </c>
+      <c r="J289" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[284]=</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>285</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="E290" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[285]="k_Floors3";</v>
+      </c>
+      <c r="J290" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[285]=</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>286</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="E291" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[286]="k_Floors4";</v>
+      </c>
+      <c r="J291" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[286]=</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>287</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="E292" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[287]="k_Floors5";</v>
+      </c>
+      <c r="J292" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[287]=</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>288</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E293" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[288]="k_FullPrc1";</v>
+      </c>
+      <c r="J293" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[288]=</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>289</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C294" s="8"/>
+      <c r="E294" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[289]="k_FullPrc2";</v>
+      </c>
+      <c r="J294" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[289]=</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>290</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C295" s="8"/>
+      <c r="E295" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[290]="k_FullPrc3";</v>
+      </c>
+      <c r="J295" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[290]=</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>291</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C296" s="8"/>
+      <c r="E296" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[291]="k_FullPrc4";</v>
+      </c>
+      <c r="J296" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[291]=</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>292</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C297" s="8"/>
+      <c r="E297" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[292]="k_FullPrc5";</v>
+      </c>
+      <c r="J297" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[292]=</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>293</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E298" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[293]="k_RemontPrice1";</v>
+      </c>
+      <c r="J298" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[293]=</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>294</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C299" s="8"/>
+      <c r="E299" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[294]="k_RemontPrice2";</v>
+      </c>
+      <c r="J299" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[294]=</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>295</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C300" s="8"/>
+      <c r="E300" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[295]="k_RemontPrice3";</v>
+      </c>
+      <c r="J300" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[295]=</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>296</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C301" s="8"/>
+      <c r="E301" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[296]="k_RemontPrice4";</v>
+      </c>
+      <c r="J301" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[296]=</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>297</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C302" s="8"/>
+      <c r="E302" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[297]="k_RemontPrice5";</v>
+      </c>
+      <c r="J302" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[297]=</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>298</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[298]="k_Sanuzel1";</v>
+      </c>
+      <c r="J303" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[298]=</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>299</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C304" s="8"/>
+      <c r="E304" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[299]="k_Sanuzel2";</v>
+      </c>
+      <c r="J304" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[299]=</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>300</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C305" s="8"/>
+      <c r="E305" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[300]="k_Sanuzel3";</v>
+      </c>
+      <c r="J305" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[300]=</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>301</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C306" s="8"/>
+      <c r="E306" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[301]="k_Sanuzel4";</v>
+      </c>
+      <c r="J306" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[301]=</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>302</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C307" s="8"/>
+      <c r="E307" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[302]="k_Sanuzel5";</v>
+      </c>
+      <c r="J307" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[302]=</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>303</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[303]="k_SKitchen1";</v>
+      </c>
+      <c r="J308" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[303]=</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>304</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C309" s="8"/>
+      <c r="E309" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[304]="k_SKitchen2";</v>
+      </c>
+      <c r="J309" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[304]=</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>305</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C310" s="8"/>
+      <c r="E310" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[305]="k_SKitchen3";</v>
+      </c>
+      <c r="J310" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[305]=</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>306</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="E311" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[306]="k_SKitchen4";</v>
+      </c>
+      <c r="J311" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[306]=</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>307</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C312" s="8"/>
+      <c r="E312" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[307]="k_SKitchen5";</v>
+      </c>
+      <c r="J312" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[307]=</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>308</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[308]="k_sqmCorrPrice1";</v>
+      </c>
+      <c r="J313" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[308]=</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>309</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C314" s="8"/>
+      <c r="E314" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[309]="k_sqmCorrPrice2";</v>
+      </c>
+      <c r="J314" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[309]=</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>310</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C315" s="8"/>
+      <c r="E315" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[310]="k_sqmCorrPrice3";</v>
+      </c>
+      <c r="J315" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[310]=</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>311</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C316" s="8"/>
+      <c r="E316" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[311]="k_sqmCorrPrice4";</v>
+      </c>
+      <c r="J316" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[311]=</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>312</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C317" s="8"/>
+      <c r="E317" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[312]="k_sqmCorrPrice5";</v>
+      </c>
+      <c r="J317" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[312]=</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>313</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[313]="k_sqmPrcPrice1";</v>
+      </c>
+      <c r="J318" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[313]=</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>314</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C319" s="8"/>
+      <c r="E319" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[314]="k_sqmPrcPrice2";</v>
+      </c>
+      <c r="J319" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[314]=</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>315</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C320" s="8"/>
+      <c r="E320" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[315]="k_sqmPrcPrice3";</v>
+      </c>
+      <c r="J320" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[315]=</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>316</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C321" s="8"/>
+      <c r="E321" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[316]="k_sqmPrcPrice4";</v>
+      </c>
+      <c r="J321" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[316]=</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>317</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C322" s="8"/>
+      <c r="E322" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[317]="k_sqmPrcPrice5";</v>
+      </c>
+      <c r="J322" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[317]=</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>318</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E323" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[318]="k_Torg1";</v>
+      </c>
+      <c r="J323" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[318]=</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>319</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C324" s="8"/>
+      <c r="E324" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[319]="k_Torg2";</v>
+      </c>
+      <c r="J324" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[319]=</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>320</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C325" s="8"/>
+      <c r="E325" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[320]="k_Torg3";</v>
+      </c>
+      <c r="J325" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[320]=</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>321</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C326" s="8"/>
+      <c r="E326" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[321]="k_Torg4";</v>
+      </c>
+      <c r="J326" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[321]=</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>322</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C327" s="8"/>
+      <c r="E327" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[322]="k_Torg5";</v>
+      </c>
+      <c r="J327" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[322]=</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>323</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[323]="k_Type1";</v>
+      </c>
+      <c r="J328" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[323]=</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>324</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C329" s="8"/>
+      <c r="E329" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[324]="k_Type2";</v>
+      </c>
+      <c r="J329" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[324]=</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>325</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C330" s="8"/>
+      <c r="E330" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[325]="k_Type3";</v>
+      </c>
+      <c r="J330" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[325]=</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>326</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C331" s="8"/>
+      <c r="E331" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[326]="k_Type4";</v>
+      </c>
+      <c r="J331" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[326]=</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>327</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C332" s="8"/>
+      <c r="E332" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[327]="k_Type5";</v>
+      </c>
+      <c r="J332" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[327]=</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>328</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E333" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[328]="k_Vid1";</v>
+      </c>
+      <c r="J333" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[328]=</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>329</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C334" s="8"/>
+      <c r="E334" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[329]="k_Vid2";</v>
+      </c>
+      <c r="J334" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[329]=</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>330</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C335" s="8"/>
+      <c r="E335" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[330]="k_Vid3";</v>
+      </c>
+      <c r="J335" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[330]=</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>331</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C336" s="8"/>
+      <c r="E336" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[331]="k_Vid4";</v>
+      </c>
+      <c r="J336" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[331]=</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>332</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C337" s="8"/>
+      <c r="E337" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[332]="k_Vid5";</v>
+      </c>
+      <c r="J337" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[332]=</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>333</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[333]="k_aBalcon0";</v>
+      </c>
+      <c r="J338" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[333]=</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>334</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E339" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[334]="k_aBalcon1";</v>
+      </c>
+      <c r="J339" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[334]=</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>335</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C340" s="8"/>
+      <c r="E340" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[335]="k_aBalcon2";</v>
+      </c>
+      <c r="J340" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[335]=</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>336</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C341" s="8"/>
+      <c r="E341" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[336]="k_aBalcon3";</v>
+      </c>
+      <c r="J341" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[336]=</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>337</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C342" s="8"/>
+      <c r="E342" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[337]="k_aBalcon4";</v>
+      </c>
+      <c r="J342" t="str">
+        <f t="shared" si="0"/>
+        <v>texts_report[337]=</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>338</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C343" s="8"/>
+      <c r="E343" t="str">
+        <f t="shared" si="1"/>
+        <v>bookmarks_report[338]="k_aBalcon5";</v>
+      </c>
+      <c r="J343" t="str">
+        <f t="shared" ref="J343:J400" si="2">CONCATENATE($K$275,A343,$J$275)</f>
+        <v>texts_report[338]=</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>339</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" ref="E344:E400" si="3">CONCATENATE($E$275,"[",A344,"]=",B344)</f>
+        <v>bookmarks_report[339]="k_addr0";</v>
+      </c>
+      <c r="J344" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[339]=</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>340</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C345" s="8"/>
+      <c r="E345" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[340]="k_addr1";</v>
+      </c>
+      <c r="J345" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[340]=</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>341</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C346" s="8"/>
+      <c r="E346" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[341]="k_addr2";</v>
+      </c>
+      <c r="J346" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[341]=</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>342</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C347" s="8"/>
+      <c r="E347" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[342]="k_addr3";</v>
+      </c>
+      <c r="J347" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[342]=</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>343</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C348" s="8"/>
+      <c r="E348" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[343]="k_addr4";</v>
+      </c>
+      <c r="J348" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[343]=</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>344</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C349" s="8"/>
+      <c r="E349" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[344]="k_addr5";</v>
+      </c>
+      <c r="J349" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[344]=</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>345</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E350" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[345]="k_addr00";</v>
+      </c>
+      <c r="J350" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[345]=</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>346</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C351" s="8"/>
+      <c r="E351" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[346]="k_addr01";</v>
+      </c>
+      <c r="J351" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[346]=</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>347</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C352" s="8"/>
+      <c r="E352" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[347]="k_addr02";</v>
+      </c>
+      <c r="J352" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[347]=</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>348</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C353" s="8"/>
+      <c r="E353" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[348]="k_addr03";</v>
+      </c>
+      <c r="J353" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[348]=</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>349</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C354" s="8"/>
+      <c r="E354" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[349]="k_addr04";</v>
+      </c>
+      <c r="J354" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[349]=</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>350</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C355" s="8"/>
+      <c r="E355" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[350]="k_addr05";</v>
+      </c>
+      <c r="J355" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[350]=</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>351</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[351]="k_aFloor0";</v>
+      </c>
+      <c r="J356" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[351]=</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>352</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C357" s="8"/>
+      <c r="E357" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[352]="k_aFloor1";</v>
+      </c>
+      <c r="J357" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[352]=</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>353</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C358" s="8"/>
+      <c r="E358" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[353]="k_aFloor2";</v>
+      </c>
+      <c r="J358" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[353]=</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>354</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C359" s="8"/>
+      <c r="E359" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[354]="k_aFloor3";</v>
+      </c>
+      <c r="J359" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[354]=</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>355</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C360" s="8"/>
+      <c r="E360" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[355]="k_aFloor4";</v>
+      </c>
+      <c r="J360" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[355]=</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>356</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C361" s="8"/>
+      <c r="E361" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[356]="k_aFloor5";</v>
+      </c>
+      <c r="J361" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[356]=</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>357</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[357]="k_aFloors0";</v>
+      </c>
+      <c r="J362" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[357]=</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>358</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C363" s="8"/>
+      <c r="E363" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[358]="k_aFloors1";</v>
+      </c>
+      <c r="J363" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[358]=</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>359</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C364" s="8"/>
+      <c r="E364" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[359]="k_aFloors2";</v>
+      </c>
+      <c r="J364" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[359]=</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>360</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C365" s="8"/>
+      <c r="E365" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[360]="k_aFloors3";</v>
+      </c>
+      <c r="J365" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[360]=</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>361</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C366" s="8"/>
+      <c r="E366" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[361]="k_aFloors4";</v>
+      </c>
+      <c r="J366" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[361]=</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>362</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C367" s="8"/>
+      <c r="E367" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[362]="k_aFloors5";</v>
+      </c>
+      <c r="J367" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[362]=</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>363</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[363]="k_area0";</v>
+      </c>
+      <c r="J368" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[363]=</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>364</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C369" s="8"/>
+      <c r="E369" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[364]="k_area1";</v>
+      </c>
+      <c r="J369" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[364]=</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>365</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C370" s="8"/>
+      <c r="E370" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[365]="k_area2";</v>
+      </c>
+      <c r="J370" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[365]=</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>366</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C371" s="8"/>
+      <c r="E371" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[366]="k_area3";</v>
+      </c>
+      <c r="J371" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[366]=</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>367</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C372" s="8"/>
+      <c r="E372" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[367]="k_area4";</v>
+      </c>
+      <c r="J372" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[367]=</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>368</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C373" s="8"/>
+      <c r="E373" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[368]="k_area5";</v>
+      </c>
+      <c r="J373" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[368]=</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>369</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E374" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[369]="k_aSKitchen0";</v>
+      </c>
+      <c r="J374" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[369]=</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>370</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C375" s="8"/>
+      <c r="E375" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[370]="k_aSKitchen1";</v>
+      </c>
+      <c r="J375" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[370]=</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>371</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C376" s="8"/>
+      <c r="E376" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[371]="k_aSKitchen2";</v>
+      </c>
+      <c r="J376" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[371]=</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>372</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C377" s="8"/>
+      <c r="E377" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[372]="k_aSKitchen3";</v>
+      </c>
+      <c r="J377" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[372]=</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>373</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C378" s="8"/>
+      <c r="E378" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[373]="k_aSKitchen4";</v>
+      </c>
+      <c r="J378" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[373]=</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>374</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C379" s="8"/>
+      <c r="E379" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[374]="k_aSKitchen5";</v>
+      </c>
+      <c r="J379" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[374]=</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>375</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E380" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[375]="k_Dollar";</v>
+      </c>
+      <c r="J380" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[375]=</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>376</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E381" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[376]="k_DollarPrice0";</v>
+      </c>
+      <c r="J381" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[376]=</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>377</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E382" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[377]="k_Price0";</v>
+      </c>
+      <c r="J382" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[377]=</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>378</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E383" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[378]="k_Rooms0";</v>
+      </c>
+      <c r="J383" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[378]=</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>379</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C384" s="8"/>
+      <c r="E384" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[379]="k_Rooms1";</v>
+      </c>
+      <c r="J384" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[379]=</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>380</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C385" s="8"/>
+      <c r="E385" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[380]="k_Rooms2";</v>
+      </c>
+      <c r="J385" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[380]=</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>381</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C386" s="8"/>
+      <c r="E386" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[381]="k_Rooms3";</v>
+      </c>
+      <c r="J386" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[381]=</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>382</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C387" s="8"/>
+      <c r="E387" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[382]="k_Rooms4";</v>
+      </c>
+      <c r="J387" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[382]=</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>383</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C388" s="8"/>
+      <c r="E388" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[383]="k_Rooms5";</v>
+      </c>
+      <c r="J388" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[383]=</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>384</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E389" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[384]="k_SanType0";</v>
+      </c>
+      <c r="J389" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[384]=</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>385</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C390" s="8"/>
+      <c r="E390" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[385]="k_SanType1";</v>
+      </c>
+      <c r="J390" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[385]=</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>386</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C391" s="8"/>
+      <c r="E391" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[386]="k_SanType2";</v>
+      </c>
+      <c r="J391" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[386]=</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>387</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C392" s="8"/>
+      <c r="E392" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[387]="k_SanType3";</v>
+      </c>
+      <c r="J392" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[387]=</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>388</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C393" s="8"/>
+      <c r="E393" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[388]="k_SanType4";</v>
+      </c>
+      <c r="J393" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[388]=</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>389</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C394" s="8"/>
+      <c r="E394" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[389]="k_SanType5";</v>
+      </c>
+      <c r="J394" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[389]=</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>390</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E395" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[390]="k_wall0";</v>
+      </c>
+      <c r="J395" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[390]=</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>391</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C396" s="8"/>
+      <c r="E396" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[391]="k_wall1";</v>
+      </c>
+      <c r="J396" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[391]=</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>392</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C397" s="8"/>
+      <c r="E397" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[392]="k_wall2";</v>
+      </c>
+      <c r="J397" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[392]=</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>393</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C398" s="8"/>
+      <c r="E398" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[393]="k_wall3";</v>
+      </c>
+      <c r="J398" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[393]=</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>394</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C399" s="8"/>
+      <c r="E399" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[394]="k_wall4";</v>
+      </c>
+      <c r="J399" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[394]=</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3">
+        <v>395</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C400" s="8"/>
+      <c r="E400" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[395]="k_wall5";</v>
+      </c>
+      <c r="J400" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[395]=</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C278" s="12"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="C401" s="12"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>0</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B402" t="s">
         <v>4</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C402" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>1</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B403" t="s">
         <v>5</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C403" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>2</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B404" t="s">
         <v>6</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C404" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>3</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B405" t="s">
         <v>7</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C405" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
         <v>4</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B406" t="s">
         <v>8</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C406" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
         <v>5</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B407" t="s">
         <v>9</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C407" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>6</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B408" t="s">
         <v>10</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C408" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
         <v>7</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B409" t="s">
         <v>11</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C409" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
         <v>8</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B410" t="s">
         <v>33</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C410" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
         <v>9</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B411" t="s">
         <v>35</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C411" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
         <v>10</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B412" t="s">
         <v>37</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C412" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
         <v>11</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B413" t="s">
         <v>38</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C413" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
         <v>12</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B414" t="s">
         <v>39</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C414" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
         <v>13</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B415" t="s">
         <v>40</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C415" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
         <v>14</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B416" t="s">
         <v>41</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C416" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
         <v>15</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B417" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C417" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
         <v>16</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B418" t="s">
         <v>43</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C418" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
         <v>17</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B419" t="s">
         <v>12</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C419" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
         <v>18</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B420" t="s">
         <v>44</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C420" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
         <v>19</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B421" t="s">
         <v>13</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C421" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
         <v>20</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B422" t="s">
         <v>14</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C422" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>21</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B423" t="s">
         <v>15</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C423" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
         <v>22</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B424" t="s">
         <v>16</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C424" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
         <v>23</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B425" t="s">
         <v>17</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C425" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
         <v>24</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B426" t="s">
         <v>18</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C426" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
         <v>25</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B427" t="s">
         <v>45</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C427" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
         <v>26</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B428" t="s">
         <v>46</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C428" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
         <v>27</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B429" t="s">
         <v>47</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C429" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>28</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B430" t="s">
         <v>48</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C430" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
         <v>29</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B431" t="s">
         <v>49</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C431" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
         <v>30</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B432" t="s">
         <v>50</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C432" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
         <v>31</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B433" t="s">
         <v>19</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C433" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
         <v>32</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B434" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B401:C401"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -7352,7 +8594,7 @@
         <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>271</v>
@@ -7369,7 +8611,7 @@
         <v>146</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7383,7 +8625,7 @@
         <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7397,7 +8639,7 @@
         <v>149</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7411,7 +8653,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7425,7 +8667,7 @@
         <v>155</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7439,7 +8681,7 @@
         <v>156</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7453,7 +8695,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7467,7 +8709,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7481,7 +8723,7 @@
         <v>163</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7495,7 +8737,7 @@
         <v>189</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7509,7 +8751,7 @@
         <v>168</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7523,7 +8765,7 @@
         <v>170</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7537,7 +8779,7 @@
         <v>171</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7551,7 +8793,7 @@
         <v>179</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7565,7 +8807,7 @@
         <v>182</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7579,7 +8821,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7593,7 +8835,7 @@
         <v>188</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7607,7 +8849,7 @@
         <v>190</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7621,7 +8863,7 @@
         <v>191</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7635,7 +8877,7 @@
         <v>192</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7649,10 +8891,10 @@
         <v>194</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7666,10 +8908,10 @@
         <v>194</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7683,7 +8925,7 @@
         <v>195</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7697,7 +8939,7 @@
         <v>196</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7711,7 +8953,7 @@
         <v>196</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7725,7 +8967,7 @@
         <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7739,7 +8981,7 @@
         <v>202</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>422</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7753,7 +8995,7 @@
         <v>202</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>423</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7767,7 +9009,7 @@
         <v>204</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7781,7 +9023,7 @@
         <v>205</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>426</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7795,7 +9037,7 @@
         <v>206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7809,7 +9051,7 @@
         <v>207</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>428</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7823,7 +9065,7 @@
         <v>208</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7837,7 +9079,7 @@
         <v>208</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7851,7 +9093,7 @@
         <v>209</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>431</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7865,7 +9107,7 @@
         <v>211</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>433</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7879,7 +9121,7 @@
         <v>214</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7893,7 +9135,7 @@
         <v>214</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7907,7 +9149,7 @@
         <v>215</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>440</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7921,7 +9163,7 @@
         <v>217</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>447</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7935,7 +9177,7 @@
         <v>218</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>448</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7949,7 +9191,7 @@
         <v>221</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>451</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7963,7 +9205,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>461</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7977,7 +9219,7 @@
         <v>223</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>469</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7991,7 +9233,7 @@
         <v>223</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>470</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8005,7 +9247,7 @@
         <v>226</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>476</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8019,7 +9261,7 @@
         <v>227</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8033,7 +9275,7 @@
         <v>228</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>483</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8047,7 +9289,7 @@
         <v>228</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>484</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8061,7 +9303,7 @@
         <v>229</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>485</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8075,7 +9317,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8089,7 +9331,7 @@
         <v>229</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>487</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8103,7 +9345,7 @@
         <v>230</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>488</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -8118,7 +9360,7 @@
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>502</v>
+        <v>325</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -8136,7 +9378,7 @@
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -8154,7 +9396,7 @@
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>506</v>
+        <v>327</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -8172,7 +9414,7 @@
       </c>
       <c r="D62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -8190,7 +9432,7 @@
       </c>
       <c r="D63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>510</v>
+        <v>329</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -8208,7 +9450,7 @@
       </c>
       <c r="D64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -8226,7 +9468,7 @@
       </c>
       <c r="D65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>514</v>
+        <v>331</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -8244,7 +9486,7 @@
       </c>
       <c r="D66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -8262,7 +9504,7 @@
       </c>
       <c r="D67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>519</v>
+        <v>333</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -8280,7 +9522,7 @@
       </c>
       <c r="D68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>520</v>
+        <v>334</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -8298,7 +9540,7 @@
       </c>
       <c r="D69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -8316,7 +9558,7 @@
       </c>
       <c r="D70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>525</v>
+        <v>336</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -8334,7 +9576,7 @@
       </c>
       <c r="D71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>530</v>
+        <v>337</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -8352,7 +9594,7 @@
       </c>
       <c r="D72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>531</v>
+        <v>338</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -8370,7 +9612,7 @@
       </c>
       <c r="D73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>532</v>
+        <v>339</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -8388,7 +9630,7 @@
       </c>
       <c r="D74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>533</v>
+        <v>340</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -8406,7 +9648,7 @@
       </c>
       <c r="D75" s="3"/>
       <c r="F75" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -8424,7 +9666,7 @@
       </c>
       <c r="D76" s="3"/>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>342</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -8442,7 +9684,7 @@
       </c>
       <c r="D77" s="3"/>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>343</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -8460,7 +9702,7 @@
       </c>
       <c r="D78" s="3"/>
       <c r="F78" t="s">
-        <v>537</v>
+        <v>344</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -8478,7 +9720,7 @@
       </c>
       <c r="D79" s="3"/>
       <c r="F79" t="s">
-        <v>538</v>
+        <v>345</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -8496,7 +9738,7 @@
       </c>
       <c r="D80" s="3"/>
       <c r="F80" t="s">
-        <v>539</v>
+        <v>346</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -8514,7 +9756,7 @@
       </c>
       <c r="D81" s="3"/>
       <c r="F81" t="s">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -8532,7 +9774,7 @@
       </c>
       <c r="D82" s="3"/>
       <c r="F82" t="s">
-        <v>542</v>
+        <v>348</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="796">
   <si>
     <t>Закладка</t>
   </si>
@@ -2343,6 +2343,66 @@
   </si>
   <si>
     <t>]=</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice0";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice1";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice2";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice3";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice4";</t>
+  </si>
+  <si>
+    <t>"k_sqmPrice5";</t>
+  </si>
+  <si>
+    <t>"k_seller1";</t>
+  </si>
+  <si>
+    <t>"k_seller2";</t>
+  </si>
+  <si>
+    <t>"k_seller3";</t>
+  </si>
+  <si>
+    <t>"k_seller4";</t>
+  </si>
+  <si>
+    <t>"k_seller5";</t>
+  </si>
+  <si>
+    <t>цена кв.м расчетная</t>
+  </si>
+  <si>
+    <t>цена кв.м. абсолютная аналога 1</t>
+  </si>
+  <si>
+    <t>продавец 1</t>
+  </si>
+  <si>
+    <t>"k_Price1";</t>
+  </si>
+  <si>
+    <t>"k_Price2";</t>
+  </si>
+  <si>
+    <t>"k_Price3";</t>
+  </si>
+  <si>
+    <t>"k_Price4";</t>
+  </si>
+  <si>
+    <t>"k_Price5";</t>
+  </si>
+  <si>
+    <t>цена абсолютная аналога 1</t>
   </si>
 </sst>
 </file>
@@ -2770,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L434"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7177,7 +7237,7 @@
         <v>bookmarks_report[338]="k_aBalcon5";</v>
       </c>
       <c r="J343" t="str">
-        <f t="shared" ref="J343:J400" si="2">CONCATENATE($K$275,A343,$J$275)</f>
+        <f t="shared" ref="J343:J406" si="2">CONCATENATE($K$275,A343,$J$275)</f>
         <v>texts_report[338]=</v>
       </c>
     </row>
@@ -7192,7 +7252,7 @@
         <v>704</v>
       </c>
       <c r="E344" t="str">
-        <f t="shared" ref="E344:E400" si="3">CONCATENATE($E$275,"[",A344,"]=",B344)</f>
+        <f t="shared" ref="E344:E407" si="3">CONCATENATE($E$275,"[",A344,"]=",B344)</f>
         <v>bookmarks_report[339]="k_addr0";</v>
       </c>
       <c r="J344" t="str">
@@ -8157,7 +8217,7 @@
         <v>texts_report[394]=</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>395</v>
       </c>
@@ -8174,376 +8234,663 @@
         <v>texts_report[395]=</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="11" t="s">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>396</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E401" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[396]="k_sqmPrice0";</v>
+      </c>
+      <c r="J401" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[396]=</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>397</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E402" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[397]="k_sqmPrice1";</v>
+      </c>
+      <c r="J402" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[397]=</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>398</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C403" s="8"/>
+      <c r="E403" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[398]="k_sqmPrice2";</v>
+      </c>
+      <c r="J403" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[398]=</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>399</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C404" s="8"/>
+      <c r="E404" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[399]="k_sqmPrice3";</v>
+      </c>
+      <c r="J404" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[399]=</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>400</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C405" s="8"/>
+      <c r="E405" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[400]="k_sqmPrice4";</v>
+      </c>
+      <c r="J405" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[400]=</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>401</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C406" s="8"/>
+      <c r="E406" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[401]="k_sqmPrice5";</v>
+      </c>
+      <c r="J406" t="str">
+        <f t="shared" si="2"/>
+        <v>texts_report[401]=</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>402</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E407" t="str">
+        <f t="shared" si="3"/>
+        <v>bookmarks_report[402]="k_seller1";</v>
+      </c>
+      <c r="J407" t="str">
+        <f t="shared" ref="J407:J416" si="4">CONCATENATE($K$275,A407,$J$275)</f>
+        <v>texts_report[402]=</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>403</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C408" s="8"/>
+      <c r="E408" t="str">
+        <f t="shared" ref="E408:E416" si="5">CONCATENATE($E$275,"[",A408,"]=",B408)</f>
+        <v>bookmarks_report[403]="k_seller2";</v>
+      </c>
+      <c r="J408" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[403]=</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>404</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C409" s="8"/>
+      <c r="E409" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[404]="k_seller3";</v>
+      </c>
+      <c r="J409" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[404]=</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>405</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C410" s="8"/>
+      <c r="E410" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[405]="k_seller4";</v>
+      </c>
+      <c r="J410" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[405]=</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>406</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C411" s="8"/>
+      <c r="E411" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[406]="k_seller5";</v>
+      </c>
+      <c r="J411" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[406]=</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>407</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E412" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[407]="k_Price1";</v>
+      </c>
+      <c r="J412" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[407]=</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>408</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C413" s="8"/>
+      <c r="E413" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[408]="k_Price2";</v>
+      </c>
+      <c r="J413" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[408]=</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>409</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C414" s="8"/>
+      <c r="E414" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[409]="k_Price3";</v>
+      </c>
+      <c r="J414" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[409]=</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>410</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C415" s="8"/>
+      <c r="E415" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[410]="k_Price4";</v>
+      </c>
+      <c r="J415" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[410]=</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>411</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C416" s="8"/>
+      <c r="E416" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[411]="k_Price5";</v>
+      </c>
+      <c r="J416" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[411]=</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="3">
+        <v>412</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C401" s="12"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>0</v>
-      </c>
-      <c r="B402" t="s">
-        <v>4</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>1</v>
-      </c>
-      <c r="B403" t="s">
-        <v>5</v>
-      </c>
-      <c r="C403" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>2</v>
-      </c>
-      <c r="B404" t="s">
-        <v>6</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>3</v>
-      </c>
-      <c r="B405" t="s">
-        <v>7</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>4</v>
-      </c>
-      <c r="B406" t="s">
-        <v>8</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>5</v>
-      </c>
-      <c r="B407" t="s">
-        <v>9</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>6</v>
-      </c>
-      <c r="B408" t="s">
-        <v>10</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>7</v>
-      </c>
-      <c r="B409" t="s">
-        <v>11</v>
-      </c>
-      <c r="C409" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>8</v>
-      </c>
-      <c r="B410" t="s">
-        <v>33</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>9</v>
-      </c>
-      <c r="B411" t="s">
-        <v>35</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>10</v>
-      </c>
-      <c r="B412" t="s">
-        <v>37</v>
-      </c>
-      <c r="C412" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>11</v>
-      </c>
-      <c r="B413" t="s">
-        <v>38</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>12</v>
-      </c>
-      <c r="B414" t="s">
-        <v>39</v>
-      </c>
-      <c r="C414" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>13</v>
-      </c>
-      <c r="B415" t="s">
-        <v>40</v>
-      </c>
-      <c r="C415" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>14</v>
-      </c>
-      <c r="B416" t="s">
-        <v>41</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>15</v>
-      </c>
-      <c r="B417" t="s">
-        <v>42</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>16</v>
-      </c>
-      <c r="B418" t="s">
-        <v>43</v>
-      </c>
-      <c r="C418" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="C418" s="12"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B419" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B420" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B421" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B423" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B424" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B425" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B426" t="s">
-        <v>18</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B427" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B428" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B429" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B430" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B431" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B432" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B433" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
+        <v>15</v>
+      </c>
+      <c r="B434" t="s">
+        <v>42</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>16</v>
+      </c>
+      <c r="B435" t="s">
+        <v>43</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>17</v>
+      </c>
+      <c r="B436" t="s">
+        <v>12</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>18</v>
+      </c>
+      <c r="B437" t="s">
+        <v>44</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>19</v>
+      </c>
+      <c r="B438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>20</v>
+      </c>
+      <c r="B439" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>21</v>
+      </c>
+      <c r="B440" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>22</v>
+      </c>
+      <c r="B441" t="s">
+        <v>16</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>23</v>
+      </c>
+      <c r="B442" t="s">
+        <v>17</v>
+      </c>
+      <c r="C442" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>24</v>
+      </c>
+      <c r="B443" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>25</v>
+      </c>
+      <c r="B444" t="s">
+        <v>45</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>26</v>
+      </c>
+      <c r="B445" t="s">
+        <v>46</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>27</v>
+      </c>
+      <c r="B446" t="s">
+        <v>47</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>28</v>
+      </c>
+      <c r="B447" t="s">
+        <v>48</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>29</v>
+      </c>
+      <c r="B448" t="s">
+        <v>49</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>30</v>
+      </c>
+      <c r="B449" t="s">
+        <v>50</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>31</v>
+      </c>
+      <c r="B450" t="s">
+        <v>19</v>
+      </c>
+      <c r="C450" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B434" t="s">
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>32</v>
+      </c>
+      <c r="B451" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B418:C418"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="821">
   <si>
     <t>Закладка</t>
   </si>
@@ -2403,6 +2403,81 @@
   </si>
   <si>
     <t>цена абсолютная аналога 1</t>
+  </si>
+  <si>
+    <t>"econSituation";</t>
+  </si>
+  <si>
+    <t>"concurUp";</t>
+  </si>
+  <si>
+    <t>"LowsChange";</t>
+  </si>
+  <si>
+    <t>"extremalSituations";</t>
+  </si>
+  <si>
+    <t>"AcceleratedWear";</t>
+  </si>
+  <si>
+    <t>"NoRental";</t>
+  </si>
+  <si>
+    <t>"Management";</t>
+  </si>
+  <si>
+    <t>"Criminal";</t>
+  </si>
+  <si>
+    <t>"FinChecks";</t>
+  </si>
+  <si>
+    <t>"NotCorrect";</t>
+  </si>
+  <si>
+    <t>"RiskSumm";</t>
+  </si>
+  <si>
+    <t>"RiskPrc";</t>
+  </si>
+  <si>
+    <t>"NoRisk";</t>
+  </si>
+  <si>
+    <t>"RiskPrc2";</t>
+  </si>
+  <si>
+    <t>"NoRisk1m";</t>
+  </si>
+  <si>
+    <t>"InvestManag";</t>
+  </si>
+  <si>
+    <t>"InvestSalary";</t>
+  </si>
+  <si>
+    <t>"K_el";</t>
+  </si>
+  <si>
+    <t>"price11";</t>
+  </si>
+  <si>
+    <t>"InvestSalary2";</t>
+  </si>
+  <si>
+    <t>"InvestSalary1m";</t>
+  </si>
+  <si>
+    <t>"t_l";</t>
+  </si>
+  <si>
+    <t>"t_r";</t>
+  </si>
+  <si>
+    <t>"K_sdv";</t>
+  </si>
+  <si>
+    <t>"K_el2";</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8355,7 +8430,7 @@
         <v>bookmarks_report[402]="k_seller1";</v>
       </c>
       <c r="J407" t="str">
-        <f t="shared" ref="J407:J416" si="4">CONCATENATE($K$275,A407,$J$275)</f>
+        <f t="shared" ref="J407:J441" si="4">CONCATENATE($K$275,A407,$J$275)</f>
         <v>texts_report[402]=</v>
       </c>
     </row>
@@ -8368,7 +8443,7 @@
       </c>
       <c r="C408" s="8"/>
       <c r="E408" t="str">
-        <f t="shared" ref="E408:E416" si="5">CONCATENATE($E$275,"[",A408,"]=",B408)</f>
+        <f t="shared" ref="E408:E441" si="5">CONCATENATE($E$275,"[",A408,"]=",B408)</f>
         <v>bookmarks_report[403]="k_seller2";</v>
       </c>
       <c r="J408" t="str">
@@ -8514,383 +8589,801 @@
         <v>texts_report[411]=</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>412</v>
       </c>
-      <c r="B417" s="1"/>
+      <c r="B417" s="1" t="s">
+        <v>796</v>
+      </c>
       <c r="C417" s="8"/>
-    </row>
-    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="11" t="s">
+      <c r="E417" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[412]="econSituation";</v>
+      </c>
+      <c r="J417" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[412]=</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>413</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C418" s="8"/>
+      <c r="E418" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[413]="concurUp";</v>
+      </c>
+      <c r="J418" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[413]=</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>414</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C419" s="8"/>
+      <c r="E419" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[414]="LowsChange";</v>
+      </c>
+      <c r="J419" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[414]=</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>415</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C420" s="8"/>
+      <c r="E420" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[415]="extremalSituations";</v>
+      </c>
+      <c r="J420" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[415]=</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>416</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C421" s="8"/>
+      <c r="E421" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[416]="AcceleratedWear";</v>
+      </c>
+      <c r="J421" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[416]=</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>417</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C422" s="8"/>
+      <c r="E422" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[417]="NoRental";</v>
+      </c>
+      <c r="J422" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[417]=</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>418</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C423" s="8"/>
+      <c r="E423" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[418]="Management";</v>
+      </c>
+      <c r="J423" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[418]=</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>419</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C424" s="8"/>
+      <c r="E424" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[419]="Criminal";</v>
+      </c>
+      <c r="J424" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[419]=</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>420</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C425" s="8"/>
+      <c r="E425" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[420]="FinChecks";</v>
+      </c>
+      <c r="J425" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[420]=</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>421</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C426" s="8"/>
+      <c r="E426" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[421]="NotCorrect";</v>
+      </c>
+      <c r="J426" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[421]=</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>422</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C427" s="8"/>
+      <c r="E427" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[422]="RiskSumm";</v>
+      </c>
+      <c r="J427" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[422]=</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>423</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C428" s="8"/>
+      <c r="E428" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[423]="RiskPrc";</v>
+      </c>
+      <c r="J428" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[423]=</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>424</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C429" s="8"/>
+      <c r="E429" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[424]="NoRisk";</v>
+      </c>
+      <c r="J429" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[424]=</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>425</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C430" s="8"/>
+      <c r="E430" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[425]="RiskPrc2";</v>
+      </c>
+      <c r="J430" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[425]=</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>426</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C431" s="8"/>
+      <c r="E431" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[426]="NoRisk1m";</v>
+      </c>
+      <c r="J431" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[426]=</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>427</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C432" s="8"/>
+      <c r="E432" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[427]="InvestManag";</v>
+      </c>
+      <c r="J432" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[427]=</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>428</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C433" s="8"/>
+      <c r="E433" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[428]="InvestSalary";</v>
+      </c>
+      <c r="J433" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[428]=</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>429</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C434" s="8"/>
+      <c r="E434" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[429]="K_el";</v>
+      </c>
+      <c r="J434" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[429]=</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>430</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C435" s="8"/>
+      <c r="E435" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[430]="price11";</v>
+      </c>
+      <c r="J435" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[430]=</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>431</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C436" s="8"/>
+      <c r="E436" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[431]="InvestSalary2";</v>
+      </c>
+      <c r="J436" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[431]=</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>432</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C437" s="8"/>
+      <c r="E437" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[432]="InvestSalary1m";</v>
+      </c>
+      <c r="J437" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[432]=</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>433</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C438" s="8"/>
+      <c r="E438" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[433]="t_l";</v>
+      </c>
+      <c r="J438" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[433]=</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>434</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C439" s="8"/>
+      <c r="E439" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[434]="t_r";</v>
+      </c>
+      <c r="J439" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[434]=</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>435</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C440" s="8"/>
+      <c r="E440" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[435]="K_sdv";</v>
+      </c>
+      <c r="J440" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[435]=</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="3">
+        <v>436</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C441" s="8"/>
+      <c r="E441" t="str">
+        <f t="shared" si="5"/>
+        <v>bookmarks_report[436]="K_el2";</v>
+      </c>
+      <c r="J441" t="str">
+        <f t="shared" si="4"/>
+        <v>texts_report[436]=</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C418" s="12"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="C442" s="12"/>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443">
         <v>0</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B443" t="s">
         <v>4</v>
       </c>
-      <c r="C419" s="6" t="s">
+      <c r="C443" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444">
         <v>1</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B444" t="s">
         <v>5</v>
       </c>
-      <c r="C420" s="6" t="s">
+      <c r="C444" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445">
         <v>2</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B445" t="s">
         <v>6</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C445" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446">
         <v>3</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B446" t="s">
         <v>7</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C446" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447">
         <v>4</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B447" t="s">
         <v>8</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C447" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448">
         <v>5</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B448" t="s">
         <v>9</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C448" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>6</v>
-      </c>
-      <c r="B425" t="s">
-        <v>10</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>7</v>
-      </c>
-      <c r="B426" t="s">
-        <v>11</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>8</v>
-      </c>
-      <c r="B427" t="s">
-        <v>33</v>
-      </c>
-      <c r="C427" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>9</v>
-      </c>
-      <c r="B428" t="s">
-        <v>35</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>10</v>
-      </c>
-      <c r="B429" t="s">
-        <v>37</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>11</v>
-      </c>
-      <c r="B430" t="s">
-        <v>38</v>
-      </c>
-      <c r="C430" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>12</v>
-      </c>
-      <c r="B431" t="s">
-        <v>39</v>
-      </c>
-      <c r="C431" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>13</v>
-      </c>
-      <c r="B432" t="s">
-        <v>40</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>14</v>
-      </c>
-      <c r="B433" t="s">
-        <v>41</v>
-      </c>
-      <c r="C433" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>15</v>
-      </c>
-      <c r="B434" t="s">
-        <v>42</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>16</v>
-      </c>
-      <c r="B435" t="s">
-        <v>43</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>17</v>
-      </c>
-      <c r="B436" t="s">
-        <v>12</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>18</v>
-      </c>
-      <c r="B437" t="s">
-        <v>44</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>19</v>
-      </c>
-      <c r="B438" t="s">
-        <v>13</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>20</v>
-      </c>
-      <c r="B439" t="s">
-        <v>14</v>
-      </c>
-      <c r="C439" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>21</v>
-      </c>
-      <c r="B440" t="s">
-        <v>15</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>22</v>
-      </c>
-      <c r="B441" t="s">
-        <v>16</v>
-      </c>
-      <c r="C441" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>23</v>
-      </c>
-      <c r="B442" t="s">
-        <v>17</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>24</v>
-      </c>
-      <c r="B443" t="s">
-        <v>18</v>
-      </c>
-      <c r="C443" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>25</v>
-      </c>
-      <c r="B444" t="s">
-        <v>45</v>
-      </c>
-      <c r="C444" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>26</v>
-      </c>
-      <c r="B445" t="s">
-        <v>46</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>27</v>
-      </c>
-      <c r="B446" t="s">
-        <v>47</v>
-      </c>
-      <c r="C446" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>28</v>
-      </c>
-      <c r="B447" t="s">
-        <v>48</v>
-      </c>
-      <c r="C447" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>29</v>
-      </c>
-      <c r="B448" t="s">
-        <v>49</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B449" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B450" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
+        <v>8</v>
+      </c>
+      <c r="B451" t="s">
+        <v>33</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>9</v>
+      </c>
+      <c r="B452" t="s">
+        <v>35</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>10</v>
+      </c>
+      <c r="B453" t="s">
+        <v>37</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>11</v>
+      </c>
+      <c r="B454" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>12</v>
+      </c>
+      <c r="B455" t="s">
+        <v>39</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>13</v>
+      </c>
+      <c r="B456" t="s">
+        <v>40</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>14</v>
+      </c>
+      <c r="B457" t="s">
+        <v>41</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>15</v>
+      </c>
+      <c r="B458" t="s">
+        <v>42</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>16</v>
+      </c>
+      <c r="B459" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>17</v>
+      </c>
+      <c r="B460" t="s">
+        <v>12</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>44</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>19</v>
+      </c>
+      <c r="B462" t="s">
+        <v>13</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>20</v>
+      </c>
+      <c r="B463" t="s">
+        <v>14</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>21</v>
+      </c>
+      <c r="B464" t="s">
+        <v>15</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>22</v>
+      </c>
+      <c r="B465" t="s">
+        <v>16</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>23</v>
+      </c>
+      <c r="B466" t="s">
+        <v>17</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>24</v>
+      </c>
+      <c r="B467" t="s">
+        <v>18</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>25</v>
+      </c>
+      <c r="B468" t="s">
+        <v>45</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>26</v>
+      </c>
+      <c r="B469" t="s">
+        <v>46</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>27</v>
+      </c>
+      <c r="B470" t="s">
+        <v>47</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>28</v>
+      </c>
+      <c r="B471" t="s">
+        <v>48</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>29</v>
+      </c>
+      <c r="B472" t="s">
+        <v>49</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>30</v>
+      </c>
+      <c r="B473" t="s">
+        <v>50</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>31</v>
+      </c>
+      <c r="B474" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B451" t="s">
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>32</v>
+      </c>
+      <c r="B475" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B442:C442"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Наименование закладок в документах.xlsx
+++ b/Documents/Наименование закладок в документах.xlsx
@@ -2423,9 +2423,6 @@
     <t>"NoRental";</t>
   </si>
   <si>
-    <t>"Management";</t>
-  </si>
-  <si>
     <t>"Criminal";</t>
   </si>
   <si>
@@ -2478,6 +2475,9 @@
   </si>
   <si>
     <t>"K_el2";</t>
+  </si>
+  <si>
+    <t>"Managment";</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2908,7 @@
   <dimension ref="A1:L475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8696,12 +8696,12 @@
         <v>418</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C423" s="8"/>
       <c r="E423" t="str">
         <f t="shared" si="5"/>
-        <v>bookmarks_report[418]="Management";</v>
+        <v>bookmarks_report[418]="Managment";</v>
       </c>
       <c r="J423" t="str">
         <f t="shared" si="4"/>
@@ -8713,7 +8713,7 @@
         <v>419</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C424" s="8"/>
       <c r="E424" t="str">
@@ -8730,7 +8730,7 @@
         <v>420</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C425" s="8"/>
       <c r="E425" t="str">
@@ -8747,7 +8747,7 @@
         <v>421</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C426" s="8"/>
       <c r="E426" t="str">
@@ -8764,7 +8764,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C427" s="8"/>
       <c r="E427" t="str">
@@ -8781,7 +8781,7 @@
         <v>423</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C428" s="8"/>
       <c r="E428" t="str">
@@ -8798,7 +8798,7 @@
         <v>424</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C429" s="8"/>
       <c r="E429" t="str">
@@ -8815,7 +8815,7 @@
         <v>425</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C430" s="8"/>
       <c r="E430" t="str">
@@ -8832,7 +8832,7 @@
         <v>426</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C431" s="8"/>
       <c r="E431" t="str">
@@ -8849,7 +8849,7 @@
         <v>427</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C432" s="8"/>
       <c r="E432" t="str">
@@ -8866,7 +8866,7 @@
         <v>428</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C433" s="8"/>
       <c r="E433" t="str">
@@ -8883,7 +8883,7 @@
         <v>429</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C434" s="8"/>
       <c r="E434" t="str">
@@ -8900,7 +8900,7 @@
         <v>430</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C435" s="8"/>
       <c r="E435" t="str">
@@ -8917,7 +8917,7 @@
         <v>431</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C436" s="8"/>
       <c r="E436" t="str">
@@ -8934,7 +8934,7 @@
         <v>432</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C437" s="8"/>
       <c r="E437" t="str">
@@ -8951,7 +8951,7 @@
         <v>433</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C438" s="8"/>
       <c r="E438" t="str">
@@ -8968,7 +8968,7 @@
         <v>434</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C439" s="8"/>
       <c r="E439" t="str">
@@ -8985,7 +8985,7 @@
         <v>435</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C440" s="8"/>
       <c r="E440" t="str">
@@ -9002,7 +9002,7 @@
         <v>436</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C441" s="8"/>
       <c r="E441" t="str">
